--- a/Planning/DAT 205 Project Schedule.xlsx
+++ b/Planning/DAT 205 Project Schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AAD668-9FD9-43ED-9EDA-68B8B4392F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="Priority">DataLists!$C$3:$C$7</definedName>
     <definedName name="Type_IRD">DataLists!$A$3:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
@@ -740,9 +741,6 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -830,6 +828,9 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,7 +1078,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1115,7 +1122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1153,7 +1166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Explosion 1 1"/>
+        <xdr:cNvPr id="2" name="Explosion 1 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1207,7 +1226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Explosion 1 6"/>
+        <xdr:cNvPr id="7" name="Explosion 1 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1261,7 +1286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Explosion 1 9"/>
+        <xdr:cNvPr id="10" name="Explosion 1 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1315,7 +1346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Explosion 1 10"/>
+        <xdr:cNvPr id="11" name="Explosion 1 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1369,7 +1406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Explosion 1 11"/>
+        <xdr:cNvPr id="12" name="Explosion 1 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1423,7 +1466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Explosion 1 12"/>
+        <xdr:cNvPr id="13" name="Explosion 1 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1477,7 +1526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Explosion 1 14"/>
+        <xdr:cNvPr id="15" name="Explosion 1 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1536,7 +1591,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1574,7 +1635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1612,7 +1679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Explosion 1 3"/>
+        <xdr:cNvPr id="4" name="Explosion 1 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1666,7 +1739,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Explosion 1 4"/>
+        <xdr:cNvPr id="5" name="Explosion 1 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1720,7 +1799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Explosion 1 5"/>
+        <xdr:cNvPr id="6" name="Explosion 1 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1774,7 +1859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Explosion 1 6"/>
+        <xdr:cNvPr id="7" name="Explosion 1 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1828,7 +1919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Explosion 1 7"/>
+        <xdr:cNvPr id="8" name="Explosion 1 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1882,7 +1979,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Explosion 1 8"/>
+        <xdr:cNvPr id="9" name="Explosion 1 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2186,72 +2289,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="47" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.44140625" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="12.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.42578125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="14" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.77734375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.88671875" style="10"/>
-    <col min="12" max="66" width="1.77734375" style="10" customWidth="1"/>
-    <col min="67" max="16384" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="12.7109375" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.85546875" style="10"/>
+    <col min="12" max="66" width="1.7109375" style="10" customWidth="1"/>
+    <col min="67" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:67" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="53"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
       <c r="K1" s="53"/>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
       <c r="AL1" s="53"/>
       <c r="AM1" s="53"/>
       <c r="AN1" s="53"/>
@@ -2283,13 +2386,13 @@
       <c r="BN1" s="53"/>
       <c r="BO1" s="53"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
@@ -2352,19 +2455,19 @@
       <c r="BN2" s="53"/>
       <c r="BO2" s="53"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="61" t="s">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="53"/>
       <c r="H3" s="53"/>
       <c r="I3" s="53"/>
@@ -2427,17 +2530,17 @@
       <c r="BN3" s="53"/>
       <c r="BO3" s="53"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
@@ -2500,17 +2603,17 @@
       <c r="BN4" s="53"/>
       <c r="BO4" s="53"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="61">
         <v>44255</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
@@ -2573,13 +2676,13 @@
       <c r="BN5" s="53"/>
       <c r="BO5" s="53"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
@@ -2642,272 +2745,272 @@
       <c r="BN6" s="53"/>
       <c r="BO6" s="53"/>
     </row>
-    <row r="7" spans="1:67" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:67" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="59" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="53"/>
-      <c r="L7" s="84">
+      <c r="L7" s="83">
         <v>44252</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="84">
         <f t="shared" ref="M7:AY7" si="0">L7+1</f>
         <v>44253</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="84">
         <f t="shared" si="0"/>
         <v>44254</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="84">
         <f t="shared" si="0"/>
         <v>44255</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="84">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="84">
         <f t="shared" si="0"/>
         <v>44257</v>
       </c>
-      <c r="R7" s="85">
+      <c r="R7" s="84">
         <f t="shared" si="0"/>
         <v>44258</v>
       </c>
-      <c r="S7" s="84">
+      <c r="S7" s="83">
         <f t="shared" si="0"/>
         <v>44259</v>
       </c>
-      <c r="T7" s="85">
+      <c r="T7" s="84">
         <f t="shared" si="0"/>
         <v>44260</v>
       </c>
-      <c r="U7" s="85">
+      <c r="U7" s="84">
         <f t="shared" si="0"/>
         <v>44261</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="84">
         <f t="shared" si="0"/>
         <v>44262</v>
       </c>
-      <c r="W7" s="85">
+      <c r="W7" s="84">
         <f t="shared" si="0"/>
         <v>44263</v>
       </c>
-      <c r="X7" s="85">
+      <c r="X7" s="84">
         <f t="shared" si="0"/>
         <v>44264</v>
       </c>
-      <c r="Y7" s="85">
+      <c r="Y7" s="84">
         <f t="shared" si="0"/>
         <v>44265</v>
       </c>
-      <c r="Z7" s="84">
+      <c r="Z7" s="83">
         <f t="shared" si="0"/>
         <v>44266</v>
       </c>
-      <c r="AA7" s="85">
+      <c r="AA7" s="84">
         <f t="shared" si="0"/>
         <v>44267</v>
       </c>
-      <c r="AB7" s="85">
+      <c r="AB7" s="84">
         <f t="shared" si="0"/>
         <v>44268</v>
       </c>
-      <c r="AC7" s="85">
+      <c r="AC7" s="84">
         <f t="shared" si="0"/>
         <v>44269</v>
       </c>
-      <c r="AD7" s="85">
+      <c r="AD7" s="84">
         <f t="shared" si="0"/>
         <v>44270</v>
       </c>
-      <c r="AE7" s="85">
+      <c r="AE7" s="84">
         <f t="shared" si="0"/>
         <v>44271</v>
       </c>
-      <c r="AF7" s="85">
+      <c r="AF7" s="84">
         <f t="shared" si="0"/>
         <v>44272</v>
       </c>
-      <c r="AG7" s="84">
+      <c r="AG7" s="83">
         <f t="shared" si="0"/>
         <v>44273</v>
       </c>
-      <c r="AH7" s="85">
+      <c r="AH7" s="84">
         <f t="shared" si="0"/>
         <v>44274</v>
       </c>
-      <c r="AI7" s="85">
+      <c r="AI7" s="84">
         <f t="shared" si="0"/>
         <v>44275</v>
       </c>
-      <c r="AJ7" s="85">
+      <c r="AJ7" s="84">
         <f t="shared" si="0"/>
         <v>44276</v>
       </c>
-      <c r="AK7" s="85">
+      <c r="AK7" s="84">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="AL7" s="85">
+      <c r="AL7" s="84">
         <f t="shared" si="0"/>
         <v>44278</v>
       </c>
-      <c r="AM7" s="85">
+      <c r="AM7" s="84">
         <f t="shared" si="0"/>
         <v>44279</v>
       </c>
-      <c r="AN7" s="84">
+      <c r="AN7" s="83">
         <f t="shared" si="0"/>
         <v>44280</v>
       </c>
-      <c r="AO7" s="85">
+      <c r="AO7" s="84">
         <f t="shared" si="0"/>
         <v>44281</v>
       </c>
-      <c r="AP7" s="85">
+      <c r="AP7" s="84">
         <f t="shared" si="0"/>
         <v>44282</v>
       </c>
-      <c r="AQ7" s="85">
+      <c r="AQ7" s="84">
         <f t="shared" si="0"/>
         <v>44283</v>
       </c>
-      <c r="AR7" s="85">
+      <c r="AR7" s="84">
         <f t="shared" si="0"/>
         <v>44284</v>
       </c>
-      <c r="AS7" s="85">
+      <c r="AS7" s="84">
         <f t="shared" si="0"/>
         <v>44285</v>
       </c>
-      <c r="AT7" s="85">
+      <c r="AT7" s="84">
         <f t="shared" si="0"/>
         <v>44286</v>
       </c>
-      <c r="AU7" s="84">
+      <c r="AU7" s="83">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="AV7" s="85">
+      <c r="AV7" s="84">
         <f t="shared" si="0"/>
         <v>44288</v>
       </c>
-      <c r="AW7" s="85">
+      <c r="AW7" s="84">
         <f t="shared" si="0"/>
         <v>44289</v>
       </c>
-      <c r="AX7" s="85">
+      <c r="AX7" s="84">
         <f t="shared" si="0"/>
         <v>44290</v>
       </c>
-      <c r="AY7" s="85">
+      <c r="AY7" s="84">
         <f t="shared" si="0"/>
         <v>44291</v>
       </c>
-      <c r="AZ7" s="85">
+      <c r="AZ7" s="84">
         <f t="shared" ref="AZ7:BN7" si="1">AY7+1</f>
         <v>44292</v>
       </c>
-      <c r="BA7" s="85">
+      <c r="BA7" s="84">
         <f t="shared" si="1"/>
         <v>44293</v>
       </c>
-      <c r="BB7" s="84">
+      <c r="BB7" s="83">
         <f t="shared" si="1"/>
         <v>44294</v>
       </c>
-      <c r="BC7" s="85">
+      <c r="BC7" s="84">
         <f t="shared" si="1"/>
         <v>44295</v>
       </c>
-      <c r="BD7" s="85">
+      <c r="BD7" s="84">
         <f t="shared" si="1"/>
         <v>44296</v>
       </c>
-      <c r="BE7" s="85">
+      <c r="BE7" s="84">
         <f t="shared" si="1"/>
         <v>44297</v>
       </c>
-      <c r="BF7" s="85">
+      <c r="BF7" s="84">
         <f t="shared" si="1"/>
         <v>44298</v>
       </c>
-      <c r="BG7" s="85">
+      <c r="BG7" s="84">
         <f t="shared" si="1"/>
         <v>44299</v>
       </c>
-      <c r="BH7" s="85">
+      <c r="BH7" s="84">
         <f t="shared" si="1"/>
         <v>44300</v>
       </c>
-      <c r="BI7" s="84">
+      <c r="BI7" s="83">
         <f t="shared" si="1"/>
         <v>44301</v>
       </c>
-      <c r="BJ7" s="85">
+      <c r="BJ7" s="84">
         <f t="shared" si="1"/>
         <v>44302</v>
       </c>
-      <c r="BK7" s="85">
+      <c r="BK7" s="84">
         <f t="shared" si="1"/>
         <v>44303</v>
       </c>
-      <c r="BL7" s="85">
+      <c r="BL7" s="84">
         <f t="shared" si="1"/>
         <v>44304</v>
       </c>
-      <c r="BM7" s="85">
+      <c r="BM7" s="84">
         <f t="shared" si="1"/>
         <v>44305</v>
       </c>
-      <c r="BN7" s="85">
+      <c r="BN7" s="84">
         <f t="shared" si="1"/>
         <v>44306</v>
       </c>
       <c r="BO7" s="53"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
-      <c r="B8" s="61" t="s">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="68"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="53"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -2966,39 +3069,39 @@
       <c r="BN8" s="47"/>
       <c r="BO8" s="53"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="70">
         <f>MAX(C10:C14)</f>
         <v>44259</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="71">
+      <c r="D9" s="71"/>
+      <c r="E9" s="70">
         <f>MIN(E10:E14)</f>
         <v>44252</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="70">
         <f>MAX(F10:F14)</f>
         <v>44259</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="69">
         <f>SUM(G10:G14)</f>
         <v>7</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="72">
         <f>SUM(H10:H14)/$G$9</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I9" s="73">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="I9" s="72">
         <f>SUM(I10:I14)/$G$9</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="72">
         <v>0.2</v>
       </c>
       <c r="K9" s="53"/>
@@ -3224,34 +3327,34 @@
       </c>
       <c r="BO9" s="53"/>
     </row>
-    <row r="10" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="str">
+    <row r="10" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="str">
         <f>A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
         <v>S1-1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67">
+      <c r="C10" s="60"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66">
         <v>44252</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="75">
         <f>E10+G10</f>
         <v>44255</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="76">
         <v>3</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="60">
         <v>4</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="77">
         <f>IF(F10&lt;=$B$5,G10,"")</f>
         <v>3</v>
       </c>
-      <c r="J10" s="68"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="53"/>
       <c r="L10" s="48">
         <f t="shared" ref="L10:AA25" si="3">IF(AND($F10-L$7&gt;=0,L$7-$E10&gt;=0),1,0)</f>
@@ -3475,35 +3578,37 @@
       </c>
       <c r="BO10" s="53"/>
     </row>
-    <row r="11" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="str">
+    <row r="11" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="str">
         <f t="shared" ref="A11:A14" si="8">A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
         <v>S1-2</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>44256</v>
       </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="76">
+      <c r="D11" s="79"/>
+      <c r="E11" s="75">
         <f>F10</f>
         <v>44255</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="75">
         <f t="shared" ref="F11:F39" si="9">E11+G11</f>
         <v>44256</v>
       </c>
-      <c r="G11" s="77">
-        <v>1</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="78" t="str">
+      <c r="G11" s="76">
+        <v>1</v>
+      </c>
+      <c r="H11" s="60">
+        <v>1</v>
+      </c>
+      <c r="I11" s="77" t="str">
         <f>IF(F11&lt;=$B$5,G11,"")</f>
         <v/>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="53"/>
       <c r="L11" s="48">
         <f t="shared" si="3"/>
@@ -3727,34 +3832,36 @@
       </c>
       <c r="BO11" s="53"/>
     </row>
-    <row r="12" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="str">
+    <row r="12" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="str">
         <f t="shared" si="8"/>
         <v>S1-3</v>
       </c>
-      <c r="B12" s="61" t="str">
+      <c r="B12" s="60" t="str">
         <f>"Develop " &amp; B9</f>
         <v>Develop Team Case Proposals</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="76">
+      <c r="C12" s="60"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="75">
         <f t="shared" ref="E12:E14" si="10">F11</f>
         <v>44256</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="75">
         <f t="shared" si="9"/>
         <v>44257</v>
       </c>
-      <c r="G12" s="77">
-        <v>1</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="78" t="str">
+      <c r="G12" s="76">
+        <v>1</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1</v>
+      </c>
+      <c r="I12" s="77" t="str">
         <f>IF(F12&lt;=$B$5,G12,"")</f>
         <v/>
       </c>
-      <c r="J12" s="68"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="53"/>
       <c r="L12" s="48">
         <f t="shared" si="3"/>
@@ -3978,34 +4085,36 @@
       </c>
       <c r="BO12" s="53"/>
     </row>
-    <row r="13" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="str">
+    <row r="13" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="str">
         <f t="shared" si="8"/>
         <v>S1-4</v>
       </c>
-      <c r="B13" s="79" t="str">
+      <c r="B13" s="78" t="str">
         <f>"Finalized " &amp;B9</f>
         <v>Finalized Team Case Proposals</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="76">
+      <c r="C13" s="60"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="75">
         <f t="shared" si="10"/>
         <v>44257</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="75">
         <f t="shared" si="9"/>
         <v>44258</v>
       </c>
-      <c r="G13" s="77">
-        <v>1</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="78" t="str">
+      <c r="G13" s="76">
+        <v>1</v>
+      </c>
+      <c r="H13" s="60">
+        <v>1</v>
+      </c>
+      <c r="I13" s="77" t="str">
         <f>IF(F13&lt;=$B$5,G13,"")</f>
         <v/>
       </c>
-      <c r="J13" s="68"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="53"/>
       <c r="L13" s="48">
         <f t="shared" si="3"/>
@@ -4229,36 +4338,38 @@
       </c>
       <c r="BO13" s="53"/>
     </row>
-    <row r="14" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="str">
+    <row r="14" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="str">
         <f t="shared" si="8"/>
         <v>S1-5</v>
       </c>
-      <c r="B14" s="79" t="str">
+      <c r="B14" s="78" t="str">
         <f>"Submit " &amp; B9</f>
         <v>Submit Team Case Proposals</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="66">
         <v>44259</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="76">
+      <c r="D14" s="79"/>
+      <c r="E14" s="75">
         <f t="shared" si="10"/>
         <v>44258</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="75">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="G14" s="77">
-        <v>1</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="78" t="str">
+      <c r="G14" s="76">
+        <v>1</v>
+      </c>
+      <c r="H14" s="60">
+        <v>1</v>
+      </c>
+      <c r="I14" s="77" t="str">
         <f>IF(F14&lt;=$B$5,G14,"")</f>
         <v/>
       </c>
-      <c r="J14" s="68"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="53"/>
       <c r="L14" s="48">
         <f t="shared" si="3"/>
@@ -4482,39 +4593,39 @@
       </c>
       <c r="BO14" s="53"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="70">
         <f>MAX(C16:C21)</f>
         <v>44273</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71">
+      <c r="D15" s="71"/>
+      <c r="E15" s="70">
         <f>MIN(E16:E21)</f>
         <v>44259</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <f>MAX(F16:F21)</f>
         <v>44268</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="69">
         <f>SUM(G16:G21)</f>
         <v>9</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="72">
         <f>SUM(H16:H21)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="72">
         <f>SUM(I16:I21)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="72">
         <v>0.2</v>
       </c>
       <c r="K15" s="53"/>
@@ -4740,36 +4851,36 @@
       </c>
       <c r="BO15" s="53"/>
     </row>
-    <row r="16" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="str">
+    <row r="16" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="str">
         <f>A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
         <v>S2-1</v>
       </c>
-      <c r="B16" s="61" t="str">
+      <c r="B16" s="60" t="str">
         <f>"Review " &amp;B9</f>
         <v>Review Team Case Proposals</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="66" t="str">
+      <c r="C16" s="60"/>
+      <c r="D16" s="65" t="str">
         <f>A14</f>
         <v>S1-5</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="75">
         <v>44259</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="75">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="G16" s="77">
-        <v>0</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="78" t="str">
+      <c r="G16" s="76">
+        <v>0</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="77" t="str">
         <f>IF(F16&lt;=$B$5,G16,"")</f>
         <v/>
       </c>
-      <c r="J16" s="68"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="53"/>
       <c r="L16" s="48">
         <f t="shared" si="3"/>
@@ -4993,33 +5104,33 @@
       </c>
       <c r="BO16" s="53"/>
     </row>
-    <row r="17" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="str">
+    <row r="17" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="str">
         <f t="shared" ref="A17:A21" si="12">A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
         <v>S2-2</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="76">
+      <c r="C17" s="60"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="75">
         <f>F16</f>
         <v>44259</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="75">
         <f t="shared" si="9"/>
         <v>44263</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="76">
         <v>4</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="78" t="str">
+      <c r="H17" s="60"/>
+      <c r="I17" s="77" t="str">
         <f>IF(F17&lt;=$B$5,G17,"")</f>
         <v/>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="53"/>
       <c r="L17" s="48">
         <f t="shared" si="3"/>
@@ -5243,33 +5354,33 @@
       </c>
       <c r="BO17" s="53"/>
     </row>
-    <row r="18" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="str">
+    <row r="18" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="str">
         <f t="shared" si="12"/>
         <v>S2-3</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="76">
+      <c r="C18" s="60"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="75">
         <f t="shared" ref="E18:E19" si="13">F17</f>
         <v>44263</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="75">
         <f t="shared" si="9"/>
         <v>44264</v>
       </c>
-      <c r="G18" s="77">
-        <v>1</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="78" t="str">
+      <c r="G18" s="76">
+        <v>1</v>
+      </c>
+      <c r="H18" s="60"/>
+      <c r="I18" s="77" t="str">
         <f t="shared" ref="I18:I19" si="14">IF(F18&lt;=$B$5,G18,"")</f>
         <v/>
       </c>
-      <c r="J18" s="68"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="53"/>
       <c r="L18" s="48">
         <f t="shared" si="3"/>
@@ -5493,34 +5604,34 @@
       </c>
       <c r="BO18" s="53"/>
     </row>
-    <row r="19" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="str">
+    <row r="19" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="str">
         <f t="shared" si="12"/>
         <v>S2-4</v>
       </c>
-      <c r="B19" s="61" t="str">
+      <c r="B19" s="60" t="str">
         <f>"Develop " &amp; B15</f>
         <v xml:space="preserve">Develop Final Plan </v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="76">
+      <c r="C19" s="60"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="75">
         <f t="shared" si="13"/>
         <v>44264</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="75">
         <f t="shared" si="9"/>
         <v>44265</v>
       </c>
-      <c r="G19" s="77">
-        <v>1</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="78" t="str">
+      <c r="G19" s="76">
+        <v>1</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="77" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J19" s="68"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="53"/>
       <c r="L19" s="48">
         <f t="shared" si="3"/>
@@ -5744,34 +5855,34 @@
       </c>
       <c r="BO19" s="53"/>
     </row>
-    <row r="20" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="str">
+    <row r="20" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="str">
         <f t="shared" si="12"/>
         <v>S2-5</v>
       </c>
-      <c r="B20" s="79" t="str">
+      <c r="B20" s="78" t="str">
         <f>"Finalized " &amp;B15</f>
         <v xml:space="preserve">Finalized Final Plan </v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="76">
+      <c r="C20" s="60"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="75">
         <f t="shared" ref="E20:E21" si="15">F19</f>
         <v>44265</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="75">
         <f t="shared" si="9"/>
         <v>44266</v>
       </c>
-      <c r="G20" s="77">
-        <v>1</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="78" t="str">
+      <c r="G20" s="76">
+        <v>1</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="77" t="str">
         <f>IF(F20&lt;=$B$5,G20,"")</f>
         <v/>
       </c>
-      <c r="J20" s="68"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="53"/>
       <c r="L20" s="48">
         <f t="shared" si="3"/>
@@ -5995,36 +6106,36 @@
       </c>
       <c r="BO20" s="53"/>
     </row>
-    <row r="21" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="str">
+    <row r="21" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="str">
         <f t="shared" si="12"/>
         <v>S2-6</v>
       </c>
-      <c r="B21" s="79" t="str">
+      <c r="B21" s="78" t="str">
         <f>"Submit " &amp; B15</f>
         <v xml:space="preserve">Submit Final Plan </v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>44273</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="76">
+      <c r="D21" s="79"/>
+      <c r="E21" s="75">
         <f t="shared" si="15"/>
         <v>44266</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="75">
         <f t="shared" si="9"/>
         <v>44268</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="76">
         <v>2</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="78" t="str">
+      <c r="H21" s="60"/>
+      <c r="I21" s="77" t="str">
         <f>IF(F21&lt;=$B$5,G21,"")</f>
         <v/>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="53"/>
       <c r="L21" s="48">
         <f t="shared" si="3"/>
@@ -6248,39 +6359,39 @@
       </c>
       <c r="BO21" s="53"/>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A22" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="70">
         <f>MAX(C23:C27)</f>
         <v>44280</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="71">
+      <c r="D22" s="71"/>
+      <c r="E22" s="70">
         <f>MIN(E23:E27)</f>
         <v>44268</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="70">
         <f>MAX(F23:F27)</f>
         <v>44280</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="69">
         <f>SUM(G23:G27)</f>
         <v>12</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="72">
         <f>SUM(H23:H27)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="72">
         <f>SUM(I23:I27)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="72">
         <v>0.2</v>
       </c>
       <c r="K22" s="53"/>
@@ -6506,36 +6617,36 @@
       </c>
       <c r="BO22" s="53"/>
     </row>
-    <row r="23" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="str">
+    <row r="23" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="str">
         <f>A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
         <v>S3-1</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="66" t="str">
+      <c r="C23" s="60"/>
+      <c r="D23" s="65" t="str">
         <f>A21</f>
         <v>S2-6</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="75">
         <f>F21</f>
         <v>44268</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="75">
         <f t="shared" si="9"/>
         <v>44269</v>
       </c>
-      <c r="G23" s="77">
-        <v>1</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="78" t="str">
+      <c r="G23" s="76">
+        <v>1</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="77" t="str">
         <f>IF(F23&lt;=$B$5,G23,"")</f>
         <v/>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="53"/>
       <c r="L23" s="48">
         <f t="shared" si="3"/>
@@ -6759,33 +6870,33 @@
       </c>
       <c r="BO23" s="53"/>
     </row>
-    <row r="24" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="str">
+    <row r="24" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="str">
         <f t="shared" ref="A24:A27" si="17">A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
         <v>S3-2</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="76">
+      <c r="C24" s="60"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="75">
         <f>F23</f>
         <v>44269</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="75">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="76">
         <v>2</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="78" t="str">
+      <c r="H24" s="60"/>
+      <c r="I24" s="77" t="str">
         <f>IF(F24&lt;=$B$5,G24,"")</f>
         <v/>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="53"/>
       <c r="L24" s="48">
         <f t="shared" si="3"/>
@@ -7009,34 +7120,34 @@
       </c>
       <c r="BO24" s="53"/>
     </row>
-    <row r="25" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="str">
+    <row r="25" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="str">
         <f t="shared" si="17"/>
         <v>S3-3</v>
       </c>
-      <c r="B25" s="61" t="str">
+      <c r="B25" s="60" t="str">
         <f>"Develop " &amp; B22</f>
         <v>Develop Interim Presentation</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="76">
+      <c r="C25" s="60"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="75">
         <f t="shared" ref="E25:E27" si="21">F24</f>
         <v>44271</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="75">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="76">
         <v>3</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="78" t="str">
+      <c r="H25" s="60"/>
+      <c r="I25" s="77" t="str">
         <f>IF(F25&lt;=$B$5,G25,"")</f>
         <v/>
       </c>
-      <c r="J25" s="68"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="53"/>
       <c r="L25" s="48">
         <f t="shared" si="3"/>
@@ -7260,34 +7371,34 @@
       </c>
       <c r="BO25" s="53"/>
     </row>
-    <row r="26" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="str">
+    <row r="26" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="str">
         <f t="shared" si="17"/>
         <v>S3-4</v>
       </c>
-      <c r="B26" s="79" t="str">
+      <c r="B26" s="78" t="str">
         <f>"Finalized " &amp;B22</f>
         <v>Finalized Interim Presentation</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="76">
+      <c r="C26" s="60"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="75">
         <f t="shared" si="21"/>
         <v>44274</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="75">
         <f t="shared" si="9"/>
         <v>44279</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="76">
         <v>5</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="78" t="str">
+      <c r="H26" s="60"/>
+      <c r="I26" s="77" t="str">
         <f>IF(F26&lt;=$B$5,G26,"")</f>
         <v/>
       </c>
-      <c r="J26" s="68"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="53"/>
       <c r="L26" s="48">
         <f t="shared" ref="L26:AA49" si="22">IF(AND($F26-L$7&gt;=0,L$7-$E26&gt;=0),1,0)</f>
@@ -7511,36 +7622,36 @@
       </c>
       <c r="BO26" s="53"/>
     </row>
-    <row r="27" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="str">
+    <row r="27" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="str">
         <f t="shared" si="17"/>
         <v>S3-5</v>
       </c>
-      <c r="B27" s="79" t="str">
+      <c r="B27" s="78" t="str">
         <f>"Submit " &amp; B22</f>
         <v>Submit Interim Presentation</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>44280</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="76">
+      <c r="D27" s="79"/>
+      <c r="E27" s="75">
         <f t="shared" si="21"/>
         <v>44279</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="75">
         <f t="shared" si="9"/>
         <v>44280</v>
       </c>
-      <c r="G27" s="77">
-        <v>1</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="78" t="str">
+      <c r="G27" s="76">
+        <v>1</v>
+      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="77" t="str">
         <f>IF(F27&lt;=$B$5,G27,"")</f>
         <v/>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="53"/>
       <c r="L27" s="48">
         <f t="shared" si="22"/>
@@ -7764,39 +7875,39 @@
       </c>
       <c r="BO27" s="53"/>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="70">
         <f>MAX(C29:C33)</f>
         <v>44294</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="71">
+      <c r="D28" s="71"/>
+      <c r="E28" s="70">
         <f>MIN(E29:E33)</f>
         <v>44268</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="70">
         <f>MAX(F29:F33)</f>
         <v>44289</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <f>SUM(G29:G33)</f>
         <v>21</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="72">
         <f>SUM(H29:H33)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="72">
         <f>SUM(I29:I33)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="J28" s="73">
+      <c r="J28" s="72">
         <v>0.2</v>
       </c>
       <c r="K28" s="53"/>
@@ -8022,36 +8133,36 @@
       </c>
       <c r="BO28" s="53"/>
     </row>
-    <row r="29" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="str">
+    <row r="29" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="str">
         <f>A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
         <v>S4-1</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="66" t="str">
+      <c r="C29" s="60"/>
+      <c r="D29" s="65" t="str">
         <f>A21</f>
         <v>S2-6</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="75">
         <f>F21</f>
         <v>44268</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="75">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="G29" s="77">
+      <c r="G29" s="76">
         <v>3</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="78" t="str">
+      <c r="H29" s="60"/>
+      <c r="I29" s="77" t="str">
         <f>IF(F29&lt;=$B$5,G29,"")</f>
         <v/>
       </c>
-      <c r="J29" s="68"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="53"/>
       <c r="L29" s="48">
         <f t="shared" si="22"/>
@@ -8275,33 +8386,33 @@
       </c>
       <c r="BO29" s="53"/>
     </row>
-    <row r="30" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="str">
+    <row r="30" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="str">
         <f t="shared" ref="A30:A33" si="24">A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
         <v>S4-2</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="76">
+      <c r="C30" s="60"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="75">
         <f>F29</f>
         <v>44271</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="75">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="76">
         <v>3</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="78" t="str">
+      <c r="H30" s="60"/>
+      <c r="I30" s="77" t="str">
         <f>IF(F30&lt;=$B$5,G30,"")</f>
         <v/>
       </c>
-      <c r="J30" s="68"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="53"/>
       <c r="L30" s="48">
         <f t="shared" si="22"/>
@@ -8525,34 +8636,34 @@
       </c>
       <c r="BO30" s="53"/>
     </row>
-    <row r="31" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="str">
+    <row r="31" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="str">
         <f t="shared" si="24"/>
         <v>S4-3</v>
       </c>
-      <c r="B31" s="61" t="str">
+      <c r="B31" s="60" t="str">
         <f>"Develop " &amp; B28</f>
         <v xml:space="preserve">Develop Final Report </v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="76">
+      <c r="C31" s="60"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="75">
         <f t="shared" ref="E31:E33" si="25">F30</f>
         <v>44274</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="75">
         <f t="shared" si="9"/>
         <v>44282</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="76">
         <v>8</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="78" t="str">
+      <c r="H31" s="60"/>
+      <c r="I31" s="77" t="str">
         <f>IF(F31&lt;=$B$5,G31,"")</f>
         <v/>
       </c>
-      <c r="J31" s="68"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="53"/>
       <c r="L31" s="48">
         <f t="shared" si="22"/>
@@ -8776,34 +8887,34 @@
       </c>
       <c r="BO31" s="53"/>
     </row>
-    <row r="32" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="str">
+    <row r="32" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="str">
         <f t="shared" si="24"/>
         <v>S4-4</v>
       </c>
-      <c r="B32" s="79" t="str">
+      <c r="B32" s="78" t="str">
         <f>"Finalized " &amp;B28</f>
         <v xml:space="preserve">Finalized Final Report </v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="76">
+      <c r="C32" s="60"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="75">
         <f t="shared" si="25"/>
         <v>44282</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="75">
         <f t="shared" si="9"/>
         <v>44287</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="76">
         <v>5</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="78" t="str">
+      <c r="H32" s="60"/>
+      <c r="I32" s="77" t="str">
         <f>IF(F32&lt;=$B$5,G32,"")</f>
         <v/>
       </c>
-      <c r="J32" s="68"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="53"/>
       <c r="L32" s="48">
         <f t="shared" si="22"/>
@@ -9027,36 +9138,36 @@
       </c>
       <c r="BO32" s="53"/>
     </row>
-    <row r="33" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="str">
+    <row r="33" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="str">
         <f t="shared" si="24"/>
         <v>S4-5</v>
       </c>
-      <c r="B33" s="79" t="str">
+      <c r="B33" s="78" t="str">
         <f>"Submit " &amp; B28</f>
         <v xml:space="preserve">Submit Final Report </v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="66">
         <v>44294</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="76">
+      <c r="D33" s="79"/>
+      <c r="E33" s="75">
         <f t="shared" si="25"/>
         <v>44287</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="75">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="76">
         <v>2</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="78" t="str">
+      <c r="H33" s="60"/>
+      <c r="I33" s="77" t="str">
         <f>IF(F33&lt;=$B$5,G33,"")</f>
         <v/>
       </c>
-      <c r="J33" s="68"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="53"/>
       <c r="L33" s="48">
         <f t="shared" si="22"/>
@@ -9280,39 +9391,39 @@
       </c>
       <c r="BO33" s="53"/>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="71">
+      <c r="C34" s="70">
         <f>MAX(C35:C39)</f>
         <v>44301</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="71">
+      <c r="D34" s="71"/>
+      <c r="E34" s="70">
         <f>MIN(E35:E39)</f>
         <v>44289</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="70">
         <f>MAX(F35:F39)</f>
         <v>44301</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="69">
         <f>SUM(G35:G39)</f>
         <v>12</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="72">
         <f>SUM(H35:H39)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="I34" s="73">
+      <c r="I34" s="72">
         <f>SUM(I35:I39)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="J34" s="73">
+      <c r="J34" s="72">
         <v>0.2</v>
       </c>
       <c r="K34" s="53"/>
@@ -9538,36 +9649,36 @@
       </c>
       <c r="BO34" s="53"/>
     </row>
-    <row r="35" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="str">
+    <row r="35" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73" t="str">
         <f>A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
         <v>S5-1</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="66" t="str">
+      <c r="C35" s="60"/>
+      <c r="D35" s="65" t="str">
         <f>A32</f>
         <v>S4-4</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="75">
         <f>F33</f>
         <v>44289</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="75">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="G35" s="77">
-        <v>0</v>
-      </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="78" t="str">
+      <c r="G35" s="76">
+        <v>0</v>
+      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="77" t="str">
         <f>IF(F35&lt;=$B$5,G35,"")</f>
         <v/>
       </c>
-      <c r="J35" s="68"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="53"/>
       <c r="L35" s="48">
         <f t="shared" si="22"/>
@@ -9791,34 +9902,34 @@
       </c>
       <c r="BO35" s="53"/>
     </row>
-    <row r="36" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="str">
+    <row r="36" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73" t="str">
         <f t="shared" ref="A36:A39" si="27">A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
         <v>S5-2</v>
       </c>
-      <c r="B36" s="61" t="str">
+      <c r="B36" s="60" t="str">
         <f>"Draft " &amp; B34</f>
         <v>Draft Final “Boardroom” Presentation</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="76">
+      <c r="C36" s="60"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="75">
         <f>F35</f>
         <v>44289</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="75">
         <f t="shared" si="9"/>
         <v>44292</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="76">
         <v>3</v>
       </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="78" t="str">
+      <c r="H36" s="60"/>
+      <c r="I36" s="77" t="str">
         <f>IF(F36&lt;=$B$5,G36,"")</f>
         <v/>
       </c>
-      <c r="J36" s="68"/>
+      <c r="J36" s="67"/>
       <c r="K36" s="53"/>
       <c r="L36" s="48">
         <f t="shared" si="22"/>
@@ -10042,34 +10153,34 @@
       </c>
       <c r="BO36" s="53"/>
     </row>
-    <row r="37" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="str">
+    <row r="37" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="str">
         <f t="shared" si="27"/>
         <v>S5-3</v>
       </c>
-      <c r="B37" s="61" t="str">
+      <c r="B37" s="60" t="str">
         <f>"Develop " &amp; B34</f>
         <v>Develop Final “Boardroom” Presentation</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="76">
+      <c r="C37" s="60"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="75">
         <f t="shared" ref="E37:E39" si="28">F36</f>
         <v>44292</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="75">
         <f t="shared" si="9"/>
         <v>44294</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="76">
         <v>2</v>
       </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="78" t="str">
+      <c r="H37" s="60"/>
+      <c r="I37" s="77" t="str">
         <f>IF(F37&lt;=$B$5,G37,"")</f>
         <v/>
       </c>
-      <c r="J37" s="68"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="53"/>
       <c r="L37" s="48">
         <f t="shared" si="22"/>
@@ -10293,34 +10404,34 @@
       </c>
       <c r="BO37" s="53"/>
     </row>
-    <row r="38" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="str">
+    <row r="38" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73" t="str">
         <f t="shared" si="27"/>
         <v>S5-4</v>
       </c>
-      <c r="B38" s="79" t="str">
+      <c r="B38" s="78" t="str">
         <f>"Finalized " &amp;B34</f>
         <v>Finalized Final “Boardroom” Presentation</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="76">
+      <c r="C38" s="60"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="75">
         <f t="shared" si="28"/>
         <v>44294</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="75">
         <f t="shared" si="9"/>
         <v>44299</v>
       </c>
-      <c r="G38" s="77">
+      <c r="G38" s="76">
         <v>5</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="78" t="str">
+      <c r="H38" s="60"/>
+      <c r="I38" s="77" t="str">
         <f>IF(F38&lt;=$B$5,G38,"")</f>
         <v/>
       </c>
-      <c r="J38" s="68"/>
+      <c r="J38" s="67"/>
       <c r="K38" s="53"/>
       <c r="L38" s="48">
         <f t="shared" si="22"/>
@@ -10544,36 +10655,36 @@
       </c>
       <c r="BO38" s="53"/>
     </row>
-    <row r="39" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="str">
+    <row r="39" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73" t="str">
         <f t="shared" si="27"/>
         <v>S5-5</v>
       </c>
-      <c r="B39" s="79" t="str">
+      <c r="B39" s="78" t="str">
         <f>"Submit " &amp; B34</f>
         <v>Submit Final “Boardroom” Presentation</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="66">
         <v>44301</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="76">
+      <c r="D39" s="79"/>
+      <c r="E39" s="75">
         <f t="shared" si="28"/>
         <v>44299</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="75">
         <f t="shared" si="9"/>
         <v>44301</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="76">
         <v>2</v>
       </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="78" t="str">
+      <c r="H39" s="60"/>
+      <c r="I39" s="77" t="str">
         <f>IF(F39&lt;=$B$5,G39,"")</f>
         <v/>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="67"/>
       <c r="K39" s="53"/>
       <c r="L39" s="48">
         <f t="shared" si="22"/>
@@ -10797,37 +10908,37 @@
       </c>
       <c r="BO39" s="53"/>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="70" t="s">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="71">
+      <c r="C40" s="70">
         <f>MAX(C41:C45)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="71">
+      <c r="D40" s="71"/>
+      <c r="E40" s="70">
         <f>MIN(E41:E45)</f>
         <v>44256</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="70">
         <f>MAX(F41:F45)</f>
         <v>44298</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="69">
         <f>SUM(G41:G45)</f>
         <v>42</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="72">
         <f>SUM(H41:H45)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="72">
         <f>SUM(I41:I45)/$G$9</f>
         <v>0</v>
       </c>
-      <c r="J40" s="73">
+      <c r="J40" s="72">
         <v>0.2</v>
       </c>
       <c r="K40" s="53"/>
@@ -11053,33 +11164,33 @@
       </c>
       <c r="BO40" s="53"/>
     </row>
-    <row r="41" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="66"/>
-      <c r="B41" s="81" t="s">
+    <row r="41" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="74" t="str">
+      <c r="C41" s="60"/>
+      <c r="D41" s="73" t="str">
         <f>A17</f>
         <v>S2-2</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="66">
         <f>F11</f>
         <v>44256</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="75">
         <f t="shared" ref="F41:F45" si="30">E41+G41</f>
         <v>44256</v>
       </c>
-      <c r="G41" s="77">
-        <v>0</v>
-      </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="78" t="str">
+      <c r="G41" s="76">
+        <v>0</v>
+      </c>
+      <c r="H41" s="60"/>
+      <c r="I41" s="77" t="str">
         <f>IF(F41&lt;=$B$5,G41,"")</f>
         <v/>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="53"/>
       <c r="L41" s="48">
         <f t="shared" ref="L41:AA45" si="31">IF(AND($F41-L$7&gt;=0,L$7-$E41&gt;=0),1,0)</f>
@@ -11303,33 +11414,33 @@
       </c>
       <c r="BO41" s="53"/>
     </row>
-    <row r="42" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="81" t="s">
+    <row r="42" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="66" t="str">
+      <c r="C42" s="60"/>
+      <c r="D42" s="65" t="str">
         <f>A20</f>
         <v>S2-5</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="75">
         <f>F41</f>
         <v>44256</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="75">
         <f t="shared" si="30"/>
         <v>44263</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="76">
         <v>7</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="78" t="str">
+      <c r="H42" s="60"/>
+      <c r="I42" s="77" t="str">
         <f>IF(F42&lt;=$B$5,G42,"")</f>
         <v/>
       </c>
-      <c r="J42" s="68"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="53"/>
       <c r="L42" s="48">
         <f t="shared" si="31"/>
@@ -11553,30 +11664,30 @@
       </c>
       <c r="BO42" s="53"/>
     </row>
-    <row r="43" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="75" t="s">
+    <row r="43" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
+      <c r="B43" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="76">
+      <c r="C43" s="60"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="75">
         <f t="shared" ref="E43:E45" si="32">F42</f>
         <v>44263</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="75">
         <f t="shared" si="30"/>
         <v>44277</v>
       </c>
-      <c r="G43" s="77">
+      <c r="G43" s="76">
         <v>14</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="78" t="str">
+      <c r="H43" s="60"/>
+      <c r="I43" s="77" t="str">
         <f>IF(F43&lt;=$B$5,G43,"")</f>
         <v/>
       </c>
-      <c r="J43" s="68"/>
+      <c r="J43" s="67"/>
       <c r="K43" s="53"/>
       <c r="L43" s="48">
         <f t="shared" si="31"/>
@@ -11800,30 +11911,30 @@
       </c>
       <c r="BO43" s="53"/>
     </row>
-    <row r="44" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="75" t="s">
+    <row r="44" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="76">
+      <c r="C44" s="60"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="75">
         <f t="shared" si="32"/>
         <v>44277</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="75">
         <f t="shared" si="30"/>
         <v>44291</v>
       </c>
-      <c r="G44" s="77">
+      <c r="G44" s="76">
         <v>14</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="78" t="str">
+      <c r="H44" s="60"/>
+      <c r="I44" s="77" t="str">
         <f>IF(F44&lt;=$B$5,G44,"")</f>
         <v/>
       </c>
-      <c r="J44" s="68"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="53"/>
       <c r="L44" s="48">
         <f t="shared" si="31"/>
@@ -12047,32 +12158,32 @@
       </c>
       <c r="BO44" s="53"/>
     </row>
-    <row r="45" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="75" t="s">
+    <row r="45" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="80"/>
-      <c r="E45" s="76">
+      <c r="D45" s="79"/>
+      <c r="E45" s="75">
         <f t="shared" si="32"/>
         <v>44291</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="75">
         <f t="shared" si="30"/>
         <v>44298</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="76">
         <v>7</v>
       </c>
-      <c r="H45" s="61"/>
-      <c r="I45" s="78" t="str">
+      <c r="H45" s="60"/>
+      <c r="I45" s="77" t="str">
         <f>IF(F45&lt;=$B$5,G45,"")</f>
         <v/>
       </c>
-      <c r="J45" s="68"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="53"/>
       <c r="L45" s="48">
         <f t="shared" si="31"/>
@@ -12296,17 +12407,17 @@
       </c>
       <c r="BO45" s="53"/>
     </row>
-    <row r="46" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
+    <row r="46" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="53"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -12365,31 +12476,31 @@
       <c r="BN46" s="5"/>
       <c r="BO46" s="53"/>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
       <c r="K47" s="53"/>
       <c r="BO47" s="53"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A48" s="68"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="53"/>
       <c r="L48" s="48">
         <f t="shared" si="22"/>
@@ -12613,17 +12724,17 @@
       </c>
       <c r="BO48" s="53"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
       <c r="K49" s="53"/>
       <c r="L49" s="48">
         <f t="shared" si="22"/>
@@ -12847,17 +12958,17 @@
       </c>
       <c r="BO49" s="53"/>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
+    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A50" s="63"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
       <c r="K50" s="53"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -12916,22 +13027,22 @@
       <c r="BN50" s="5"/>
       <c r="BO50" s="53"/>
     </row>
-    <row r="51" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="58"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+    <row r="51" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
     </row>
-    <row r="52" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
+    <row r="52" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
     </row>
-    <row r="53" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="58"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
+    <row r="53" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15" t="s">
         <v>17</v>
@@ -12966,235 +13077,235 @@
       </c>
       <c r="K54" s="53"/>
       <c r="L54" s="48" t="e">
-        <f>IF(AND($F54-L$7&gt;=0,L$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" ref="L54:U59" si="34">IF(AND($F54-L$7&gt;=0,L$7-$E54&gt;=0),1,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M54" s="48" t="e">
-        <f>IF(AND($F54-M$7&gt;=0,M$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N54" s="48" t="e">
-        <f>IF(AND($F54-N$7&gt;=0,N$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O54" s="48" t="e">
-        <f>IF(AND($F54-O$7&gt;=0,O$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P54" s="48" t="e">
-        <f>IF(AND($F54-P$7&gt;=0,P$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q54" s="48" t="e">
-        <f>IF(AND($F54-Q$7&gt;=0,Q$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R54" s="48" t="e">
-        <f>IF(AND($F54-R$7&gt;=0,R$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S54" s="48" t="e">
-        <f>IF(AND($F54-S$7&gt;=0,S$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T54" s="48" t="e">
-        <f>IF(AND($F54-T$7&gt;=0,T$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U54" s="48" t="e">
-        <f>IF(AND($F54-U$7&gt;=0,U$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V54" s="48" t="e">
-        <f>IF(AND($F54-V$7&gt;=0,V$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" ref="V54:AE59" si="35">IF(AND($F54-V$7&gt;=0,V$7-$E54&gt;=0),1,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="W54" s="48" t="e">
-        <f>IF(AND($F54-W$7&gt;=0,W$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X54" s="48" t="e">
-        <f>IF(AND($F54-X$7&gt;=0,X$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y54" s="48" t="e">
-        <f>IF(AND($F54-Y$7&gt;=0,Y$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z54" s="48" t="e">
-        <f>IF(AND($F54-Z$7&gt;=0,Z$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA54" s="48" t="e">
-        <f>IF(AND($F54-AA$7&gt;=0,AA$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB54" s="48" t="e">
-        <f>IF(AND($F54-AB$7&gt;=0,AB$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC54" s="48" t="e">
-        <f>IF(AND($F54-AC$7&gt;=0,AC$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD54" s="48" t="e">
-        <f>IF(AND($F54-AD$7&gt;=0,AD$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE54" s="48" t="e">
-        <f>IF(AND($F54-AE$7&gt;=0,AE$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF54" s="48" t="e">
-        <f>IF(AND($F54-AF$7&gt;=0,AF$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" ref="AF54:AO59" si="36">IF(AND($F54-AF$7&gt;=0,AF$7-$E54&gt;=0),1,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG54" s="48" t="e">
-        <f>IF(AND($F54-AG$7&gt;=0,AG$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH54" s="48" t="e">
-        <f>IF(AND($F54-AH$7&gt;=0,AH$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI54" s="48" t="e">
-        <f>IF(AND($F54-AI$7&gt;=0,AI$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ54" s="48" t="e">
-        <f>IF(AND($F54-AJ$7&gt;=0,AJ$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK54" s="48" t="e">
-        <f>IF(AND($F54-AK$7&gt;=0,AK$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL54" s="48" t="e">
-        <f>IF(AND($F54-AL$7&gt;=0,AL$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM54" s="48" t="e">
-        <f>IF(AND($F54-AM$7&gt;=0,AM$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN54" s="48" t="e">
-        <f>IF(AND($F54-AN$7&gt;=0,AN$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO54" s="48" t="e">
-        <f>IF(AND($F54-AO$7&gt;=0,AO$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP54" s="48" t="e">
-        <f>IF(AND($F54-AP$7&gt;=0,AP$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" ref="AP54:AY59" si="37">IF(AND($F54-AP$7&gt;=0,AP$7-$E54&gt;=0),1,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ54" s="48" t="e">
-        <f>IF(AND($F54-AQ$7&gt;=0,AQ$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR54" s="48" t="e">
-        <f>IF(AND($F54-AR$7&gt;=0,AR$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS54" s="48" t="e">
-        <f>IF(AND($F54-AS$7&gt;=0,AS$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT54" s="48" t="e">
-        <f>IF(AND($F54-AT$7&gt;=0,AT$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU54" s="48" t="e">
-        <f>IF(AND($F54-AU$7&gt;=0,AU$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV54" s="48" t="e">
-        <f>IF(AND($F54-AV$7&gt;=0,AV$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW54" s="48" t="e">
-        <f>IF(AND($F54-AW$7&gt;=0,AW$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX54" s="48" t="e">
-        <f>IF(AND($F54-AX$7&gt;=0,AX$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY54" s="48" t="e">
-        <f>IF(AND($F54-AY$7&gt;=0,AY$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ54" s="48" t="e">
-        <f>IF(AND($F54-AZ$7&gt;=0,AZ$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" ref="AZ54:BN59" si="38">IF(AND($F54-AZ$7&gt;=0,AZ$7-$E54&gt;=0),1,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="BA54" s="48" t="e">
-        <f>IF(AND($F54-BA$7&gt;=0,BA$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB54" s="48" t="e">
-        <f>IF(AND($F54-BB$7&gt;=0,BB$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC54" s="48" t="e">
-        <f>IF(AND($F54-BC$7&gt;=0,BC$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD54" s="48" t="e">
-        <f>IF(AND($F54-BD$7&gt;=0,BD$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE54" s="48" t="e">
-        <f>IF(AND($F54-BE$7&gt;=0,BE$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF54" s="48" t="e">
-        <f>IF(AND($F54-BF$7&gt;=0,BF$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG54" s="48" t="e">
-        <f>IF(AND($F54-BG$7&gt;=0,BG$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH54" s="48" t="e">
-        <f>IF(AND($F54-BH$7&gt;=0,BH$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI54" s="48" t="e">
-        <f>IF(AND($F54-BI$7&gt;=0,BI$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ54" s="48" t="e">
-        <f>IF(AND($F54-BJ$7&gt;=0,BJ$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK54" s="48" t="e">
-        <f>IF(AND($F54-BK$7&gt;=0,BK$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL54" s="48" t="e">
-        <f>IF(AND($F54-BL$7&gt;=0,BL$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM54" s="48" t="e">
-        <f>IF(AND($F54-BM$7&gt;=0,BM$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN54" s="48" t="e">
-        <f>IF(AND($F54-BN$7&gt;=0,BN$7-$E54&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO54" s="53"/>
     </row>
-    <row r="55" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="18"/>
       <c r="E55" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F55" s="20" t="e">
-        <f t="shared" ref="F55:F59" si="34">E55+G55</f>
+        <f t="shared" ref="F55:F59" si="39">E55+G55</f>
         <v>#VALUE!</v>
       </c>
       <c r="G55" s="43">
@@ -13207,228 +13318,228 @@
       <c r="J55" s="13"/>
       <c r="K55" s="53"/>
       <c r="L55" s="48" t="e">
-        <f>IF(AND($F55-L$7&gt;=0,L$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="M55" s="48" t="e">
-        <f>IF(AND($F55-M$7&gt;=0,M$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N55" s="48" t="e">
-        <f>IF(AND($F55-N$7&gt;=0,N$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O55" s="48" t="e">
-        <f>IF(AND($F55-O$7&gt;=0,O$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P55" s="48" t="e">
-        <f>IF(AND($F55-P$7&gt;=0,P$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q55" s="48" t="e">
-        <f>IF(AND($F55-Q$7&gt;=0,Q$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R55" s="48" t="e">
-        <f>IF(AND($F55-R$7&gt;=0,R$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S55" s="48" t="e">
-        <f>IF(AND($F55-S$7&gt;=0,S$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T55" s="48" t="e">
-        <f>IF(AND($F55-T$7&gt;=0,T$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U55" s="48" t="e">
-        <f>IF(AND($F55-U$7&gt;=0,U$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V55" s="48" t="e">
-        <f>IF(AND($F55-V$7&gt;=0,V$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="W55" s="48" t="e">
-        <f>IF(AND($F55-W$7&gt;=0,W$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X55" s="48" t="e">
-        <f>IF(AND($F55-X$7&gt;=0,X$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y55" s="48" t="e">
-        <f>IF(AND($F55-Y$7&gt;=0,Y$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z55" s="48" t="e">
-        <f>IF(AND($F55-Z$7&gt;=0,Z$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA55" s="48" t="e">
-        <f>IF(AND($F55-AA$7&gt;=0,AA$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB55" s="48" t="e">
-        <f>IF(AND($F55-AB$7&gt;=0,AB$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC55" s="48" t="e">
-        <f>IF(AND($F55-AC$7&gt;=0,AC$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD55" s="48" t="e">
-        <f>IF(AND($F55-AD$7&gt;=0,AD$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE55" s="48" t="e">
-        <f>IF(AND($F55-AE$7&gt;=0,AE$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF55" s="48" t="e">
-        <f>IF(AND($F55-AF$7&gt;=0,AF$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG55" s="48" t="e">
-        <f>IF(AND($F55-AG$7&gt;=0,AG$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH55" s="48" t="e">
-        <f>IF(AND($F55-AH$7&gt;=0,AH$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI55" s="48" t="e">
-        <f>IF(AND($F55-AI$7&gt;=0,AI$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ55" s="48" t="e">
-        <f>IF(AND($F55-AJ$7&gt;=0,AJ$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK55" s="48" t="e">
-        <f>IF(AND($F55-AK$7&gt;=0,AK$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL55" s="48" t="e">
-        <f>IF(AND($F55-AL$7&gt;=0,AL$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM55" s="48" t="e">
-        <f>IF(AND($F55-AM$7&gt;=0,AM$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN55" s="48" t="e">
-        <f>IF(AND($F55-AN$7&gt;=0,AN$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO55" s="48" t="e">
-        <f>IF(AND($F55-AO$7&gt;=0,AO$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP55" s="48" t="e">
-        <f>IF(AND($F55-AP$7&gt;=0,AP$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ55" s="48" t="e">
-        <f>IF(AND($F55-AQ$7&gt;=0,AQ$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR55" s="48" t="e">
-        <f>IF(AND($F55-AR$7&gt;=0,AR$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS55" s="48" t="e">
-        <f>IF(AND($F55-AS$7&gt;=0,AS$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT55" s="48" t="e">
-        <f>IF(AND($F55-AT$7&gt;=0,AT$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU55" s="48" t="e">
-        <f>IF(AND($F55-AU$7&gt;=0,AU$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV55" s="48" t="e">
-        <f>IF(AND($F55-AV$7&gt;=0,AV$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW55" s="48" t="e">
-        <f>IF(AND($F55-AW$7&gt;=0,AW$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX55" s="48" t="e">
-        <f>IF(AND($F55-AX$7&gt;=0,AX$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY55" s="48" t="e">
-        <f>IF(AND($F55-AY$7&gt;=0,AY$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ55" s="48" t="e">
-        <f>IF(AND($F55-AZ$7&gt;=0,AZ$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA55" s="48" t="e">
-        <f>IF(AND($F55-BA$7&gt;=0,BA$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB55" s="48" t="e">
-        <f>IF(AND($F55-BB$7&gt;=0,BB$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC55" s="48" t="e">
-        <f>IF(AND($F55-BC$7&gt;=0,BC$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD55" s="48" t="e">
-        <f>IF(AND($F55-BD$7&gt;=0,BD$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE55" s="48" t="e">
-        <f>IF(AND($F55-BE$7&gt;=0,BE$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF55" s="48" t="e">
-        <f>IF(AND($F55-BF$7&gt;=0,BF$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG55" s="48" t="e">
-        <f>IF(AND($F55-BG$7&gt;=0,BG$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH55" s="48" t="e">
-        <f>IF(AND($F55-BH$7&gt;=0,BH$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI55" s="48" t="e">
-        <f>IF(AND($F55-BI$7&gt;=0,BI$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ55" s="48" t="e">
-        <f>IF(AND($F55-BJ$7&gt;=0,BJ$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK55" s="48" t="e">
-        <f>IF(AND($F55-BK$7&gt;=0,BK$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL55" s="48" t="e">
-        <f>IF(AND($F55-BL$7&gt;=0,BL$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM55" s="48" t="e">
-        <f>IF(AND($F55-BM$7&gt;=0,BM$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN55" s="48" t="e">
-        <f>IF(AND($F55-BN$7&gt;=0,BN$7-$E55&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO55" s="53"/>
     </row>
-    <row r="56" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="18"/>
       <c r="E56" s="20" t="e">
@@ -13436,7 +13547,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F56" s="20" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G56" s="43">
@@ -13449,236 +13560,236 @@
       <c r="J56" s="13"/>
       <c r="K56" s="53"/>
       <c r="L56" s="48" t="e">
-        <f>IF(AND($F56-L$7&gt;=0,L$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="M56" s="48" t="e">
-        <f>IF(AND($F56-M$7&gt;=0,M$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N56" s="48" t="e">
-        <f>IF(AND($F56-N$7&gt;=0,N$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O56" s="48" t="e">
-        <f>IF(AND($F56-O$7&gt;=0,O$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P56" s="48" t="e">
-        <f>IF(AND($F56-P$7&gt;=0,P$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q56" s="48" t="e">
-        <f>IF(AND($F56-Q$7&gt;=0,Q$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R56" s="48" t="e">
-        <f>IF(AND($F56-R$7&gt;=0,R$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S56" s="48" t="e">
-        <f>IF(AND($F56-S$7&gt;=0,S$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T56" s="48" t="e">
-        <f>IF(AND($F56-T$7&gt;=0,T$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U56" s="48" t="e">
-        <f>IF(AND($F56-U$7&gt;=0,U$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V56" s="48" t="e">
-        <f>IF(AND($F56-V$7&gt;=0,V$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="W56" s="48" t="e">
-        <f>IF(AND($F56-W$7&gt;=0,W$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X56" s="48" t="e">
-        <f>IF(AND($F56-X$7&gt;=0,X$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y56" s="48" t="e">
-        <f>IF(AND($F56-Y$7&gt;=0,Y$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z56" s="48" t="e">
-        <f>IF(AND($F56-Z$7&gt;=0,Z$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA56" s="48" t="e">
-        <f>IF(AND($F56-AA$7&gt;=0,AA$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB56" s="48" t="e">
-        <f>IF(AND($F56-AB$7&gt;=0,AB$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC56" s="48" t="e">
-        <f>IF(AND($F56-AC$7&gt;=0,AC$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD56" s="48" t="e">
-        <f>IF(AND($F56-AD$7&gt;=0,AD$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE56" s="48" t="e">
-        <f>IF(AND($F56-AE$7&gt;=0,AE$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF56" s="48" t="e">
-        <f>IF(AND($F56-AF$7&gt;=0,AF$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG56" s="48" t="e">
-        <f>IF(AND($F56-AG$7&gt;=0,AG$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH56" s="48" t="e">
-        <f>IF(AND($F56-AH$7&gt;=0,AH$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI56" s="48" t="e">
-        <f>IF(AND($F56-AI$7&gt;=0,AI$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ56" s="48" t="e">
-        <f>IF(AND($F56-AJ$7&gt;=0,AJ$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK56" s="48" t="e">
-        <f>IF(AND($F56-AK$7&gt;=0,AK$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL56" s="48" t="e">
-        <f>IF(AND($F56-AL$7&gt;=0,AL$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM56" s="48" t="e">
-        <f>IF(AND($F56-AM$7&gt;=0,AM$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN56" s="48" t="e">
-        <f>IF(AND($F56-AN$7&gt;=0,AN$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO56" s="48" t="e">
-        <f>IF(AND($F56-AO$7&gt;=0,AO$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP56" s="48" t="e">
-        <f>IF(AND($F56-AP$7&gt;=0,AP$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ56" s="48" t="e">
-        <f>IF(AND($F56-AQ$7&gt;=0,AQ$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR56" s="48" t="e">
-        <f>IF(AND($F56-AR$7&gt;=0,AR$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS56" s="48" t="e">
-        <f>IF(AND($F56-AS$7&gt;=0,AS$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT56" s="48" t="e">
-        <f>IF(AND($F56-AT$7&gt;=0,AT$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU56" s="48" t="e">
-        <f>IF(AND($F56-AU$7&gt;=0,AU$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV56" s="48" t="e">
-        <f>IF(AND($F56-AV$7&gt;=0,AV$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW56" s="48" t="e">
-        <f>IF(AND($F56-AW$7&gt;=0,AW$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX56" s="48" t="e">
-        <f>IF(AND($F56-AX$7&gt;=0,AX$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY56" s="48" t="e">
-        <f>IF(AND($F56-AY$7&gt;=0,AY$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ56" s="48" t="e">
-        <f>IF(AND($F56-AZ$7&gt;=0,AZ$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA56" s="48" t="e">
-        <f>IF(AND($F56-BA$7&gt;=0,BA$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB56" s="48" t="e">
-        <f>IF(AND($F56-BB$7&gt;=0,BB$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC56" s="48" t="e">
-        <f>IF(AND($F56-BC$7&gt;=0,BC$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD56" s="48" t="e">
-        <f>IF(AND($F56-BD$7&gt;=0,BD$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE56" s="48" t="e">
-        <f>IF(AND($F56-BE$7&gt;=0,BE$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF56" s="48" t="e">
-        <f>IF(AND($F56-BF$7&gt;=0,BF$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG56" s="48" t="e">
-        <f>IF(AND($F56-BG$7&gt;=0,BG$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH56" s="48" t="e">
-        <f>IF(AND($F56-BH$7&gt;=0,BH$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI56" s="48" t="e">
-        <f>IF(AND($F56-BI$7&gt;=0,BI$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ56" s="48" t="e">
-        <f>IF(AND($F56-BJ$7&gt;=0,BJ$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK56" s="48" t="e">
-        <f>IF(AND($F56-BK$7&gt;=0,BK$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL56" s="48" t="e">
-        <f>IF(AND($F56-BL$7&gt;=0,BL$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM56" s="48" t="e">
-        <f>IF(AND($F56-BM$7&gt;=0,BM$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN56" s="48" t="e">
-        <f>IF(AND($F56-BN$7&gt;=0,BN$7-$E56&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO56" s="53"/>
     </row>
-    <row r="57" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="18"/>
       <c r="E57" s="20" t="e">
-        <f t="shared" ref="E57:E59" si="35">F56</f>
+        <f t="shared" ref="E57:E59" si="40">F56</f>
         <v>#VALUE!</v>
       </c>
       <c r="F57" s="20" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G57" s="43">
@@ -13691,236 +13802,236 @@
       <c r="J57" s="13"/>
       <c r="K57" s="53"/>
       <c r="L57" s="48" t="e">
-        <f>IF(AND($F57-L$7&gt;=0,L$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="M57" s="48" t="e">
-        <f>IF(AND($F57-M$7&gt;=0,M$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N57" s="48" t="e">
-        <f>IF(AND($F57-N$7&gt;=0,N$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O57" s="48" t="e">
-        <f>IF(AND($F57-O$7&gt;=0,O$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P57" s="48" t="e">
-        <f>IF(AND($F57-P$7&gt;=0,P$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q57" s="48" t="e">
-        <f>IF(AND($F57-Q$7&gt;=0,Q$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R57" s="48" t="e">
-        <f>IF(AND($F57-R$7&gt;=0,R$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S57" s="48" t="e">
-        <f>IF(AND($F57-S$7&gt;=0,S$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T57" s="48" t="e">
-        <f>IF(AND($F57-T$7&gt;=0,T$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U57" s="48" t="e">
-        <f>IF(AND($F57-U$7&gt;=0,U$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V57" s="48" t="e">
-        <f>IF(AND($F57-V$7&gt;=0,V$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="W57" s="48" t="e">
-        <f>IF(AND($F57-W$7&gt;=0,W$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X57" s="48" t="e">
-        <f>IF(AND($F57-X$7&gt;=0,X$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y57" s="48" t="e">
-        <f>IF(AND($F57-Y$7&gt;=0,Y$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z57" s="48" t="e">
-        <f>IF(AND($F57-Z$7&gt;=0,Z$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA57" s="48" t="e">
-        <f>IF(AND($F57-AA$7&gt;=0,AA$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB57" s="48" t="e">
-        <f>IF(AND($F57-AB$7&gt;=0,AB$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC57" s="48" t="e">
-        <f>IF(AND($F57-AC$7&gt;=0,AC$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD57" s="48" t="e">
-        <f>IF(AND($F57-AD$7&gt;=0,AD$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE57" s="48" t="e">
-        <f>IF(AND($F57-AE$7&gt;=0,AE$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF57" s="48" t="e">
-        <f>IF(AND($F57-AF$7&gt;=0,AF$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG57" s="48" t="e">
-        <f>IF(AND($F57-AG$7&gt;=0,AG$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH57" s="48" t="e">
-        <f>IF(AND($F57-AH$7&gt;=0,AH$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI57" s="48" t="e">
-        <f>IF(AND($F57-AI$7&gt;=0,AI$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ57" s="48" t="e">
-        <f>IF(AND($F57-AJ$7&gt;=0,AJ$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK57" s="48" t="e">
-        <f>IF(AND($F57-AK$7&gt;=0,AK$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL57" s="48" t="e">
-        <f>IF(AND($F57-AL$7&gt;=0,AL$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM57" s="48" t="e">
-        <f>IF(AND($F57-AM$7&gt;=0,AM$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN57" s="48" t="e">
-        <f>IF(AND($F57-AN$7&gt;=0,AN$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO57" s="48" t="e">
-        <f>IF(AND($F57-AO$7&gt;=0,AO$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP57" s="48" t="e">
-        <f>IF(AND($F57-AP$7&gt;=0,AP$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ57" s="48" t="e">
-        <f>IF(AND($F57-AQ$7&gt;=0,AQ$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR57" s="48" t="e">
-        <f>IF(AND($F57-AR$7&gt;=0,AR$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS57" s="48" t="e">
-        <f>IF(AND($F57-AS$7&gt;=0,AS$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT57" s="48" t="e">
-        <f>IF(AND($F57-AT$7&gt;=0,AT$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU57" s="48" t="e">
-        <f>IF(AND($F57-AU$7&gt;=0,AU$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV57" s="48" t="e">
-        <f>IF(AND($F57-AV$7&gt;=0,AV$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW57" s="48" t="e">
-        <f>IF(AND($F57-AW$7&gt;=0,AW$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX57" s="48" t="e">
-        <f>IF(AND($F57-AX$7&gt;=0,AX$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY57" s="48" t="e">
-        <f>IF(AND($F57-AY$7&gt;=0,AY$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ57" s="48" t="e">
-        <f>IF(AND($F57-AZ$7&gt;=0,AZ$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA57" s="48" t="e">
-        <f>IF(AND($F57-BA$7&gt;=0,BA$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB57" s="48" t="e">
-        <f>IF(AND($F57-BB$7&gt;=0,BB$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC57" s="48" t="e">
-        <f>IF(AND($F57-BC$7&gt;=0,BC$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD57" s="48" t="e">
-        <f>IF(AND($F57-BD$7&gt;=0,BD$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE57" s="48" t="e">
-        <f>IF(AND($F57-BE$7&gt;=0,BE$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF57" s="48" t="e">
-        <f>IF(AND($F57-BF$7&gt;=0,BF$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG57" s="48" t="e">
-        <f>IF(AND($F57-BG$7&gt;=0,BG$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH57" s="48" t="e">
-        <f>IF(AND($F57-BH$7&gt;=0,BH$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI57" s="48" t="e">
-        <f>IF(AND($F57-BI$7&gt;=0,BI$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ57" s="48" t="e">
-        <f>IF(AND($F57-BJ$7&gt;=0,BJ$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK57" s="48" t="e">
-        <f>IF(AND($F57-BK$7&gt;=0,BK$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL57" s="48" t="e">
-        <f>IF(AND($F57-BL$7&gt;=0,BL$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM57" s="48" t="e">
-        <f>IF(AND($F57-BM$7&gt;=0,BM$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN57" s="48" t="e">
-        <f>IF(AND($F57-BN$7&gt;=0,BN$7-$E57&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO57" s="53"/>
     </row>
-    <row r="58" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="18"/>
       <c r="E58" s="20" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="F58" s="20" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G58" s="43">
@@ -13933,228 +14044,228 @@
       <c r="J58" s="13"/>
       <c r="K58" s="53"/>
       <c r="L58" s="48" t="e">
-        <f>IF(AND($F58-L$7&gt;=0,L$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="M58" s="48" t="e">
-        <f>IF(AND($F58-M$7&gt;=0,M$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N58" s="48" t="e">
-        <f>IF(AND($F58-N$7&gt;=0,N$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O58" s="48" t="e">
-        <f>IF(AND($F58-O$7&gt;=0,O$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P58" s="48" t="e">
-        <f>IF(AND($F58-P$7&gt;=0,P$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q58" s="48" t="e">
-        <f>IF(AND($F58-Q$7&gt;=0,Q$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R58" s="48" t="e">
-        <f>IF(AND($F58-R$7&gt;=0,R$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S58" s="48" t="e">
-        <f>IF(AND($F58-S$7&gt;=0,S$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T58" s="48" t="e">
-        <f>IF(AND($F58-T$7&gt;=0,T$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U58" s="48" t="e">
-        <f>IF(AND($F58-U$7&gt;=0,U$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V58" s="48" t="e">
-        <f>IF(AND($F58-V$7&gt;=0,V$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="W58" s="48" t="e">
-        <f>IF(AND($F58-W$7&gt;=0,W$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X58" s="48" t="e">
-        <f>IF(AND($F58-X$7&gt;=0,X$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y58" s="48" t="e">
-        <f>IF(AND($F58-Y$7&gt;=0,Y$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z58" s="48" t="e">
-        <f>IF(AND($F58-Z$7&gt;=0,Z$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA58" s="48" t="e">
-        <f>IF(AND($F58-AA$7&gt;=0,AA$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB58" s="48" t="e">
-        <f>IF(AND($F58-AB$7&gt;=0,AB$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC58" s="48" t="e">
-        <f>IF(AND($F58-AC$7&gt;=0,AC$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD58" s="48" t="e">
-        <f>IF(AND($F58-AD$7&gt;=0,AD$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE58" s="48" t="e">
-        <f>IF(AND($F58-AE$7&gt;=0,AE$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF58" s="48" t="e">
-        <f>IF(AND($F58-AF$7&gt;=0,AF$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG58" s="48" t="e">
-        <f>IF(AND($F58-AG$7&gt;=0,AG$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH58" s="48" t="e">
-        <f>IF(AND($F58-AH$7&gt;=0,AH$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI58" s="48" t="e">
-        <f>IF(AND($F58-AI$7&gt;=0,AI$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ58" s="48" t="e">
-        <f>IF(AND($F58-AJ$7&gt;=0,AJ$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK58" s="48" t="e">
-        <f>IF(AND($F58-AK$7&gt;=0,AK$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL58" s="48" t="e">
-        <f>IF(AND($F58-AL$7&gt;=0,AL$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM58" s="48" t="e">
-        <f>IF(AND($F58-AM$7&gt;=0,AM$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN58" s="48" t="e">
-        <f>IF(AND($F58-AN$7&gt;=0,AN$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO58" s="48" t="e">
-        <f>IF(AND($F58-AO$7&gt;=0,AO$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP58" s="48" t="e">
-        <f>IF(AND($F58-AP$7&gt;=0,AP$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ58" s="48" t="e">
-        <f>IF(AND($F58-AQ$7&gt;=0,AQ$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR58" s="48" t="e">
-        <f>IF(AND($F58-AR$7&gt;=0,AR$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS58" s="48" t="e">
-        <f>IF(AND($F58-AS$7&gt;=0,AS$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT58" s="48" t="e">
-        <f>IF(AND($F58-AT$7&gt;=0,AT$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU58" s="48" t="e">
-        <f>IF(AND($F58-AU$7&gt;=0,AU$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV58" s="48" t="e">
-        <f>IF(AND($F58-AV$7&gt;=0,AV$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW58" s="48" t="e">
-        <f>IF(AND($F58-AW$7&gt;=0,AW$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX58" s="48" t="e">
-        <f>IF(AND($F58-AX$7&gt;=0,AX$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY58" s="48" t="e">
-        <f>IF(AND($F58-AY$7&gt;=0,AY$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ58" s="48" t="e">
-        <f>IF(AND($F58-AZ$7&gt;=0,AZ$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA58" s="48" t="e">
-        <f>IF(AND($F58-BA$7&gt;=0,BA$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB58" s="48" t="e">
-        <f>IF(AND($F58-BB$7&gt;=0,BB$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC58" s="48" t="e">
-        <f>IF(AND($F58-BC$7&gt;=0,BC$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD58" s="48" t="e">
-        <f>IF(AND($F58-BD$7&gt;=0,BD$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE58" s="48" t="e">
-        <f>IF(AND($F58-BE$7&gt;=0,BE$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF58" s="48" t="e">
-        <f>IF(AND($F58-BF$7&gt;=0,BF$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG58" s="48" t="e">
-        <f>IF(AND($F58-BG$7&gt;=0,BG$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH58" s="48" t="e">
-        <f>IF(AND($F58-BH$7&gt;=0,BH$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI58" s="48" t="e">
-        <f>IF(AND($F58-BI$7&gt;=0,BI$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ58" s="48" t="e">
-        <f>IF(AND($F58-BJ$7&gt;=0,BJ$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK58" s="48" t="e">
-        <f>IF(AND($F58-BK$7&gt;=0,BK$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL58" s="48" t="e">
-        <f>IF(AND($F58-BL$7&gt;=0,BL$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM58" s="48" t="e">
-        <f>IF(AND($F58-BM$7&gt;=0,BM$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN58" s="48" t="e">
-        <f>IF(AND($F58-BN$7&gt;=0,BN$7-$E58&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO58" s="53"/>
     </row>
-    <row r="59" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="18" t="str">
         <f>"Submit " &amp; B54</f>
@@ -14165,11 +14276,11 @@
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="20" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="F59" s="20" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="G59" s="43">
@@ -14182,228 +14293,228 @@
       <c r="J59" s="13"/>
       <c r="K59" s="53"/>
       <c r="L59" s="48" t="e">
-        <f>IF(AND($F59-L$7&gt;=0,L$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="M59" s="48" t="e">
-        <f>IF(AND($F59-M$7&gt;=0,M$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="N59" s="48" t="e">
-        <f>IF(AND($F59-N$7&gt;=0,N$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="O59" s="48" t="e">
-        <f>IF(AND($F59-O$7&gt;=0,O$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="P59" s="48" t="e">
-        <f>IF(AND($F59-P$7&gt;=0,P$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q59" s="48" t="e">
-        <f>IF(AND($F59-Q$7&gt;=0,Q$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="R59" s="48" t="e">
-        <f>IF(AND($F59-R$7&gt;=0,R$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="S59" s="48" t="e">
-        <f>IF(AND($F59-S$7&gt;=0,S$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="T59" s="48" t="e">
-        <f>IF(AND($F59-T$7&gt;=0,T$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="U59" s="48" t="e">
-        <f>IF(AND($F59-U$7&gt;=0,U$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="34"/>
         <v>#VALUE!</v>
       </c>
       <c r="V59" s="48" t="e">
-        <f>IF(AND($F59-V$7&gt;=0,V$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="W59" s="48" t="e">
-        <f>IF(AND($F59-W$7&gt;=0,W$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="X59" s="48" t="e">
-        <f>IF(AND($F59-X$7&gt;=0,X$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y59" s="48" t="e">
-        <f>IF(AND($F59-Y$7&gt;=0,Y$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z59" s="48" t="e">
-        <f>IF(AND($F59-Z$7&gt;=0,Z$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AA59" s="48" t="e">
-        <f>IF(AND($F59-AA$7&gt;=0,AA$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB59" s="48" t="e">
-        <f>IF(AND($F59-AB$7&gt;=0,AB$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC59" s="48" t="e">
-        <f>IF(AND($F59-AC$7&gt;=0,AC$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD59" s="48" t="e">
-        <f>IF(AND($F59-AD$7&gt;=0,AD$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AE59" s="48" t="e">
-        <f>IF(AND($F59-AE$7&gt;=0,AE$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AF59" s="48" t="e">
-        <f>IF(AND($F59-AF$7&gt;=0,AF$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG59" s="48" t="e">
-        <f>IF(AND($F59-AG$7&gt;=0,AG$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AH59" s="48" t="e">
-        <f>IF(AND($F59-AH$7&gt;=0,AH$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI59" s="48" t="e">
-        <f>IF(AND($F59-AI$7&gt;=0,AI$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AJ59" s="48" t="e">
-        <f>IF(AND($F59-AJ$7&gt;=0,AJ$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AK59" s="48" t="e">
-        <f>IF(AND($F59-AK$7&gt;=0,AK$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AL59" s="48" t="e">
-        <f>IF(AND($F59-AL$7&gt;=0,AL$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AM59" s="48" t="e">
-        <f>IF(AND($F59-AM$7&gt;=0,AM$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AN59" s="48" t="e">
-        <f>IF(AND($F59-AN$7&gt;=0,AN$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AO59" s="48" t="e">
-        <f>IF(AND($F59-AO$7&gt;=0,AO$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="36"/>
         <v>#VALUE!</v>
       </c>
       <c r="AP59" s="48" t="e">
-        <f>IF(AND($F59-AP$7&gt;=0,AP$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ59" s="48" t="e">
-        <f>IF(AND($F59-AQ$7&gt;=0,AQ$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR59" s="48" t="e">
-        <f>IF(AND($F59-AR$7&gt;=0,AR$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AS59" s="48" t="e">
-        <f>IF(AND($F59-AS$7&gt;=0,AS$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AT59" s="48" t="e">
-        <f>IF(AND($F59-AT$7&gt;=0,AT$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AU59" s="48" t="e">
-        <f>IF(AND($F59-AU$7&gt;=0,AU$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AV59" s="48" t="e">
-        <f>IF(AND($F59-AV$7&gt;=0,AV$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AW59" s="48" t="e">
-        <f>IF(AND($F59-AW$7&gt;=0,AW$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AX59" s="48" t="e">
-        <f>IF(AND($F59-AX$7&gt;=0,AX$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AY59" s="48" t="e">
-        <f>IF(AND($F59-AY$7&gt;=0,AY$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="37"/>
         <v>#VALUE!</v>
       </c>
       <c r="AZ59" s="48" t="e">
-        <f>IF(AND($F59-AZ$7&gt;=0,AZ$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BA59" s="48" t="e">
-        <f>IF(AND($F59-BA$7&gt;=0,BA$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BB59" s="48" t="e">
-        <f>IF(AND($F59-BB$7&gt;=0,BB$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BC59" s="48" t="e">
-        <f>IF(AND($F59-BC$7&gt;=0,BC$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BD59" s="48" t="e">
-        <f>IF(AND($F59-BD$7&gt;=0,BD$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BE59" s="48" t="e">
-        <f>IF(AND($F59-BE$7&gt;=0,BE$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BF59" s="48" t="e">
-        <f>IF(AND($F59-BF$7&gt;=0,BF$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BG59" s="48" t="e">
-        <f>IF(AND($F59-BG$7&gt;=0,BG$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BH59" s="48" t="e">
-        <f>IF(AND($F59-BH$7&gt;=0,BH$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BI59" s="48" t="e">
-        <f>IF(AND($F59-BI$7&gt;=0,BI$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BJ59" s="48" t="e">
-        <f>IF(AND($F59-BJ$7&gt;=0,BJ$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BK59" s="48" t="e">
-        <f>IF(AND($F59-BK$7&gt;=0,BK$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BL59" s="48" t="e">
-        <f>IF(AND($F59-BL$7&gt;=0,BL$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BM59" s="48" t="e">
-        <f>IF(AND($F59-BM$7&gt;=0,BM$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BN59" s="48" t="e">
-        <f>IF(AND($F59-BN$7&gt;=0,BN$7-$E59&gt;=0),1,0)</f>
+        <f t="shared" si="38"/>
         <v>#VALUE!</v>
       </c>
       <c r="BO59" s="53"/>
     </row>
-    <row r="60" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="15"/>
       <c r="C60" s="16"/>
@@ -14472,13 +14583,13 @@
       <c r="BN60" s="5"/>
       <c r="BO60" s="53"/>
     </row>
-    <row r="61" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="53"/>
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
@@ -14541,13 +14652,13 @@
       <c r="BN61" s="53"/>
       <c r="BO61" s="53"/>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="53"/>
       <c r="C62" s="53"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
@@ -14610,13 +14721,13 @@
       <c r="BN62" s="53"/>
       <c r="BO62" s="53"/>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
       <c r="B63" s="53"/>
       <c r="C63" s="53"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
@@ -14679,13 +14790,13 @@
       <c r="BN63" s="53"/>
       <c r="BO63" s="53"/>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A64" s="53"/>
       <c r="B64" s="53"/>
       <c r="C64" s="53"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
       <c r="I64" s="53"/>
@@ -14748,13 +14859,13 @@
       <c r="BN64" s="53"/>
       <c r="BO64" s="53"/>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A65" s="53"/>
       <c r="B65" s="53"/>
       <c r="C65" s="53"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
       <c r="I65" s="53"/>
@@ -14878,7 +14989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14886,23 +14997,23 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -14923,42 +15034,42 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -14980,13 +15091,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Type_IRD</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Names</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E20" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>
@@ -14995,23 +15106,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.5546875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="29.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>69</v>
       </c>
@@ -15024,17 +15135,17 @@
       <c r="D2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>65</v>
       </c>
@@ -15051,7 +15162,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>63</v>
       </c>
@@ -15068,7 +15179,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>61</v>
       </c>
@@ -15085,7 +15196,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
@@ -15102,7 +15213,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>47</v>
       </c>
@@ -15119,7 +15230,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>56</v>
       </c>
@@ -15136,7 +15247,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>54</v>
       </c>
@@ -15153,7 +15264,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15161,21 +15272,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="22" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="13.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -15186,7 +15297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -15197,7 +15308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
@@ -15208,7 +15319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>22</v>
       </c>
@@ -15219,14 +15330,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
       <c r="C7" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="23"/>
     </row>
   </sheetData>
@@ -15235,7 +15346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BN58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15243,34 +15354,34 @@
       <selection pane="bottomLeft" activeCell="BJ36" sqref="BJ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="46" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.77734375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="16.5546875" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.77734375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.88671875" style="10" collapsed="1"/>
-    <col min="12" max="66" width="1.77734375" style="10" customWidth="1"/>
-    <col min="67" max="16384" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="12.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.7109375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.5703125" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="12.7109375" style="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="8.85546875" style="10" collapsed="1"/>
+    <col min="12" max="66" width="1.7109375" style="10" customWidth="1"/>
+    <col min="67" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="E2" s="50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -15278,7 +15389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -15286,19 +15397,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="25">
         <f ca="1">TODAY()</f>
-        <v>44255</v>
+        <v>44263</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:66" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -15549,7 +15660,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="10" t="s">
         <v>12</v>
@@ -15611,7 +15722,7 @@
       <c r="BM8" s="47"/>
       <c r="BN8" s="47"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>37</v>
       </c>
@@ -15641,7 +15752,7 @@
       </c>
       <c r="I9" s="17">
         <f ca="1">SUM(I10:I14)/$G$9</f>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
       <c r="J9" s="17">
         <v>0.2</v>
@@ -15867,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="str">
         <f>A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
         <v>S1-1</v>
@@ -16111,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="str">
         <f t="shared" ref="A11:A14" si="4">A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
         <v>S1-2</v>
@@ -16134,9 +16245,9 @@
       <c r="G11" s="43">
         <v>1</v>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="I11" s="19">
         <f ca="1">IF(F11&lt;=$B$5,G11,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J11" s="13"/>
       <c r="L11" s="48">
@@ -16360,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="str">
         <f t="shared" si="4"/>
         <v>S1-3</v>
@@ -16380,9 +16491,9 @@
       <c r="G12" s="43">
         <v>1</v>
       </c>
-      <c r="I12" s="19" t="str">
+      <c r="I12" s="19">
         <f ca="1">IF(F12&lt;=$B$5,G12,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="48">
@@ -16606,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="str">
         <f t="shared" si="4"/>
         <v>S1-4</v>
@@ -16626,9 +16737,9 @@
       <c r="G13" s="43">
         <v>1</v>
       </c>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="19">
         <f ca="1">IF(F13&lt;=$B$5,G13,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J13" s="13"/>
       <c r="L13" s="48">
@@ -16852,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="str">
         <f t="shared" si="4"/>
         <v>S1-5</v>
@@ -16876,9 +16987,9 @@
       <c r="G14" s="43">
         <v>1</v>
       </c>
-      <c r="I14" s="19" t="str">
+      <c r="I14" s="19">
         <f ca="1">IF(F14&lt;=$B$5,G14,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J14" s="13"/>
       <c r="L14" s="48">
@@ -17102,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>38</v>
       </c>
@@ -17132,7 +17243,7 @@
       </c>
       <c r="I15" s="17">
         <f ca="1">SUM(I16:I21)/$G$9</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J15" s="17">
         <v>0.2</v>
@@ -17358,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="str">
         <f>A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
         <v>S2-1</v>
@@ -17381,9 +17492,9 @@
       <c r="G16" s="43">
         <v>0</v>
       </c>
-      <c r="I16" s="19" t="str">
+      <c r="I16" s="19">
         <f ca="1">IF(F16&lt;=$B$5,G16,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="13"/>
       <c r="L16" s="48">
@@ -17607,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="str">
         <f t="shared" ref="A17:A21" si="10">A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
         <v>S2-2</v>
@@ -17626,9 +17737,9 @@
       <c r="G17" s="43">
         <v>2</v>
       </c>
-      <c r="I17" s="19" t="str">
+      <c r="I17" s="19">
         <f ca="1">IF(F17&lt;=$B$5,G17,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J17" s="13"/>
       <c r="L17" s="48">
@@ -17852,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="str">
         <f t="shared" si="10"/>
         <v>S2-3</v>
@@ -17871,9 +17982,9 @@
       <c r="G18" s="43">
         <v>1</v>
       </c>
-      <c r="I18" s="19" t="str">
+      <c r="I18" s="19">
         <f t="shared" ref="I18:I19" ca="1" si="12">IF(F18&lt;=$B$5,G18,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J18" s="13"/>
       <c r="L18" s="48">
@@ -18097,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="str">
         <f t="shared" si="10"/>
         <v>S2-4</v>
@@ -18117,9 +18228,9 @@
       <c r="G19" s="43">
         <v>1</v>
       </c>
-      <c r="I19" s="19" t="str">
+      <c r="I19" s="19">
         <f t="shared" ca="1" si="12"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J19" s="13"/>
       <c r="L19" s="48">
@@ -18343,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="str">
         <f t="shared" si="10"/>
         <v>S2-5</v>
@@ -18589,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="str">
         <f t="shared" si="10"/>
         <v>S2-6</v>
@@ -18839,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
@@ -19095,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="str">
         <f>A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
         <v>S3-1</v>
@@ -19344,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="str">
         <f t="shared" ref="A24:A27" si="13">A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
         <v>S3-2</v>
@@ -19589,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="str">
         <f t="shared" si="13"/>
         <v>S3-3</v>
@@ -19835,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="str">
         <f t="shared" si="13"/>
         <v>S3-4</v>
@@ -20081,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="str">
         <f t="shared" si="13"/>
         <v>S3-5</v>
@@ -20331,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>40</v>
       </c>
@@ -20587,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="str">
         <f>A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
         <v>S4-1</v>
@@ -20836,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="str">
         <f t="shared" ref="A30:A33" si="18">A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
         <v>S4-2</v>
@@ -21081,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="str">
         <f t="shared" si="18"/>
         <v>S4-3</v>
@@ -21327,7 +21438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="str">
         <f t="shared" si="18"/>
         <v>S4-4</v>
@@ -21573,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="str">
         <f t="shared" si="18"/>
         <v>S4-5</v>
@@ -21823,7 +21934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>41</v>
       </c>
@@ -22079,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="str">
         <f>A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
         <v>S5-1</v>
@@ -22328,7 +22439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="str">
         <f t="shared" ref="A36:A39" si="22">A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
         <v>S5-2</v>
@@ -22574,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="str">
         <f t="shared" si="22"/>
         <v>S5-3</v>
@@ -22820,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="str">
         <f t="shared" si="22"/>
         <v>S5-4</v>
@@ -23066,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:66" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="str">
         <f t="shared" si="22"/>
         <v>S5-5</v>
@@ -23316,7 +23427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
@@ -23548,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:66" x14ac:dyDescent="0.25">
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -23605,11 +23716,11 @@
       <c r="BM41" s="5"/>
       <c r="BN41" s="5"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -23621,7 +23732,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15" t="s">
         <v>17</v>
@@ -23655,7 +23766,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="18"/>
       <c r="E53" s="11" t="s">
@@ -23674,7 +23785,7 @@
       </c>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="18"/>
       <c r="E54" s="20" t="str">
@@ -23694,7 +23805,7 @@
       </c>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="18"/>
       <c r="E55" s="20" t="str">
@@ -23714,7 +23825,7 @@
       </c>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="18"/>
       <c r="E56" s="20" t="str">
@@ -23734,7 +23845,7 @@
       </c>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="18" t="str">
         <f>"Submit " &amp; B52</f>
@@ -23761,7 +23872,7 @@
       </c>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>

--- a/Planning/DAT 205 Project Schedule.xlsx
+++ b/Planning/DAT 205 Project Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AAD668-9FD9-43ED-9EDA-68B8B4392F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FB0B1-163B-4934-B2EF-297575726E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -282,14 +282,18 @@
   <si>
     <t>Last Review</t>
   </si>
+  <si>
+    <t>Deliverable / Action Item</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -601,7 +605,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -784,12 +788,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -799,9 +797,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -810,9 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -831,6 +823,51 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1065,15 +1102,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>17585</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>516522</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>751551</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>65963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1109,15 +1146,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457957</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>32109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3045564</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137711</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>128762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1153,13 +1190,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>633037</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>29311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>751681</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
@@ -1213,13 +1250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>118644</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
@@ -1273,13 +1310,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>118644</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
@@ -1333,13 +1370,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>118644</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
@@ -1393,13 +1430,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>118644</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
@@ -1454,13 +1491,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>21171</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>118644</xdr:colOff>
+      <xdr:colOff>139815</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
     </xdr:to>
@@ -1477,7 +1514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12390120" y="4838700"/>
+          <a:off x="14213421" y="6879167"/>
           <a:ext cx="118644" cy="123091"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -1514,13 +1551,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>8276</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>118644</xdr:colOff>
+      <xdr:colOff>126920</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>123091</xdr:rowOff>
     </xdr:to>
@@ -1537,7 +1574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18018369" y="10503877"/>
+          <a:off x="14063863" y="3627783"/>
           <a:ext cx="118644" cy="123091"/>
         </a:xfrm>
         <a:prstGeom prst="irregularSeal1">
@@ -2290,72 +2327,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO65"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="47" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.42578125" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.7109375" style="10" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="8.85546875" style="10"/>
-    <col min="12" max="66" width="1.7109375" style="10" customWidth="1"/>
-    <col min="67" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="8.85546875" style="10"/>
+    <col min="2" max="2" width="12.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.28515625" style="12" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="11.7109375" style="11" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.7109375" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="11.42578125" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="10" width="14" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="11" max="11" width="12.7109375" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="3.5703125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="13" max="67" width="2.28515625" style="10" customWidth="1"/>
+    <col min="68" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="53"/>
+      <c r="B1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="53"/>
       <c r="C1" s="53"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="58"/>
-      <c r="G1" s="53"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
       <c r="J1" s="53"/>
       <c r="K1" s="53"/>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="53"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
       <c r="AM1" s="53"/>
       <c r="AN1" s="53"/>
       <c r="AO1" s="53"/>
@@ -2385,15 +2424,16 @@
       <c r="BM1" s="53"/>
       <c r="BN1" s="53"/>
       <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="58"/>
-      <c r="G2" s="53"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="53"/>
@@ -2454,21 +2494,22 @@
       <c r="BM2" s="53"/>
       <c r="BN2" s="53"/>
       <c r="BO2" s="53"/>
+      <c r="BP2" s="53"/>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="1:68" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="58"/>
-      <c r="G3" s="53"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="53"/>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
@@ -2529,19 +2570,20 @@
       <c r="BM3" s="53"/>
       <c r="BN3" s="53"/>
       <c r="BO3" s="53"/>
+      <c r="BP3" s="53"/>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="58"/>
-      <c r="G4" s="53"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -2602,19 +2644,20 @@
       <c r="BM4" s="53"/>
       <c r="BN4" s="53"/>
       <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="61">
+      <c r="C5" s="61">
         <v>44255</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="58"/>
-      <c r="G5" s="53"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
@@ -2675,15 +2718,16 @@
       <c r="BM5" s="53"/>
       <c r="BN5" s="53"/>
       <c r="BO5" s="53"/>
+      <c r="BP5" s="53"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="58"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -2695,8 +2739,8 @@
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="54"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -2744,275 +2788,275 @@
       <c r="BM6" s="53"/>
       <c r="BN6" s="53"/>
       <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
     </row>
-    <row r="7" spans="1:67" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+    <row r="7" spans="1:68" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="E7" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="F7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="H7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="I7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="J7" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="K7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="83">
+      <c r="L7" s="53"/>
+      <c r="M7" s="79">
         <v>44252</v>
       </c>
-      <c r="M7" s="84">
-        <f t="shared" ref="M7:AY7" si="0">L7+1</f>
+      <c r="N7" s="80">
+        <f t="shared" ref="N7:AZ7" si="0">M7+1</f>
         <v>44253</v>
       </c>
-      <c r="N7" s="84">
+      <c r="O7" s="80">
         <f t="shared" si="0"/>
         <v>44254</v>
       </c>
-      <c r="O7" s="84">
+      <c r="P7" s="80">
         <f t="shared" si="0"/>
         <v>44255</v>
       </c>
-      <c r="P7" s="84">
+      <c r="Q7" s="80">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="R7" s="80">
         <f t="shared" si="0"/>
         <v>44257</v>
       </c>
-      <c r="R7" s="84">
+      <c r="S7" s="80">
         <f t="shared" si="0"/>
         <v>44258</v>
       </c>
-      <c r="S7" s="83">
+      <c r="T7" s="79">
         <f t="shared" si="0"/>
         <v>44259</v>
       </c>
-      <c r="T7" s="84">
+      <c r="U7" s="80">
         <f t="shared" si="0"/>
         <v>44260</v>
       </c>
-      <c r="U7" s="84">
+      <c r="V7" s="80">
         <f t="shared" si="0"/>
         <v>44261</v>
       </c>
-      <c r="V7" s="84">
+      <c r="W7" s="80">
         <f t="shared" si="0"/>
         <v>44262</v>
       </c>
-      <c r="W7" s="84">
+      <c r="X7" s="80">
         <f t="shared" si="0"/>
         <v>44263</v>
       </c>
-      <c r="X7" s="84">
+      <c r="Y7" s="80">
         <f t="shared" si="0"/>
         <v>44264</v>
       </c>
-      <c r="Y7" s="84">
+      <c r="Z7" s="80">
         <f t="shared" si="0"/>
         <v>44265</v>
       </c>
-      <c r="Z7" s="83">
+      <c r="AA7" s="79">
         <f t="shared" si="0"/>
         <v>44266</v>
       </c>
-      <c r="AA7" s="84">
+      <c r="AB7" s="80">
         <f t="shared" si="0"/>
         <v>44267</v>
       </c>
-      <c r="AB7" s="84">
+      <c r="AC7" s="80">
         <f t="shared" si="0"/>
         <v>44268</v>
       </c>
-      <c r="AC7" s="84">
+      <c r="AD7" s="80">
         <f t="shared" si="0"/>
         <v>44269</v>
       </c>
-      <c r="AD7" s="84">
+      <c r="AE7" s="80">
         <f t="shared" si="0"/>
         <v>44270</v>
       </c>
-      <c r="AE7" s="84">
+      <c r="AF7" s="80">
         <f t="shared" si="0"/>
         <v>44271</v>
       </c>
-      <c r="AF7" s="84">
+      <c r="AG7" s="80">
         <f t="shared" si="0"/>
         <v>44272</v>
       </c>
-      <c r="AG7" s="83">
+      <c r="AH7" s="79">
         <f t="shared" si="0"/>
         <v>44273</v>
       </c>
-      <c r="AH7" s="84">
+      <c r="AI7" s="80">
         <f t="shared" si="0"/>
         <v>44274</v>
       </c>
-      <c r="AI7" s="84">
+      <c r="AJ7" s="80">
         <f t="shared" si="0"/>
         <v>44275</v>
       </c>
-      <c r="AJ7" s="84">
+      <c r="AK7" s="80">
         <f t="shared" si="0"/>
         <v>44276</v>
       </c>
-      <c r="AK7" s="84">
+      <c r="AL7" s="80">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="AL7" s="84">
+      <c r="AM7" s="80">
         <f t="shared" si="0"/>
         <v>44278</v>
       </c>
-      <c r="AM7" s="84">
+      <c r="AN7" s="80">
         <f t="shared" si="0"/>
         <v>44279</v>
       </c>
-      <c r="AN7" s="83">
+      <c r="AO7" s="79">
         <f t="shared" si="0"/>
         <v>44280</v>
       </c>
-      <c r="AO7" s="84">
+      <c r="AP7" s="80">
         <f t="shared" si="0"/>
         <v>44281</v>
       </c>
-      <c r="AP7" s="84">
+      <c r="AQ7" s="80">
         <f t="shared" si="0"/>
         <v>44282</v>
       </c>
-      <c r="AQ7" s="84">
+      <c r="AR7" s="80">
         <f t="shared" si="0"/>
         <v>44283</v>
       </c>
-      <c r="AR7" s="84">
+      <c r="AS7" s="80">
         <f t="shared" si="0"/>
         <v>44284</v>
       </c>
-      <c r="AS7" s="84">
+      <c r="AT7" s="80">
         <f t="shared" si="0"/>
         <v>44285</v>
       </c>
-      <c r="AT7" s="84">
+      <c r="AU7" s="80">
         <f t="shared" si="0"/>
         <v>44286</v>
       </c>
-      <c r="AU7" s="83">
+      <c r="AV7" s="79">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="AV7" s="84">
+      <c r="AW7" s="80">
         <f t="shared" si="0"/>
         <v>44288</v>
       </c>
-      <c r="AW7" s="84">
+      <c r="AX7" s="80">
         <f t="shared" si="0"/>
         <v>44289</v>
       </c>
-      <c r="AX7" s="84">
+      <c r="AY7" s="80">
         <f t="shared" si="0"/>
         <v>44290</v>
       </c>
-      <c r="AY7" s="84">
+      <c r="AZ7" s="80">
         <f t="shared" si="0"/>
         <v>44291</v>
       </c>
-      <c r="AZ7" s="84">
-        <f t="shared" ref="AZ7:BN7" si="1">AY7+1</f>
+      <c r="BA7" s="80">
+        <f t="shared" ref="BA7:BO7" si="1">AZ7+1</f>
         <v>44292</v>
       </c>
-      <c r="BA7" s="84">
+      <c r="BB7" s="80">
         <f t="shared" si="1"/>
         <v>44293</v>
       </c>
-      <c r="BB7" s="83">
+      <c r="BC7" s="79">
         <f t="shared" si="1"/>
         <v>44294</v>
       </c>
-      <c r="BC7" s="84">
+      <c r="BD7" s="80">
         <f t="shared" si="1"/>
         <v>44295</v>
       </c>
-      <c r="BD7" s="84">
+      <c r="BE7" s="80">
         <f t="shared" si="1"/>
         <v>44296</v>
       </c>
-      <c r="BE7" s="84">
+      <c r="BF7" s="80">
         <f t="shared" si="1"/>
         <v>44297</v>
       </c>
-      <c r="BF7" s="84">
+      <c r="BG7" s="80">
         <f t="shared" si="1"/>
         <v>44298</v>
       </c>
-      <c r="BG7" s="84">
+      <c r="BH7" s="80">
         <f t="shared" si="1"/>
         <v>44299</v>
       </c>
-      <c r="BH7" s="84">
+      <c r="BI7" s="80">
         <f t="shared" si="1"/>
         <v>44300</v>
       </c>
-      <c r="BI7" s="83">
+      <c r="BJ7" s="79">
         <f t="shared" si="1"/>
         <v>44301</v>
       </c>
-      <c r="BJ7" s="84">
+      <c r="BK7" s="80">
         <f t="shared" si="1"/>
         <v>44302</v>
       </c>
-      <c r="BK7" s="84">
+      <c r="BL7" s="80">
         <f t="shared" si="1"/>
         <v>44303</v>
       </c>
-      <c r="BL7" s="84">
+      <c r="BM7" s="80">
         <f t="shared" si="1"/>
         <v>44304</v>
       </c>
-      <c r="BM7" s="84">
+      <c r="BN7" s="80">
         <f t="shared" si="1"/>
         <v>44305</v>
       </c>
-      <c r="BN7" s="84">
+      <c r="BO7" s="80">
         <f t="shared" si="1"/>
         <v>44306</v>
       </c>
-      <c r="BO7" s="53"/>
+      <c r="BP7" s="53"/>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="60" t="s">
-        <v>12</v>
-      </c>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="60"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="66"/>
-      <c r="G8" s="60"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="60"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="47"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
@@ -3067,54 +3111,52 @@
       <c r="BL8" s="47"/>
       <c r="BM8" s="47"/>
       <c r="BN8" s="47"/>
-      <c r="BO8" s="53"/>
+      <c r="BO8" s="47"/>
+      <c r="BP8" s="53"/>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="C9" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="70">
-        <f>MAX(C10:C14)</f>
+      <c r="D9" s="82">
+        <f>MAX(D10:D14)</f>
         <v>44259</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70">
-        <f>MIN(E10:E14)</f>
+      <c r="E9" s="83"/>
+      <c r="F9" s="82">
+        <f>MIN(F10:F14)</f>
         <v>44252</v>
       </c>
-      <c r="F9" s="70">
-        <f>MAX(F10:F14)</f>
+      <c r="G9" s="82">
+        <f>MAX(G10:G14)</f>
         <v>44259</v>
       </c>
-      <c r="G9" s="69">
-        <f>SUM(G10:G14)</f>
+      <c r="H9" s="69">
+        <f>SUM(H10:H14)</f>
         <v>7</v>
       </c>
-      <c r="H9" s="72">
-        <f>SUM(H10:H14)/$G$9</f>
+      <c r="I9" s="70">
+        <f>SUM(I10:I14)/$H$9</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="I9" s="72">
-        <f>SUM(I10:I14)/$G$9</f>
+      <c r="J9" s="70">
+        <f>SUM(J10:J14)/$H$9</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J9" s="72">
+      <c r="K9" s="70">
         <v>0.2</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="48">
-        <f>IF(AND($F9-L$7&gt;=0,L$7-$E9&gt;=0),1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L9" s="53"/>
       <c r="M9" s="48">
-        <f t="shared" ref="M9:BN9" si="2">IF(AND($F9-M$7&gt;=0,M$7-$E9&gt;=0),1,0)</f>
+        <f>IF(AND($G9-M$7&gt;=0,M$7-$F9&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="N9" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N9:BO9" si="2">IF(AND($G9-N$7&gt;=0,N$7-$F9&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="O9" s="48">
@@ -3139,7 +3181,7 @@
       </c>
       <c r="T9" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="48">
         <f t="shared" si="2"/>
@@ -3325,47 +3367,48 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BO9" s="53"/>
+      <c r="BO9" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BP9" s="53"/>
     </row>
-    <row r="10" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="str">
-        <f>A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
+    <row r="10" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="71" t="str">
+        <f>B$9 &amp; "-" &amp; ROW() - ROW(B$9)</f>
         <v>S1-1</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="C10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66">
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="84">
         <v>44252</v>
       </c>
-      <c r="F10" s="75">
-        <f>E10+G10</f>
+      <c r="G10" s="86">
+        <f>F10+H10</f>
         <v>44255</v>
       </c>
-      <c r="G10" s="76">
+      <c r="H10" s="73">
         <v>3</v>
       </c>
-      <c r="H10" s="60">
+      <c r="I10" s="60">
         <v>4</v>
       </c>
-      <c r="I10" s="77">
-        <f>IF(F10&lt;=$B$5,G10,"")</f>
+      <c r="J10" s="74">
+        <f>IF(G10&lt;=$C$5,H10,"")</f>
         <v>3</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="48">
-        <f t="shared" ref="L10:AA25" si="3">IF(AND($F10-L$7&gt;=0,L$7-$E10&gt;=0),1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="48">
-        <f t="shared" ref="M10:AB24" si="4">IF(AND($F10-M$7&gt;=0,M$7-$E10&gt;=0),1,0)</f>
+        <f t="shared" ref="M10:AB25" si="3">IF(AND($G10-M$7&gt;=0,M$7-$F10&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="N10" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N10:AC24" si="4">IF(AND($G10-N$7&gt;=0,N$7-$F10&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="O10" s="48">
@@ -3374,7 +3417,7 @@
       </c>
       <c r="P10" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="48">
         <f t="shared" si="4"/>
@@ -3425,11 +3468,11 @@
         <v>0</v>
       </c>
       <c r="AC10" s="48">
-        <f t="shared" ref="AC10:AR24" si="5">IF(AND($F10-AC$7&gt;=0,AC$7-$E10&gt;=0),1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD10" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AD10:AS24" si="5">IF(AND($G10-AD$7&gt;=0,AD$7-$F10&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="48">
@@ -3489,11 +3532,11 @@
         <v>0</v>
       </c>
       <c r="AS10" s="48">
-        <f t="shared" ref="AS10:BH24" si="6">IF(AND($F10-AS$7&gt;=0,AS$7-$E10&gt;=0),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT10" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AT10:BI24" si="6">IF(AND($G10-AT$7&gt;=0,AT$7-$F10&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="48">
@@ -3553,11 +3596,11 @@
         <v>0</v>
       </c>
       <c r="BI10" s="48">
-        <f t="shared" ref="BI10:BN24" si="7">IF(AND($F10-BI$7&gt;=0,BI$7-$E10&gt;=0),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="BJ10:BO24" si="7">IF(AND($G10-BJ$7&gt;=0,BJ$7-$F10&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="BK10" s="48">
@@ -3576,46 +3619,47 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO10" s="53"/>
+      <c r="BO10" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP10" s="53"/>
     </row>
-    <row r="11" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="str">
-        <f t="shared" ref="A11:A14" si="8">A$9 &amp; "-" &amp; ROW() - ROW(A$9)</f>
+    <row r="11" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="71" t="str">
+        <f t="shared" ref="B11:B14" si="8">B$9 &amp; "-" &amp; ROW() - ROW(B$9)</f>
         <v>S1-2</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="C11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="66">
+      <c r="D11" s="84">
         <v>44256</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="75">
-        <f>F10</f>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86">
+        <f>G10</f>
         <v>44255</v>
       </c>
-      <c r="F11" s="75">
-        <f t="shared" ref="F11:F39" si="9">E11+G11</f>
+      <c r="G11" s="86">
+        <f t="shared" ref="G11:G39" si="9">F11+H11</f>
         <v>44256</v>
       </c>
-      <c r="G11" s="76">
-        <v>1</v>
-      </c>
-      <c r="H11" s="60">
-        <v>1</v>
-      </c>
-      <c r="I11" s="77" t="str">
-        <f>IF(F11&lt;=$B$5,G11,"")</f>
+      <c r="H11" s="73">
+        <v>1</v>
+      </c>
+      <c r="I11" s="60">
+        <v>1</v>
+      </c>
+      <c r="J11" s="74" t="str">
+        <f>IF(G11&lt;=$C$5,H11,"")</f>
         <v/>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="48">
+      <c r="K11" s="67"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="48">
@@ -3624,7 +3668,7 @@
       </c>
       <c r="O11" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="48">
         <f t="shared" si="4"/>
@@ -3632,7 +3676,7 @@
       </c>
       <c r="Q11" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" si="4"/>
@@ -3679,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AC11" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD11" s="48">
@@ -3743,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT11" s="48">
@@ -3807,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="48">
@@ -3830,45 +3874,46 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO11" s="53"/>
+      <c r="BO11" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="53"/>
     </row>
-    <row r="12" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="str">
+    <row r="12" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="71" t="str">
         <f t="shared" si="8"/>
         <v>S1-3</v>
       </c>
-      <c r="B12" s="60" t="str">
-        <f>"Develop " &amp; B9</f>
+      <c r="C12" s="60" t="str">
+        <f>"Develop " &amp; C9</f>
         <v>Develop Team Case Proposals</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="75">
-        <f t="shared" ref="E12:E14" si="10">F11</f>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86">
+        <f t="shared" ref="F12:F14" si="10">G11</f>
         <v>44256</v>
       </c>
-      <c r="F12" s="75">
+      <c r="G12" s="86">
         <f t="shared" si="9"/>
         <v>44257</v>
       </c>
-      <c r="G12" s="76">
-        <v>1</v>
-      </c>
-      <c r="H12" s="60">
-        <v>1</v>
-      </c>
-      <c r="I12" s="77" t="str">
-        <f>IF(F12&lt;=$B$5,G12,"")</f>
+      <c r="H12" s="73">
+        <v>1</v>
+      </c>
+      <c r="I12" s="60">
+        <v>1</v>
+      </c>
+      <c r="J12" s="74" t="str">
+        <f>IF(G12&lt;=$C$5,H12,"")</f>
         <v/>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="48">
+      <c r="K12" s="67"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="48">
@@ -3881,7 +3926,7 @@
       </c>
       <c r="P12" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="48">
         <f t="shared" si="4"/>
@@ -3889,7 +3934,7 @@
       </c>
       <c r="R12" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="48">
         <f t="shared" si="4"/>
@@ -3932,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD12" s="48">
@@ -3996,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT12" s="48">
@@ -4060,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="BI12" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ12" s="48">
@@ -4083,45 +4128,46 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO12" s="53"/>
+      <c r="BO12" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP12" s="53"/>
     </row>
-    <row r="13" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="str">
+    <row r="13" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="71" t="str">
         <f t="shared" si="8"/>
         <v>S1-4</v>
       </c>
-      <c r="B13" s="78" t="str">
-        <f>"Finalized " &amp;B9</f>
+      <c r="C13" s="75" t="str">
+        <f>"Finalized " &amp;C9</f>
         <v>Finalized Team Case Proposals</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="75">
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86">
         <f t="shared" si="10"/>
         <v>44257</v>
       </c>
-      <c r="F13" s="75">
+      <c r="G13" s="86">
         <f t="shared" si="9"/>
         <v>44258</v>
       </c>
-      <c r="G13" s="76">
-        <v>1</v>
-      </c>
-      <c r="H13" s="60">
-        <v>1</v>
-      </c>
-      <c r="I13" s="77" t="str">
-        <f>IF(F13&lt;=$B$5,G13,"")</f>
+      <c r="H13" s="73">
+        <v>1</v>
+      </c>
+      <c r="I13" s="60">
+        <v>1</v>
+      </c>
+      <c r="J13" s="74" t="str">
+        <f>IF(G13&lt;=$C$5,H13,"")</f>
         <v/>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="48">
+      <c r="K13" s="67"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="48">
@@ -4138,7 +4184,7 @@
       </c>
       <c r="Q13" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="48">
         <f t="shared" si="4"/>
@@ -4146,7 +4192,7 @@
       </c>
       <c r="S13" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="48">
         <f t="shared" si="4"/>
@@ -4185,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD13" s="48">
@@ -4249,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT13" s="48">
@@ -4313,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ13" s="48">
@@ -4336,47 +4382,48 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO13" s="53"/>
+      <c r="BO13" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="53"/>
     </row>
-    <row r="14" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="str">
+    <row r="14" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="71" t="str">
         <f t="shared" si="8"/>
         <v>S1-5</v>
       </c>
-      <c r="B14" s="78" t="str">
-        <f>"Submit " &amp; B9</f>
+      <c r="C14" s="75" t="str">
+        <f>"Submit " &amp; C9</f>
         <v>Submit Team Case Proposals</v>
       </c>
-      <c r="C14" s="66">
+      <c r="D14" s="84">
         <v>44259</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="75">
+      <c r="E14" s="85"/>
+      <c r="F14" s="86">
         <f t="shared" si="10"/>
         <v>44258</v>
       </c>
-      <c r="F14" s="75">
+      <c r="G14" s="86">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="G14" s="76">
-        <v>1</v>
-      </c>
-      <c r="H14" s="60">
-        <v>1</v>
-      </c>
-      <c r="I14" s="77" t="str">
-        <f>IF(F14&lt;=$B$5,G14,"")</f>
+      <c r="H14" s="73">
+        <v>1</v>
+      </c>
+      <c r="I14" s="60">
+        <v>1</v>
+      </c>
+      <c r="J14" s="74" t="str">
+        <f>IF(G14&lt;=$C$5,H14,"")</f>
         <v/>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="48">
+      <c r="K14" s="67"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="48">
@@ -4397,7 +4444,7 @@
       </c>
       <c r="R14" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="48">
         <f t="shared" si="4"/>
@@ -4405,7 +4452,7 @@
       </c>
       <c r="T14" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="48">
         <f t="shared" si="4"/>
@@ -4440,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD14" s="48">
@@ -4504,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT14" s="48">
@@ -4568,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="48">
@@ -4591,54 +4638,55 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO14" s="53"/>
+      <c r="BO14" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP14" s="53"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="C15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="70">
-        <f>MAX(C16:C21)</f>
+      <c r="D15" s="82">
+        <f>MAX(D16:D21)</f>
         <v>44273</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="70">
-        <f>MIN(E16:E21)</f>
+      <c r="E15" s="83"/>
+      <c r="F15" s="82">
+        <f>MIN(F16:F21)</f>
         <v>44259</v>
       </c>
-      <c r="F15" s="70">
-        <f>MAX(F16:F21)</f>
+      <c r="G15" s="82">
+        <f>MAX(G16:G21)</f>
         <v>44268</v>
       </c>
-      <c r="G15" s="69">
-        <f>SUM(G16:G21)</f>
+      <c r="H15" s="69">
+        <f>SUM(H16:H21)</f>
         <v>9</v>
       </c>
-      <c r="H15" s="72">
-        <f>SUM(H16:H21)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="72">
-        <f>SUM(I16:I21)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="72">
+      <c r="I15" s="70">
+        <f>SUM(I16:I21)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="70">
+        <f>SUM(J16:J21)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="70">
         <v>0.2</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="48">
-        <f>IF(AND($F15-L$7&gt;=0,L$7-$E15&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L15" s="53"/>
       <c r="M15" s="48">
-        <f t="shared" ref="M15:BN15" si="11">IF(AND($F15-M$7&gt;=0,M$7-$E15&gt;=0),1,0)</f>
+        <f>IF(AND($G15-M$7&gt;=0,M$7-$F15&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N15" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="N15:BO15" si="11">IF(AND($G15-N$7&gt;=0,N$7-$F15&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="O15" s="48">
@@ -4659,7 +4707,7 @@
       </c>
       <c r="S15" s="48">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="48">
         <f t="shared" si="11"/>
@@ -4699,7 +4747,7 @@
       </c>
       <c r="AC15" s="48">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="48">
         <f t="shared" si="11"/>
@@ -4849,45 +4897,46 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BO15" s="53"/>
+      <c r="BO15" s="48">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BP15" s="53"/>
     </row>
-    <row r="16" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="str">
-        <f>A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
+    <row r="16" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="71" t="str">
+        <f>B$15 &amp; "-" &amp; ROW() - ROW(B$15)</f>
         <v>S2-1</v>
       </c>
-      <c r="B16" s="60" t="str">
-        <f>"Review " &amp;B9</f>
+      <c r="C16" s="60" t="str">
+        <f>"Review " &amp;C9</f>
         <v>Review Team Case Proposals</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="65" t="str">
-        <f>A14</f>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="str">
+        <f>B14</f>
         <v>S1-5</v>
       </c>
-      <c r="E16" s="75">
+      <c r="F16" s="86">
         <v>44259</v>
       </c>
-      <c r="F16" s="75">
+      <c r="G16" s="86">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="G16" s="76">
-        <v>0</v>
-      </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="77" t="str">
-        <f>IF(F16&lt;=$B$5,G16,"")</f>
+      <c r="H16" s="73">
+        <v>0</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="J16" s="74" t="str">
+        <f>IF(G16&lt;=$C$5,H16,"")</f>
         <v/>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="48">
+      <c r="K16" s="67"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="48">
@@ -4912,11 +4961,11 @@
       </c>
       <c r="S16" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="48">
         <f t="shared" si="4"/>
@@ -4951,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD16" s="48">
@@ -5015,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT16" s="48">
@@ -5079,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="48">
@@ -5102,42 +5151,43 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO16" s="53"/>
+      <c r="BO16" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="53"/>
     </row>
-    <row r="17" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="str">
-        <f t="shared" ref="A17:A21" si="12">A$15 &amp; "-" &amp; ROW() - ROW(A$15)</f>
+    <row r="17" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="71" t="str">
+        <f t="shared" ref="B17:B21" si="12">B$15 &amp; "-" &amp; ROW() - ROW(B$15)</f>
         <v>S2-2</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="C17" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="75">
-        <f>F16</f>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86">
+        <f>G16</f>
         <v>44259</v>
       </c>
-      <c r="F17" s="75">
+      <c r="G17" s="86">
         <f t="shared" si="9"/>
         <v>44263</v>
       </c>
-      <c r="G17" s="76">
+      <c r="H17" s="73">
         <v>4</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="77" t="str">
-        <f>IF(F17&lt;=$B$5,G17,"")</f>
+      <c r="I17" s="60"/>
+      <c r="J17" s="74" t="str">
+        <f>IF(G17&lt;=$C$5,H17,"")</f>
         <v/>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="48">
+      <c r="K17" s="67"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="48">
@@ -5162,7 +5212,7 @@
       </c>
       <c r="S17" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="48">
         <f t="shared" si="4"/>
@@ -5182,7 +5232,7 @@
       </c>
       <c r="X17" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="48">
         <f t="shared" si="4"/>
@@ -5201,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="AC17" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="48">
@@ -5265,7 +5315,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT17" s="48">
@@ -5329,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="48">
@@ -5352,42 +5402,43 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO17" s="53"/>
+      <c r="BO17" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="53"/>
     </row>
-    <row r="18" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="str">
+    <row r="18" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="71" t="str">
         <f t="shared" si="12"/>
         <v>S2-3</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="C18" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="75">
-        <f t="shared" ref="E18:E19" si="13">F17</f>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86">
+        <f t="shared" ref="F18:F19" si="13">G17</f>
         <v>44263</v>
       </c>
-      <c r="F18" s="75">
+      <c r="G18" s="86">
         <f t="shared" si="9"/>
         <v>44264</v>
       </c>
-      <c r="G18" s="76">
-        <v>1</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="77" t="str">
-        <f t="shared" ref="I18:I19" si="14">IF(F18&lt;=$B$5,G18,"")</f>
+      <c r="H18" s="73">
+        <v>1</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="J18" s="74" t="str">
+        <f t="shared" ref="J18:J19" si="14">IF(G18&lt;=$C$5,H18,"")</f>
         <v/>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="48">
+      <c r="K18" s="67"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18" s="48">
@@ -5428,7 +5479,7 @@
       </c>
       <c r="W18" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="48">
         <f t="shared" si="4"/>
@@ -5436,7 +5487,7 @@
       </c>
       <c r="Y18" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="48">
         <f t="shared" si="4"/>
@@ -5451,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD18" s="48">
@@ -5515,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT18" s="48">
@@ -5579,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="48">
@@ -5602,43 +5653,44 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO18" s="53"/>
+      <c r="BO18" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="53"/>
     </row>
-    <row r="19" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="str">
+    <row r="19" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="71" t="str">
         <f t="shared" si="12"/>
         <v>S2-4</v>
       </c>
-      <c r="B19" s="60" t="str">
-        <f>"Develop " &amp; B15</f>
+      <c r="C19" s="60" t="str">
+        <f>"Develop " &amp; C15</f>
         <v xml:space="preserve">Develop Final Plan </v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="75">
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86">
         <f t="shared" si="13"/>
         <v>44264</v>
       </c>
-      <c r="F19" s="75">
+      <c r="G19" s="86">
         <f t="shared" si="9"/>
         <v>44265</v>
       </c>
-      <c r="G19" s="76">
-        <v>1</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="77" t="str">
+      <c r="H19" s="73">
+        <v>1</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="74" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="48">
+      <c r="K19" s="67"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="48">
@@ -5683,7 +5735,7 @@
       </c>
       <c r="X19" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="48">
         <f t="shared" si="4"/>
@@ -5691,7 +5743,7 @@
       </c>
       <c r="Z19" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="48">
         <f t="shared" si="4"/>
@@ -5702,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD19" s="48">
@@ -5766,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT19" s="48">
@@ -5830,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BI19" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="48">
@@ -5853,43 +5905,44 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO19" s="53"/>
+      <c r="BO19" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="53"/>
     </row>
-    <row r="20" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="str">
+    <row r="20" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="71" t="str">
         <f t="shared" si="12"/>
         <v>S2-5</v>
       </c>
-      <c r="B20" s="78" t="str">
-        <f>"Finalized " &amp;B15</f>
+      <c r="C20" s="75" t="str">
+        <f>"Finalized " &amp;C15</f>
         <v xml:space="preserve">Finalized Final Plan </v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="75">
-        <f t="shared" ref="E20:E21" si="15">F19</f>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86">
+        <f t="shared" ref="F20:F21" si="15">G19</f>
         <v>44265</v>
       </c>
-      <c r="F20" s="75">
+      <c r="G20" s="86">
         <f t="shared" si="9"/>
         <v>44266</v>
       </c>
-      <c r="G20" s="76">
-        <v>1</v>
-      </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="77" t="str">
-        <f>IF(F20&lt;=$B$5,G20,"")</f>
+      <c r="H20" s="73">
+        <v>1</v>
+      </c>
+      <c r="I20" s="60"/>
+      <c r="J20" s="74" t="str">
+        <f>IF(G20&lt;=$C$5,H20,"")</f>
         <v/>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="48">
+      <c r="K20" s="67"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="48">
@@ -5938,7 +5991,7 @@
       </c>
       <c r="Y20" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="48">
         <f t="shared" si="4"/>
@@ -5946,14 +5999,14 @@
       </c>
       <c r="AA20" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC20" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD20" s="48">
@@ -6017,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT20" s="48">
@@ -6081,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ20" s="48">
@@ -6104,45 +6157,46 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO20" s="53"/>
+      <c r="BO20" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="53"/>
     </row>
-    <row r="21" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="str">
+    <row r="21" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="71" t="str">
         <f t="shared" si="12"/>
         <v>S2-6</v>
       </c>
-      <c r="B21" s="78" t="str">
-        <f>"Submit " &amp; B15</f>
+      <c r="C21" s="75" t="str">
+        <f>"Submit " &amp; C15</f>
         <v xml:space="preserve">Submit Final Plan </v>
       </c>
-      <c r="C21" s="66">
+      <c r="D21" s="84">
         <v>44273</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="75">
+      <c r="E21" s="85"/>
+      <c r="F21" s="86">
         <f t="shared" si="15"/>
         <v>44266</v>
       </c>
-      <c r="F21" s="75">
+      <c r="G21" s="86">
         <f t="shared" si="9"/>
         <v>44268</v>
       </c>
-      <c r="G21" s="76">
+      <c r="H21" s="73">
         <v>2</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="77" t="str">
-        <f>IF(F21&lt;=$B$5,G21,"")</f>
+      <c r="I21" s="60"/>
+      <c r="J21" s="74" t="str">
+        <f>IF(G21&lt;=$C$5,H21,"")</f>
         <v/>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="48">
+      <c r="K21" s="67"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="48">
@@ -6195,7 +6249,7 @@
       </c>
       <c r="Z21" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="48">
         <f t="shared" si="4"/>
@@ -6206,8 +6260,8 @@
         <v>1</v>
       </c>
       <c r="AC21" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AD21" s="48">
         <f t="shared" si="5"/>
@@ -6270,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT21" s="48">
@@ -6334,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ21" s="48">
@@ -6357,54 +6411,55 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO21" s="53"/>
+      <c r="BO21" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="53"/>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="C22" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="70">
-        <f>MAX(C23:C27)</f>
+      <c r="D22" s="82">
+        <f>MAX(D23:D27)</f>
         <v>44280</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="70">
-        <f>MIN(E23:E27)</f>
+      <c r="E22" s="83"/>
+      <c r="F22" s="82">
+        <f>MIN(F23:F27)</f>
         <v>44268</v>
       </c>
-      <c r="F22" s="70">
-        <f>MAX(F23:F27)</f>
+      <c r="G22" s="82">
+        <f>MAX(G23:G27)</f>
         <v>44280</v>
       </c>
-      <c r="G22" s="69">
-        <f>SUM(G23:G27)</f>
+      <c r="H22" s="69">
+        <f>SUM(H23:H27)</f>
         <v>12</v>
       </c>
-      <c r="H22" s="72">
-        <f>SUM(H23:H27)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="72">
-        <f>SUM(I23:I27)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="72">
+      <c r="I22" s="70">
+        <f>SUM(I23:I27)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="70">
+        <f>SUM(J23:J27)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="70">
         <v>0.2</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="48">
-        <f>IF(AND($F22-L$7&gt;=0,L$7-$E22&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L22" s="53"/>
       <c r="M22" s="48">
-        <f t="shared" ref="M22:BN22" si="16">IF(AND($F22-M$7&gt;=0,M$7-$E22&gt;=0),1,0)</f>
+        <f>IF(AND($G22-M$7&gt;=0,M$7-$F22&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="48">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="N22:BO22" si="16">IF(AND($G22-N$7&gt;=0,N$7-$F22&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="O22" s="48">
@@ -6461,7 +6516,7 @@
       </c>
       <c r="AB22" s="48">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="48">
         <f t="shared" si="16"/>
@@ -6513,7 +6568,7 @@
       </c>
       <c r="AO22" s="48">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="48">
         <f t="shared" si="16"/>
@@ -6615,45 +6670,46 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BO22" s="53"/>
+      <c r="BO22" s="48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BP22" s="53"/>
     </row>
-    <row r="23" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="str">
-        <f>A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
+    <row r="23" spans="1:68" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="71" t="str">
+        <f>B$22 &amp; "-" &amp; ROW() - ROW(B$22)</f>
         <v>S3-1</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="C23" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="65" t="str">
-        <f>A21</f>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85" t="str">
+        <f>B21</f>
         <v>S2-6</v>
       </c>
-      <c r="E23" s="75">
-        <f>F21</f>
+      <c r="F23" s="86">
+        <f>G21</f>
         <v>44268</v>
       </c>
-      <c r="F23" s="75">
+      <c r="G23" s="86">
         <f t="shared" si="9"/>
         <v>44269</v>
       </c>
-      <c r="G23" s="76">
-        <v>1</v>
-      </c>
-      <c r="H23" s="60"/>
-      <c r="I23" s="77" t="str">
-        <f>IF(F23&lt;=$B$5,G23,"")</f>
+      <c r="H23" s="73">
+        <v>1</v>
+      </c>
+      <c r="I23" s="60"/>
+      <c r="J23" s="74" t="str">
+        <f>IF(G23&lt;=$C$5,H23,"")</f>
         <v/>
       </c>
-      <c r="J23" s="67"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="48">
+      <c r="K23" s="67"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="48">
@@ -6714,15 +6770,15 @@
       </c>
       <c r="AB23" s="48">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD23" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="48">
         <f t="shared" si="5"/>
@@ -6781,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT23" s="48">
@@ -6845,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="48">
@@ -6868,42 +6924,43 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO23" s="53"/>
+      <c r="BO23" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP23" s="53"/>
     </row>
-    <row r="24" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="str">
-        <f t="shared" ref="A24:A27" si="17">A$22 &amp; "-" &amp; ROW() - ROW(A$22)</f>
+    <row r="24" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="71" t="str">
+        <f t="shared" ref="B24:B27" si="17">B$22 &amp; "-" &amp; ROW() - ROW(B$22)</f>
         <v>S3-2</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="C24" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="75">
-        <f>F23</f>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86">
+        <f>G23</f>
         <v>44269</v>
       </c>
-      <c r="F24" s="75">
+      <c r="G24" s="86">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="G24" s="76">
+      <c r="H24" s="73">
         <v>2</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="77" t="str">
-        <f>IF(F24&lt;=$B$5,G24,"")</f>
+      <c r="I24" s="60"/>
+      <c r="J24" s="74" t="str">
+        <f>IF(G24&lt;=$C$5,H24,"")</f>
         <v/>
       </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="48">
+      <c r="K24" s="67"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="48">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24" s="48">
@@ -6963,12 +7020,12 @@
         <v>0</v>
       </c>
       <c r="AB24" s="48">
-        <f t="shared" ref="AB24:AQ39" si="18">IF(AND($F24-AB$7&gt;=0,AB$7-$E24&gt;=0),1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC24" s="48">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="AC24:AR39" si="18">IF(AND($G24-AC$7&gt;=0,AC$7-$F24&gt;=0),1,0)</f>
+        <v>0</v>
       </c>
       <c r="AD24" s="48">
         <f t="shared" si="5"/>
@@ -6980,7 +7037,7 @@
       </c>
       <c r="AF24" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="48">
         <f t="shared" si="5"/>
@@ -7027,11 +7084,11 @@
         <v>0</v>
       </c>
       <c r="AR24" s="48">
-        <f t="shared" ref="AR24:BG39" si="19">IF(AND($F24-AR$7&gt;=0,AR$7-$E24&gt;=0),1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS24" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AS24:BH39" si="19">IF(AND($G24-AS$7&gt;=0,AS$7-$F24&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="AT24" s="48">
@@ -7091,11 +7148,11 @@
         <v>0</v>
       </c>
       <c r="BH24" s="48">
-        <f t="shared" ref="BH24:BN39" si="20">IF(AND($F24-BH$7&gt;=0,BH$7-$E24&gt;=0),1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI24" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="BI24:BO39" si="20">IF(AND($G24-BI$7&gt;=0,BI$7-$F24&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="BJ24" s="48">
@@ -7118,41 +7175,42 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="BO24" s="53"/>
+      <c r="BO24" s="48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="53"/>
     </row>
-    <row r="25" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="str">
+    <row r="25" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="71" t="str">
         <f t="shared" si="17"/>
         <v>S3-3</v>
       </c>
-      <c r="B25" s="60" t="str">
-        <f>"Develop " &amp; B22</f>
+      <c r="C25" s="60" t="str">
+        <f>"Develop " &amp; C22</f>
         <v>Develop Interim Presentation</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="75">
-        <f t="shared" ref="E25:E27" si="21">F24</f>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86">
+        <f t="shared" ref="F25:F27" si="21">G24</f>
         <v>44271</v>
       </c>
-      <c r="F25" s="75">
+      <c r="G25" s="86">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="G25" s="76">
+      <c r="H25" s="73">
         <v>3</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="77" t="str">
-        <f>IF(F25&lt;=$B$5,G25,"")</f>
+      <c r="I25" s="60"/>
+      <c r="J25" s="74" t="str">
+        <f>IF(G25&lt;=$C$5,H25,"")</f>
         <v/>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="K25" s="67"/>
+      <c r="L25" s="53"/>
       <c r="M25" s="48">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7214,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="48">
@@ -7227,7 +7285,7 @@
       </c>
       <c r="AE25" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="48">
         <f t="shared" si="18"/>
@@ -7243,7 +7301,7 @@
       </c>
       <c r="AI25" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="48">
         <f t="shared" si="18"/>
@@ -7278,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS25" s="48">
@@ -7342,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI25" s="48">
@@ -7369,43 +7427,44 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO25" s="53"/>
+      <c r="BO25" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP25" s="53"/>
     </row>
-    <row r="26" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="str">
+    <row r="26" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="71" t="str">
         <f t="shared" si="17"/>
         <v>S3-4</v>
       </c>
-      <c r="B26" s="78" t="str">
-        <f>"Finalized " &amp;B22</f>
+      <c r="C26" s="75" t="str">
+        <f>"Finalized " &amp;C22</f>
         <v>Finalized Interim Presentation</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="75">
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86">
         <f t="shared" si="21"/>
         <v>44274</v>
       </c>
-      <c r="F26" s="75">
+      <c r="G26" s="86">
         <f t="shared" si="9"/>
         <v>44279</v>
       </c>
-      <c r="G26" s="76">
+      <c r="H26" s="73">
         <v>5</v>
       </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="77" t="str">
-        <f>IF(F26&lt;=$B$5,G26,"")</f>
+      <c r="I26" s="60"/>
+      <c r="J26" s="74" t="str">
+        <f>IF(G26&lt;=$C$5,H26,"")</f>
         <v/>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="48">
-        <f t="shared" ref="L26:AA49" si="22">IF(AND($F26-L$7&gt;=0,L$7-$E26&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K26" s="67"/>
+      <c r="L26" s="53"/>
       <c r="M26" s="48">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="M26:AB40" si="22">IF(AND($G26-M$7&gt;=0,M$7-$F26&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="48">
@@ -7465,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC26" s="48">
@@ -7490,7 +7549,7 @@
       </c>
       <c r="AH26" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="48">
         <f t="shared" si="18"/>
@@ -7514,7 +7573,7 @@
       </c>
       <c r="AN26" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26" s="48">
         <f t="shared" si="18"/>
@@ -7529,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="AR26" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS26" s="48">
@@ -7593,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="BH26" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI26" s="48">
@@ -7620,43 +7679,44 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO26" s="53"/>
+      <c r="BO26" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP26" s="53"/>
     </row>
-    <row r="27" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="str">
+    <row r="27" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="71" t="str">
         <f t="shared" si="17"/>
         <v>S3-5</v>
       </c>
-      <c r="B27" s="78" t="str">
-        <f>"Submit " &amp; B22</f>
+      <c r="C27" s="75" t="str">
+        <f>"Submit " &amp; C22</f>
         <v>Submit Interim Presentation</v>
       </c>
-      <c r="C27" s="66">
+      <c r="D27" s="84">
         <v>44280</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="75">
+      <c r="E27" s="85"/>
+      <c r="F27" s="86">
         <f t="shared" si="21"/>
         <v>44279</v>
       </c>
-      <c r="F27" s="75">
+      <c r="G27" s="86">
         <f t="shared" si="9"/>
         <v>44280</v>
       </c>
-      <c r="G27" s="76">
-        <v>1</v>
-      </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="77" t="str">
-        <f>IF(F27&lt;=$B$5,G27,"")</f>
+      <c r="H27" s="73">
+        <v>1</v>
+      </c>
+      <c r="I27" s="60"/>
+      <c r="J27" s="74" t="str">
+        <f>IF(G27&lt;=$C$5,H27,"")</f>
         <v/>
       </c>
-      <c r="J27" s="67"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K27" s="67"/>
+      <c r="L27" s="53"/>
       <c r="M27" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -7718,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC27" s="48">
@@ -7763,7 +7823,7 @@
       </c>
       <c r="AM27" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="48">
         <f t="shared" si="18"/>
@@ -7771,7 +7831,7 @@
       </c>
       <c r="AO27" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="48">
         <f t="shared" si="18"/>
@@ -7782,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS27" s="48">
@@ -7846,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI27" s="48">
@@ -7873,50 +7933,51 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO27" s="53"/>
+      <c r="BO27" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP27" s="53"/>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="C28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="70">
-        <f>MAX(C29:C33)</f>
+      <c r="D28" s="82">
+        <f>MAX(D29:D33)</f>
         <v>44294</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70">
-        <f>MIN(E29:E33)</f>
+      <c r="E28" s="83"/>
+      <c r="F28" s="82">
+        <f>MIN(F29:F33)</f>
         <v>44268</v>
       </c>
-      <c r="F28" s="70">
-        <f>MAX(F29:F33)</f>
+      <c r="G28" s="82">
+        <f>MAX(G29:G33)</f>
         <v>44289</v>
       </c>
-      <c r="G28" s="69">
-        <f>SUM(G29:G33)</f>
+      <c r="H28" s="69">
+        <f>SUM(H29:H33)</f>
         <v>21</v>
       </c>
-      <c r="H28" s="72">
-        <f>SUM(H29:H33)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="72">
-        <f>SUM(I29:I33)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="72">
+      <c r="I28" s="70">
+        <f>SUM(I29:I33)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="70">
+        <f>SUM(J29:J33)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="70">
         <v>0.2</v>
       </c>
-      <c r="K28" s="53"/>
-      <c r="L28" s="48">
-        <f>IF(AND($F28-L$7&gt;=0,L$7-$E28&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L28" s="53"/>
       <c r="M28" s="48">
-        <f t="shared" si="22"/>
+        <f>IF(AND($G28-M$7&gt;=0,M$7-$F28&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N28" s="48">
@@ -7976,8 +8037,8 @@
         <v>0</v>
       </c>
       <c r="AB28" s="48">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AC28" s="48">
         <f t="shared" si="18"/>
@@ -8032,11 +8093,11 @@
         <v>1</v>
       </c>
       <c r="AP28" s="48">
-        <f t="shared" ref="AP28:BN28" si="23">IF(AND($F28-AP$7&gt;=0,AP$7-$E28&gt;=0),1,0)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AQ28" s="48">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AQ28:BO28" si="23">IF(AND($G28-AQ$7&gt;=0,AQ$7-$F28&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AR28" s="48">
@@ -8065,7 +8126,7 @@
       </c>
       <c r="AX28" s="48">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="48">
         <f t="shared" si="23"/>
@@ -8131,43 +8192,44 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BO28" s="53"/>
+      <c r="BO28" s="48">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="53"/>
     </row>
-    <row r="29" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="str">
-        <f>A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
+    <row r="29" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="71" t="str">
+        <f>B$28 &amp; "-" &amp; ROW() - ROW(B$28)</f>
         <v>S4-1</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="C29" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="65" t="str">
-        <f>A21</f>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85" t="str">
+        <f>B21</f>
         <v>S2-6</v>
       </c>
-      <c r="E29" s="75">
-        <f>F21</f>
+      <c r="F29" s="86">
+        <f>G21</f>
         <v>44268</v>
       </c>
-      <c r="F29" s="75">
+      <c r="G29" s="86">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="G29" s="76">
+      <c r="H29" s="73">
         <v>3</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="77" t="str">
-        <f>IF(F29&lt;=$B$5,G29,"")</f>
+      <c r="I29" s="60"/>
+      <c r="J29" s="74" t="str">
+        <f>IF(G29&lt;=$C$5,H29,"")</f>
         <v/>
       </c>
-      <c r="J29" s="67"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K29" s="67"/>
+      <c r="L29" s="53"/>
       <c r="M29" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -8229,8 +8291,8 @@
         <v>0</v>
       </c>
       <c r="AB29" s="48">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="AC29" s="48">
         <f t="shared" si="18"/>
@@ -8246,7 +8308,7 @@
       </c>
       <c r="AF29" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="48">
         <f t="shared" si="18"/>
@@ -8293,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS29" s="48">
@@ -8357,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="BH29" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI29" s="48">
@@ -8384,40 +8446,41 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO29" s="53"/>
+      <c r="BO29" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="53"/>
     </row>
-    <row r="30" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="str">
-        <f t="shared" ref="A30:A33" si="24">A$28 &amp; "-" &amp; ROW() - ROW(A$28)</f>
+    <row r="30" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="71" t="str">
+        <f t="shared" ref="B30:B33" si="24">B$28 &amp; "-" &amp; ROW() - ROW(B$28)</f>
         <v>S4-2</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="C30" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="75">
-        <f>F29</f>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86">
+        <f>G29</f>
         <v>44271</v>
       </c>
-      <c r="F30" s="75">
+      <c r="G30" s="86">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="G30" s="76">
+      <c r="H30" s="73">
         <v>3</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="77" t="str">
-        <f>IF(F30&lt;=$B$5,G30,"")</f>
+      <c r="I30" s="60"/>
+      <c r="J30" s="74" t="str">
+        <f>IF(G30&lt;=$C$5,H30,"")</f>
         <v/>
       </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K30" s="67"/>
+      <c r="L30" s="53"/>
       <c r="M30" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -8479,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC30" s="48">
@@ -8492,7 +8555,7 @@
       </c>
       <c r="AE30" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="48">
         <f t="shared" si="18"/>
@@ -8508,7 +8571,7 @@
       </c>
       <c r="AI30" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="48">
         <f t="shared" si="18"/>
@@ -8543,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS30" s="48">
@@ -8607,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI30" s="48">
@@ -8634,41 +8697,42 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO30" s="53"/>
+      <c r="BO30" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="53"/>
     </row>
-    <row r="31" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="str">
+    <row r="31" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="71" t="str">
         <f t="shared" si="24"/>
         <v>S4-3</v>
       </c>
-      <c r="B31" s="60" t="str">
-        <f>"Develop " &amp; B28</f>
+      <c r="C31" s="60" t="str">
+        <f>"Develop " &amp; C28</f>
         <v xml:space="preserve">Develop Final Report </v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="75">
-        <f t="shared" ref="E31:E33" si="25">F30</f>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86">
+        <f t="shared" ref="F31:F33" si="25">G30</f>
         <v>44274</v>
       </c>
-      <c r="F31" s="75">
+      <c r="G31" s="86">
         <f t="shared" si="9"/>
         <v>44282</v>
       </c>
-      <c r="G31" s="76">
+      <c r="H31" s="73">
         <v>8</v>
       </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="77" t="str">
-        <f>IF(F31&lt;=$B$5,G31,"")</f>
+      <c r="I31" s="60"/>
+      <c r="J31" s="74" t="str">
+        <f>IF(G31&lt;=$C$5,H31,"")</f>
         <v/>
       </c>
-      <c r="J31" s="67"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K31" s="67"/>
+      <c r="L31" s="53"/>
       <c r="M31" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -8730,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC31" s="48">
@@ -8755,7 +8819,7 @@
       </c>
       <c r="AH31" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="48">
         <f t="shared" si="18"/>
@@ -8791,10 +8855,10 @@
       </c>
       <c r="AQ31" s="48">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS31" s="48">
@@ -8858,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI31" s="48">
@@ -8885,41 +8949,42 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO31" s="53"/>
+      <c r="BO31" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP31" s="53"/>
     </row>
-    <row r="32" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="str">
+    <row r="32" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53"/>
+      <c r="B32" s="71" t="str">
         <f t="shared" si="24"/>
         <v>S4-4</v>
       </c>
-      <c r="B32" s="78" t="str">
-        <f>"Finalized " &amp;B28</f>
+      <c r="C32" s="75" t="str">
+        <f>"Finalized " &amp;C28</f>
         <v xml:space="preserve">Finalized Final Report </v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="75">
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86">
         <f t="shared" si="25"/>
         <v>44282</v>
       </c>
-      <c r="F32" s="75">
+      <c r="G32" s="86">
         <f t="shared" si="9"/>
         <v>44287</v>
       </c>
-      <c r="G32" s="76">
+      <c r="H32" s="73">
         <v>5</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="77" t="str">
-        <f>IF(F32&lt;=$B$5,G32,"")</f>
+      <c r="I32" s="60"/>
+      <c r="J32" s="74" t="str">
+        <f>IF(G32&lt;=$C$5,H32,"")</f>
         <v/>
       </c>
-      <c r="J32" s="67"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K32" s="67"/>
+      <c r="L32" s="53"/>
       <c r="M32" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -8981,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC32" s="48">
@@ -9038,14 +9103,14 @@
       </c>
       <c r="AP32" s="48">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="48">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AR32" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AS32" s="48">
@@ -9062,7 +9127,7 @@
       </c>
       <c r="AV32" s="48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32" s="48">
         <f t="shared" si="19"/>
@@ -9109,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI32" s="48">
@@ -9136,43 +9201,44 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO32" s="53"/>
+      <c r="BO32" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP32" s="53"/>
     </row>
-    <row r="33" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="str">
+    <row r="33" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="71" t="str">
         <f t="shared" si="24"/>
         <v>S4-5</v>
       </c>
-      <c r="B33" s="78" t="str">
-        <f>"Submit " &amp; B28</f>
+      <c r="C33" s="75" t="str">
+        <f>"Submit " &amp; C28</f>
         <v xml:space="preserve">Submit Final Report </v>
       </c>
-      <c r="C33" s="66">
+      <c r="D33" s="84">
         <v>44294</v>
       </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="75">
+      <c r="E33" s="85"/>
+      <c r="F33" s="86">
         <f t="shared" si="25"/>
         <v>44287</v>
       </c>
-      <c r="F33" s="75">
+      <c r="G33" s="86">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="G33" s="76">
+      <c r="H33" s="73">
         <v>2</v>
       </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="77" t="str">
-        <f>IF(F33&lt;=$B$5,G33,"")</f>
+      <c r="I33" s="60"/>
+      <c r="J33" s="74" t="str">
+        <f>IF(G33&lt;=$C$5,H33,"")</f>
         <v/>
       </c>
-      <c r="J33" s="67"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K33" s="67"/>
+      <c r="L33" s="53"/>
       <c r="M33" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -9234,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC33" s="48">
@@ -9298,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS33" s="48">
@@ -9311,7 +9377,7 @@
       </c>
       <c r="AU33" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="48">
         <f t="shared" si="19"/>
@@ -9323,7 +9389,7 @@
       </c>
       <c r="AX33" s="48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY33" s="48">
         <f t="shared" si="19"/>
@@ -9362,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="BH33" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI33" s="48">
@@ -9389,54 +9455,55 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO33" s="53"/>
+      <c r="BO33" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP33" s="53"/>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="69" t="s">
+      <c r="C34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="70">
-        <f>MAX(C35:C39)</f>
+      <c r="D34" s="82">
+        <f>MAX(D35:D39)</f>
         <v>44301</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="70">
-        <f>MIN(E35:E39)</f>
+      <c r="E34" s="83"/>
+      <c r="F34" s="82">
+        <f>MIN(F35:F39)</f>
         <v>44289</v>
       </c>
-      <c r="F34" s="70">
-        <f>MAX(F35:F39)</f>
+      <c r="G34" s="82">
+        <f>MAX(G35:G39)</f>
         <v>44301</v>
       </c>
-      <c r="G34" s="69">
-        <f>SUM(G35:G39)</f>
+      <c r="H34" s="69">
+        <f>SUM(H35:H39)</f>
         <v>12</v>
       </c>
-      <c r="H34" s="72">
-        <f>SUM(H35:H39)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="72">
-        <f>SUM(I35:I39)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="72">
+      <c r="I34" s="70">
+        <f>SUM(I35:I39)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="70">
+        <f>SUM(J35:J39)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="70">
         <v>0.2</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="48">
-        <f>IF(AND($F34-L$7&gt;=0,L$7-$E34&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L34" s="53"/>
       <c r="M34" s="48">
-        <f t="shared" ref="M34:BN34" si="26">IF(AND($F34-M$7&gt;=0,M$7-$E34&gt;=0),1,0)</f>
+        <f>IF(AND($G34-M$7&gt;=0,M$7-$F34&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N34" s="48">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="N34:BO34" si="26">IF(AND($G34-N$7&gt;=0,N$7-$F34&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="O34" s="48">
@@ -9577,7 +9644,7 @@
       </c>
       <c r="AW34" s="48">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="48">
         <f t="shared" si="26"/>
@@ -9629,7 +9696,7 @@
       </c>
       <c r="BJ34" s="48">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" s="48">
         <f t="shared" si="26"/>
@@ -9647,43 +9714,44 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="BO34" s="53"/>
+      <c r="BO34" s="48">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BP34" s="53"/>
     </row>
-    <row r="35" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="str">
-        <f>A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
+    <row r="35" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="71" t="str">
+        <f>B$34 &amp; "-" &amp; ROW() - ROW(B$34)</f>
         <v>S5-1</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="C35" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="65" t="str">
-        <f>A32</f>
+      <c r="D35" s="84"/>
+      <c r="E35" s="85" t="str">
+        <f>B32</f>
         <v>S4-4</v>
       </c>
-      <c r="E35" s="75">
-        <f>F33</f>
+      <c r="F35" s="86">
+        <f>G33</f>
         <v>44289</v>
       </c>
-      <c r="F35" s="75">
+      <c r="G35" s="86">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="G35" s="76">
-        <v>0</v>
-      </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="77" t="str">
-        <f>IF(F35&lt;=$B$5,G35,"")</f>
+      <c r="H35" s="73">
+        <v>0</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="74" t="str">
+        <f>IF(G35&lt;=$C$5,H35,"")</f>
         <v/>
       </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K35" s="67"/>
+      <c r="L35" s="53"/>
       <c r="M35" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -9745,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC35" s="48">
@@ -9809,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS35" s="48">
@@ -9830,11 +9898,11 @@
       </c>
       <c r="AW35" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="48">
         <f t="shared" si="19"/>
@@ -9873,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI35" s="48">
@@ -9900,41 +9968,42 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO35" s="53"/>
+      <c r="BO35" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP35" s="53"/>
     </row>
-    <row r="36" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="str">
-        <f t="shared" ref="A36:A39" si="27">A$34 &amp; "-" &amp; ROW() - ROW(A$34)</f>
+    <row r="36" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="71" t="str">
+        <f t="shared" ref="B36:B39" si="27">B$34 &amp; "-" &amp; ROW() - ROW(B$34)</f>
         <v>S5-2</v>
       </c>
-      <c r="B36" s="60" t="str">
-        <f>"Draft " &amp; B34</f>
+      <c r="C36" s="60" t="str">
+        <f>"Draft " &amp; C34</f>
         <v>Draft Final “Boardroom” Presentation</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="75">
-        <f>F35</f>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86">
+        <f>G35</f>
         <v>44289</v>
       </c>
-      <c r="F36" s="75">
+      <c r="G36" s="86">
         <f t="shared" si="9"/>
         <v>44292</v>
       </c>
-      <c r="G36" s="76">
+      <c r="H36" s="73">
         <v>3</v>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="77" t="str">
-        <f>IF(F36&lt;=$B$5,G36,"")</f>
+      <c r="I36" s="60"/>
+      <c r="J36" s="74" t="str">
+        <f>IF(G36&lt;=$C$5,H36,"")</f>
         <v/>
       </c>
-      <c r="J36" s="67"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K36" s="67"/>
+      <c r="L36" s="53"/>
       <c r="M36" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -9996,7 +10065,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC36" s="48">
@@ -10060,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS36" s="48">
@@ -10081,7 +10150,7 @@
       </c>
       <c r="AW36" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="48">
         <f t="shared" si="19"/>
@@ -10097,7 +10166,7 @@
       </c>
       <c r="BA36" s="48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="48">
         <f t="shared" si="19"/>
@@ -10124,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI36" s="48">
@@ -10151,41 +10220,42 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO36" s="53"/>
+      <c r="BO36" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP36" s="53"/>
     </row>
-    <row r="37" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="str">
+    <row r="37" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="71" t="str">
         <f t="shared" si="27"/>
         <v>S5-3</v>
       </c>
-      <c r="B37" s="60" t="str">
-        <f>"Develop " &amp; B34</f>
+      <c r="C37" s="60" t="str">
+        <f>"Develop " &amp; C34</f>
         <v>Develop Final “Boardroom” Presentation</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="75">
-        <f t="shared" ref="E37:E39" si="28">F36</f>
+      <c r="D37" s="84"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86">
+        <f t="shared" ref="F37:F39" si="28">G36</f>
         <v>44292</v>
       </c>
-      <c r="F37" s="75">
+      <c r="G37" s="86">
         <f t="shared" si="9"/>
         <v>44294</v>
       </c>
-      <c r="G37" s="76">
+      <c r="H37" s="73">
         <v>2</v>
       </c>
-      <c r="H37" s="60"/>
-      <c r="I37" s="77" t="str">
-        <f>IF(F37&lt;=$B$5,G37,"")</f>
+      <c r="I37" s="60"/>
+      <c r="J37" s="74" t="str">
+        <f>IF(G37&lt;=$C$5,H37,"")</f>
         <v/>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K37" s="67"/>
+      <c r="L37" s="53"/>
       <c r="M37" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -10247,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC37" s="48">
@@ -10311,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS37" s="48">
@@ -10344,7 +10414,7 @@
       </c>
       <c r="AZ37" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="48">
         <f t="shared" si="19"/>
@@ -10356,7 +10426,7 @@
       </c>
       <c r="BC37" s="48">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD37" s="48">
         <f t="shared" si="19"/>
@@ -10375,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="BH37" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BI37" s="48">
@@ -10402,41 +10472,42 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO37" s="53"/>
+      <c r="BO37" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP37" s="53"/>
     </row>
-    <row r="38" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="str">
+    <row r="38" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="71" t="str">
         <f t="shared" si="27"/>
         <v>S5-4</v>
       </c>
-      <c r="B38" s="78" t="str">
-        <f>"Finalized " &amp;B34</f>
+      <c r="C38" s="75" t="str">
+        <f>"Finalized " &amp;C34</f>
         <v>Finalized Final “Boardroom” Presentation</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="75">
+      <c r="D38" s="84"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86">
         <f t="shared" si="28"/>
         <v>44294</v>
       </c>
-      <c r="F38" s="75">
+      <c r="G38" s="86">
         <f t="shared" si="9"/>
         <v>44299</v>
       </c>
-      <c r="G38" s="76">
+      <c r="H38" s="73">
         <v>5</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="77" t="str">
-        <f>IF(F38&lt;=$B$5,G38,"")</f>
+      <c r="I38" s="60"/>
+      <c r="J38" s="74" t="str">
+        <f>IF(G38&lt;=$C$5,H38,"")</f>
         <v/>
       </c>
-      <c r="J38" s="67"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K38" s="67"/>
+      <c r="L38" s="53"/>
       <c r="M38" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -10498,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC38" s="48">
@@ -10562,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS38" s="48">
@@ -10603,7 +10674,7 @@
       </c>
       <c r="BB38" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="48">
         <f t="shared" si="19"/>
@@ -10626,8 +10697,8 @@
         <v>1</v>
       </c>
       <c r="BH38" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="BI38" s="48">
         <f t="shared" si="20"/>
@@ -10653,43 +10724,44 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO38" s="53"/>
+      <c r="BO38" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP38" s="53"/>
     </row>
-    <row r="39" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="str">
+    <row r="39" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="71" t="str">
         <f t="shared" si="27"/>
         <v>S5-5</v>
       </c>
-      <c r="B39" s="78" t="str">
-        <f>"Submit " &amp; B34</f>
+      <c r="C39" s="75" t="str">
+        <f>"Submit " &amp; C34</f>
         <v>Submit Final “Boardroom” Presentation</v>
       </c>
-      <c r="C39" s="66">
+      <c r="D39" s="84">
         <v>44301</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="75">
+      <c r="E39" s="85"/>
+      <c r="F39" s="86">
         <f t="shared" si="28"/>
         <v>44299</v>
       </c>
-      <c r="F39" s="75">
+      <c r="G39" s="86">
         <f t="shared" si="9"/>
         <v>44301</v>
       </c>
-      <c r="G39" s="76">
+      <c r="H39" s="73">
         <v>2</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="77" t="str">
-        <f>IF(F39&lt;=$B$5,G39,"")</f>
+      <c r="I39" s="60"/>
+      <c r="J39" s="74" t="str">
+        <f>IF(G39&lt;=$C$5,H39,"")</f>
         <v/>
       </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
+      <c r="K39" s="67"/>
+      <c r="L39" s="53"/>
       <c r="M39" s="48">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -10751,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC39" s="48">
@@ -10815,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AS39" s="48">
@@ -10876,10 +10948,10 @@
       </c>
       <c r="BG39" s="48">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BI39" s="48">
@@ -10888,7 +10960,7 @@
       </c>
       <c r="BJ39" s="48">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK39" s="48">
         <f t="shared" si="20"/>
@@ -10906,48 +10978,49 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BO39" s="53"/>
+      <c r="BO39" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP39" s="53"/>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69" t="s">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="70">
-        <f>MAX(C41:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="70">
-        <f>MIN(E41:E45)</f>
+      <c r="D40" s="82">
+        <f>MAX(D41:D45)</f>
+        <v>44301</v>
+      </c>
+      <c r="E40" s="83"/>
+      <c r="F40" s="82">
+        <f>MIN(F41:F45)</f>
         <v>44256</v>
       </c>
-      <c r="F40" s="70">
-        <f>MAX(F41:F45)</f>
+      <c r="G40" s="82">
+        <f>MAX(G41:G45)</f>
         <v>44298</v>
       </c>
-      <c r="G40" s="69">
-        <f>SUM(G41:G45)</f>
+      <c r="H40" s="69">
+        <f>SUM(H41:H45)</f>
         <v>42</v>
       </c>
-      <c r="H40" s="72">
-        <f>SUM(H41:H45)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="72">
-        <f>SUM(I41:I45)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="72">
+      <c r="I40" s="70">
+        <f>SUM(I41:I45)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="70">
+        <f>SUM(J41:J45)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="70">
         <v>0.2</v>
       </c>
-      <c r="K40" s="53"/>
-      <c r="L40" s="48">
-        <f>IF(AND($F40-L$7&gt;=0,L$7-$E40&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="L40" s="53"/>
       <c r="M40" s="48">
-        <f t="shared" si="22"/>
+        <f>IF(AND($G40-M$7&gt;=0,M$7-$F40&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N40" s="48">
@@ -10960,7 +11033,7 @@
       </c>
       <c r="P40" s="48">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="48">
         <f t="shared" si="22"/>
@@ -11007,11 +11080,11 @@
         <v>1</v>
       </c>
       <c r="AB40" s="48">
-        <f t="shared" ref="AB40:BN45" si="29">IF(AND($F40-AB$7&gt;=0,AB$7-$E40&gt;=0),1,0)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AC40" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="AC40:BO45" si="29">IF(AND($G40-AC$7&gt;=0,AC$7-$F40&gt;=0),1,0)</f>
         <v>1</v>
       </c>
       <c r="AD40" s="48">
@@ -11132,7 +11205,7 @@
       </c>
       <c r="BG40" s="48">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40" s="48">
         <f t="shared" si="29"/>
@@ -11162,42 +11235,43 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO40" s="53"/>
+      <c r="BO40" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP40" s="53"/>
     </row>
-    <row r="41" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="80" t="s">
+    <row r="41" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="73" t="str">
-        <f>A17</f>
+      <c r="D41" s="84"/>
+      <c r="E41" s="87" t="str">
+        <f>B17</f>
         <v>S2-2</v>
       </c>
-      <c r="E41" s="66">
-        <f>F11</f>
+      <c r="F41" s="84">
+        <f>G11</f>
         <v>44256</v>
       </c>
-      <c r="F41" s="75">
-        <f t="shared" ref="F41:F45" si="30">E41+G41</f>
+      <c r="G41" s="86">
+        <f t="shared" ref="G41:G45" si="30">F41+H41</f>
         <v>44256</v>
       </c>
-      <c r="G41" s="76">
-        <v>0</v>
-      </c>
-      <c r="H41" s="60"/>
-      <c r="I41" s="77" t="str">
-        <f>IF(F41&lt;=$B$5,G41,"")</f>
+      <c r="H41" s="73">
+        <v>0</v>
+      </c>
+      <c r="I41" s="60"/>
+      <c r="J41" s="74" t="str">
+        <f>IF(G41&lt;=$C$5,H41,"")</f>
         <v/>
       </c>
-      <c r="J41" s="67"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="48">
-        <f t="shared" ref="L41:AA45" si="31">IF(AND($F41-L$7&gt;=0,L$7-$E41&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K41" s="67"/>
+      <c r="L41" s="53"/>
       <c r="M41" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="M41:AB45" si="31">IF(AND($G41-M$7&gt;=0,M$7-$F41&gt;=0),1,0)</f>
         <v>0</v>
       </c>
       <c r="N41" s="48">
@@ -11210,11 +11284,11 @@
       </c>
       <c r="P41" s="48">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="48">
         <f t="shared" si="31"/>
@@ -11257,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC41" s="48">
@@ -11412,40 +11486,41 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO41" s="53"/>
+      <c r="BO41" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP41" s="53"/>
     </row>
-    <row r="42" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="80" t="s">
+    <row r="42" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="65" t="str">
-        <f>A20</f>
+      <c r="D42" s="84"/>
+      <c r="E42" s="85" t="str">
+        <f>B20</f>
         <v>S2-5</v>
       </c>
-      <c r="E42" s="75">
-        <f>F41</f>
+      <c r="F42" s="86">
+        <f>G41</f>
         <v>44256</v>
       </c>
-      <c r="F42" s="75">
+      <c r="G42" s="86">
         <f t="shared" si="30"/>
         <v>44263</v>
       </c>
-      <c r="G42" s="76">
+      <c r="H42" s="73">
         <v>7</v>
       </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="77" t="str">
-        <f>IF(F42&lt;=$B$5,G42,"")</f>
+      <c r="I42" s="60"/>
+      <c r="J42" s="74" t="str">
+        <f>IF(G42&lt;=$C$5,H42,"")</f>
         <v/>
       </c>
-      <c r="J42" s="67"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="K42" s="67"/>
+      <c r="L42" s="53"/>
       <c r="M42" s="48">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11460,7 +11535,7 @@
       </c>
       <c r="P42" s="48">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="48">
         <f t="shared" si="31"/>
@@ -11492,7 +11567,7 @@
       </c>
       <c r="X42" s="48">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="48">
         <f t="shared" si="31"/>
@@ -11507,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC42" s="48">
@@ -11662,37 +11737,38 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO42" s="53"/>
+      <c r="BO42" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP42" s="53"/>
     </row>
-    <row r="43" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="74" t="s">
+    <row r="43" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="75">
-        <f t="shared" ref="E43:E45" si="32">F42</f>
+      <c r="D43" s="84"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86">
+        <f t="shared" ref="F43:F45" si="32">G42</f>
         <v>44263</v>
       </c>
-      <c r="F43" s="75">
+      <c r="G43" s="86">
         <f t="shared" si="30"/>
         <v>44277</v>
       </c>
-      <c r="G43" s="76">
+      <c r="H43" s="73">
         <v>14</v>
       </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="77" t="str">
-        <f>IF(F43&lt;=$B$5,G43,"")</f>
+      <c r="I43" s="60"/>
+      <c r="J43" s="74" t="str">
+        <f>IF(G43&lt;=$C$5,H43,"")</f>
         <v/>
       </c>
-      <c r="J43" s="67"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="K43" s="67"/>
+      <c r="L43" s="53"/>
       <c r="M43" s="48">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -11735,7 +11811,7 @@
       </c>
       <c r="W43" s="48">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="48">
         <f t="shared" si="31"/>
@@ -11754,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="AB43" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC43" s="48">
@@ -11795,7 +11871,7 @@
       </c>
       <c r="AL43" s="48">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43" s="48">
         <f t="shared" si="29"/>
@@ -11909,37 +11985,38 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO43" s="53"/>
+      <c r="BO43" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP43" s="53"/>
     </row>
-    <row r="44" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="74" t="s">
+    <row r="44" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="75">
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86">
         <f t="shared" si="32"/>
         <v>44277</v>
       </c>
-      <c r="F44" s="75">
+      <c r="G44" s="86">
         <f t="shared" si="30"/>
         <v>44291</v>
       </c>
-      <c r="G44" s="76">
+      <c r="H44" s="73">
         <v>14</v>
       </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="77" t="str">
-        <f>IF(F44&lt;=$B$5,G44,"")</f>
+      <c r="I44" s="60"/>
+      <c r="J44" s="74" t="str">
+        <f>IF(G44&lt;=$C$5,H44,"")</f>
         <v/>
       </c>
-      <c r="J44" s="67"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="K44" s="67"/>
+      <c r="L44" s="53"/>
       <c r="M44" s="48">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -12001,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC44" s="48">
@@ -12038,7 +12115,7 @@
       </c>
       <c r="AK44" s="48">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="48">
         <f t="shared" si="29"/>
@@ -12098,7 +12175,7 @@
       </c>
       <c r="AZ44" s="48">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="48">
         <f t="shared" si="29"/>
@@ -12156,39 +12233,40 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO44" s="53"/>
+      <c r="BO44" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP44" s="53"/>
     </row>
-    <row r="45" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="74" t="s">
+    <row r="45" spans="1:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="75">
+      <c r="D45" s="84">
+        <v>44301</v>
+      </c>
+      <c r="E45" s="85"/>
+      <c r="F45" s="86">
         <f t="shared" si="32"/>
         <v>44291</v>
       </c>
-      <c r="F45" s="75">
+      <c r="G45" s="86">
         <f t="shared" si="30"/>
         <v>44298</v>
       </c>
-      <c r="G45" s="76">
+      <c r="H45" s="73">
         <v>7</v>
       </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="77" t="str">
-        <f>IF(F45&lt;=$B$5,G45,"")</f>
+      <c r="I45" s="60"/>
+      <c r="J45" s="74" t="str">
+        <f>IF(G45&lt;=$C$5,H45,"")</f>
         <v/>
       </c>
-      <c r="J45" s="67"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
+      <c r="K45" s="67"/>
+      <c r="L45" s="53"/>
       <c r="M45" s="48">
         <f t="shared" si="31"/>
         <v>0</v>
@@ -12250,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC45" s="48">
@@ -12343,7 +12421,7 @@
       </c>
       <c r="AY45" s="48">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="48">
         <f t="shared" si="29"/>
@@ -12375,7 +12453,7 @@
       </c>
       <c r="BG45" s="48">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH45" s="48">
         <f t="shared" si="29"/>
@@ -12405,21 +12483,25 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="BO45" s="53"/>
+      <c r="BO45" s="48">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BP45" s="53"/>
     </row>
-    <row r="46" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="5"/>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="53"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -12474,2123 +12556,1859 @@
       <c r="BL46" s="5"/>
       <c r="BM46" s="5"/>
       <c r="BN46" s="5"/>
-      <c r="BO46" s="53"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="53"/>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="53"/>
-      <c r="BO47" s="53"/>
+    <row r="47" spans="1:68" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="90"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="48">
-        <f t="shared" ref="AB48:BN49" si="33">IF(AND($F48-AB$7&gt;=0,AB$7-$E48&gt;=0),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="48">
+    <row r="48" spans="1:68" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="90"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+    </row>
+    <row r="49" spans="2:68" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="90"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+    </row>
+    <row r="50" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="92">
+        <f>MAX(D51:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="92" t="e">
+        <f>MIN(F51:F55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="92" t="e">
+        <f>MAX(G51:G55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="15">
+        <f>SUM(H51:H55)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="17">
+        <f>SUM(I51:I55)/$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="17" t="e">
+        <f>SUM(J51:J55)/$H$9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="L50" s="53"/>
+      <c r="M50" s="48" t="e">
+        <f t="shared" ref="M50:V55" si="33">IF(AND($G50-M$7&gt;=0,M$7-$F50&gt;=0),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V50" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W50" s="48" t="e">
+        <f t="shared" ref="W50:AF55" si="34">IF(AND($G50-W$7&gt;=0,W$7-$F50&gt;=0),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF50" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG50" s="48" t="e">
+        <f t="shared" ref="AG50:AP55" si="35">IF(AND($G50-AG$7&gt;=0,AG$7-$F50&gt;=0),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP50" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ50" s="48" t="e">
+        <f t="shared" ref="AQ50:AZ55" si="36">IF(AND($G50-AQ$7&gt;=0,AQ$7-$F50&gt;=0),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ50" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA50" s="48" t="e">
+        <f t="shared" ref="BA50:BO55" si="37">IF(AND($G50-BA$7&gt;=0,BA$7-$F50&gt;=0),1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO50" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP50" s="53"/>
+    </row>
+    <row r="51" spans="2:68" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="96" t="e">
+        <f t="shared" ref="G51:G55" si="38">F51+H51</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" s="43">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19" t="e">
+        <f>IF(G51&lt;=$C$5,H51,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AM48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AN48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AP48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AR48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V51" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF51" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP51" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ51" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO51" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP51" s="53"/>
+    </row>
+    <row r="52" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="96" t="e">
+        <f>G51</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="96" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" s="43">
+        <v>0</v>
+      </c>
+      <c r="J52" s="19" t="e">
+        <f>IF(G52&lt;=$C$5,H52,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AY48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BA48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BB48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BC48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BD48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BE48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V52" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BF48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF52" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP52" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ52" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO52" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP52" s="53"/>
+    </row>
+    <row r="53" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="96" t="e">
+        <f t="shared" ref="F53:F55" si="39">G52</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="96" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" s="43">
+        <v>0</v>
+      </c>
+      <c r="J53" s="19" t="e">
+        <f>IF(G53&lt;=$C$5,H53,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BG48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BH48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BJ48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BK48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BL48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BM48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BN48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U53" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BO48" s="53"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V53" s="48" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF53" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP53" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ53" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO53" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP53" s="53"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="48">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="48">
+    <row r="54" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="96" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" s="96" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" s="43">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19" t="e">
+        <f>IF(G54&lt;=$C$5,H54,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V54" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF54" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP54" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ54" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO54" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP54" s="53"/>
+    </row>
+    <row r="55" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+      <c r="C55" s="18" t="str">
+        <f>"Submit " &amp; C50</f>
+        <v>Submit Template</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="95"/>
+      <c r="F55" s="96" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="96" t="e">
+        <f t="shared" si="38"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="43">
+        <v>0</v>
+      </c>
+      <c r="J55" s="19" t="e">
+        <f>IF(G55&lt;=$C$5,H55,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AM49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AN49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AO49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AP49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AR49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V55" s="48" t="e">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AY49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AZ49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BA49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BB49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BC49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BD49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BE49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BF49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BG49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BH49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BI49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BJ49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BK49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BL49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BM49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BN49" s="48">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BO49" s="53"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF55" s="48" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AN55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AP55" s="48" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AS55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AT55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AV55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AW55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AX55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AZ55" s="48" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BE55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BF55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BH55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BI55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BJ55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BL55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BM55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BN55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BO55" s="48" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BP55" s="53"/>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="5"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="5"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="5"/>
-      <c r="AZ50" s="5"/>
-      <c r="BA50" s="5"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
-      <c r="BD50" s="5"/>
-      <c r="BE50" s="5"/>
-      <c r="BF50" s="5"/>
-      <c r="BG50" s="5"/>
-      <c r="BH50" s="5"/>
-      <c r="BI50" s="5"/>
-      <c r="BJ50" s="5"/>
-      <c r="BK50" s="5"/>
-      <c r="BL50" s="5"/>
-      <c r="BM50" s="5"/>
-      <c r="BN50" s="5"/>
-      <c r="BO50" s="53"/>
+    <row r="56" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="5"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="5"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="5"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+      <c r="BM56" s="5"/>
+      <c r="BN56" s="5"/>
+      <c r="BO56" s="5"/>
+      <c r="BP56" s="53"/>
     </row>
-    <row r="51" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="57"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+    <row r="57" spans="2:68" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="AD57" s="53"/>
+      <c r="AE57" s="53"/>
+      <c r="AF57" s="53"/>
+      <c r="AG57" s="53"/>
+      <c r="AH57" s="53"/>
+      <c r="AI57" s="53"/>
+      <c r="AJ57" s="53"/>
+      <c r="AK57" s="53"/>
+      <c r="AL57" s="53"/>
+      <c r="AM57" s="53"/>
+      <c r="AN57" s="53"/>
+      <c r="AO57" s="53"/>
+      <c r="AP57" s="53"/>
+      <c r="AQ57" s="53"/>
+      <c r="AR57" s="53"/>
+      <c r="AS57" s="53"/>
+      <c r="AT57" s="53"/>
+      <c r="AU57" s="53"/>
+      <c r="AV57" s="53"/>
+      <c r="AW57" s="53"/>
+      <c r="AX57" s="53"/>
+      <c r="AY57" s="53"/>
+      <c r="AZ57" s="53"/>
+      <c r="BA57" s="53"/>
+      <c r="BB57" s="53"/>
+      <c r="BC57" s="53"/>
+      <c r="BD57" s="53"/>
+      <c r="BE57" s="53"/>
+      <c r="BF57" s="53"/>
+      <c r="BG57" s="53"/>
+      <c r="BH57" s="53"/>
+      <c r="BI57" s="53"/>
+      <c r="BJ57" s="53"/>
+      <c r="BK57" s="53"/>
+      <c r="BL57" s="53"/>
+      <c r="BM57" s="53"/>
+      <c r="BN57" s="53"/>
+      <c r="BO57" s="53"/>
+      <c r="BP57" s="53"/>
     </row>
-    <row r="52" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="57"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+    <row r="58" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="53"/>
+      <c r="AE58" s="53"/>
+      <c r="AF58" s="53"/>
+      <c r="AG58" s="53"/>
+      <c r="AH58" s="53"/>
+      <c r="AI58" s="53"/>
+      <c r="AJ58" s="53"/>
+      <c r="AK58" s="53"/>
+      <c r="AL58" s="53"/>
+      <c r="AM58" s="53"/>
+      <c r="AN58" s="53"/>
+      <c r="AO58" s="53"/>
+      <c r="AP58" s="53"/>
+      <c r="AQ58" s="53"/>
+      <c r="AR58" s="53"/>
+      <c r="AS58" s="53"/>
+      <c r="AT58" s="53"/>
+      <c r="AU58" s="53"/>
+      <c r="AV58" s="53"/>
+      <c r="AW58" s="53"/>
+      <c r="AX58" s="53"/>
+      <c r="AY58" s="53"/>
+      <c r="AZ58" s="53"/>
+      <c r="BA58" s="53"/>
+      <c r="BB58" s="53"/>
+      <c r="BC58" s="53"/>
+      <c r="BD58" s="53"/>
+      <c r="BE58" s="53"/>
+      <c r="BF58" s="53"/>
+      <c r="BG58" s="53"/>
+      <c r="BH58" s="53"/>
+      <c r="BI58" s="53"/>
+      <c r="BJ58" s="53"/>
+      <c r="BK58" s="53"/>
+      <c r="BL58" s="53"/>
+      <c r="BM58" s="53"/>
+      <c r="BN58" s="53"/>
+      <c r="BO58" s="53"/>
+      <c r="BP58" s="53"/>
     </row>
-    <row r="53" spans="1:67" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="57"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
+    <row r="59" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="53"/>
+      <c r="AF59" s="53"/>
+      <c r="AG59" s="53"/>
+      <c r="AH59" s="53"/>
+      <c r="AI59" s="53"/>
+      <c r="AJ59" s="53"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="53"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="53"/>
+      <c r="AO59" s="53"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="53"/>
+      <c r="AR59" s="53"/>
+      <c r="AS59" s="53"/>
+      <c r="AT59" s="53"/>
+      <c r="AU59" s="53"/>
+      <c r="AV59" s="53"/>
+      <c r="AW59" s="53"/>
+      <c r="AX59" s="53"/>
+      <c r="AY59" s="53"/>
+      <c r="AZ59" s="53"/>
+      <c r="BA59" s="53"/>
+      <c r="BB59" s="53"/>
+      <c r="BC59" s="53"/>
+      <c r="BD59" s="53"/>
+      <c r="BE59" s="53"/>
+      <c r="BF59" s="53"/>
+      <c r="BG59" s="53"/>
+      <c r="BH59" s="53"/>
+      <c r="BI59" s="53"/>
+      <c r="BJ59" s="53"/>
+      <c r="BK59" s="53"/>
+      <c r="BL59" s="53"/>
+      <c r="BM59" s="53"/>
+      <c r="BN59" s="53"/>
+      <c r="BO59" s="53"/>
+      <c r="BP59" s="53"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="16">
-        <f>MAX(C55:C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="16" t="e">
-        <f>MIN(E55:E59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="16" t="e">
-        <f>MAX(F55:F59)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="15">
-        <f>SUM(G55:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="17">
-        <f>SUM(H55:H59)/$G$9</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="17" t="e">
-        <f>SUM(I55:I59)/$G$9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="K54" s="53"/>
-      <c r="L54" s="48" t="e">
-        <f t="shared" ref="L54:U59" si="34">IF(AND($F54-L$7&gt;=0,L$7-$E54&gt;=0),1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U54" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V54" s="48" t="e">
-        <f t="shared" ref="V54:AE59" si="35">IF(AND($F54-V$7&gt;=0,V$7-$E54&gt;=0),1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE54" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF54" s="48" t="e">
-        <f t="shared" ref="AF54:AO59" si="36">IF(AND($F54-AF$7&gt;=0,AF$7-$E54&gt;=0),1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO54" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP54" s="48" t="e">
-        <f t="shared" ref="AP54:AY59" si="37">IF(AND($F54-AP$7&gt;=0,AP$7-$E54&gt;=0),1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY54" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ54" s="48" t="e">
-        <f t="shared" ref="AZ54:BN59" si="38">IF(AND($F54-AZ$7&gt;=0,AZ$7-$E54&gt;=0),1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN54" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO54" s="53"/>
+    <row r="60" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="53"/>
+      <c r="AE60" s="53"/>
+      <c r="AF60" s="53"/>
+      <c r="AG60" s="53"/>
+      <c r="AH60" s="53"/>
+      <c r="AI60" s="53"/>
+      <c r="AJ60" s="53"/>
+      <c r="AK60" s="53"/>
+      <c r="AL60" s="53"/>
+      <c r="AM60" s="53"/>
+      <c r="AN60" s="53"/>
+      <c r="AO60" s="53"/>
+      <c r="AP60" s="53"/>
+      <c r="AQ60" s="53"/>
+      <c r="AR60" s="53"/>
+      <c r="AS60" s="53"/>
+      <c r="AT60" s="53"/>
+      <c r="AU60" s="53"/>
+      <c r="AV60" s="53"/>
+      <c r="AW60" s="53"/>
+      <c r="AX60" s="53"/>
+      <c r="AY60" s="53"/>
+      <c r="AZ60" s="53"/>
+      <c r="BA60" s="53"/>
+      <c r="BB60" s="53"/>
+      <c r="BC60" s="53"/>
+      <c r="BD60" s="53"/>
+      <c r="BE60" s="53"/>
+      <c r="BF60" s="53"/>
+      <c r="BG60" s="53"/>
+      <c r="BH60" s="53"/>
+      <c r="BI60" s="53"/>
+      <c r="BJ60" s="53"/>
+      <c r="BK60" s="53"/>
+      <c r="BL60" s="53"/>
+      <c r="BM60" s="53"/>
+      <c r="BN60" s="53"/>
+      <c r="BO60" s="53"/>
+      <c r="BP60" s="53"/>
     </row>
-    <row r="55" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="18"/>
-      <c r="E55" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="20" t="e">
-        <f t="shared" ref="F55:F59" si="39">E55+G55</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="43">
-        <v>0</v>
-      </c>
-      <c r="I55" s="19" t="e">
-        <f>IF(F55&lt;=$B$5,G55,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U55" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE55" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO55" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY55" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN55" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO55" s="53"/>
-    </row>
-    <row r="56" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="18"/>
-      <c r="E56" s="20" t="e">
-        <f>F55</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" s="20" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" s="43">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19" t="e">
-        <f>IF(F56&lt;=$B$5,G56,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U56" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE56" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO56" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY56" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN56" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO56" s="53"/>
-    </row>
-    <row r="57" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="18"/>
-      <c r="E57" s="20" t="e">
-        <f t="shared" ref="E57:E59" si="40">F56</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" s="20" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" s="43">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19" t="e">
-        <f>IF(F57&lt;=$B$5,G57,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" s="13"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U57" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE57" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO57" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY57" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN57" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO57" s="53"/>
-    </row>
-    <row r="58" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="18"/>
-      <c r="E58" s="20" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="20" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="43">
-        <v>0</v>
-      </c>
-      <c r="I58" s="19" t="e">
-        <f>IF(F58&lt;=$B$5,G58,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U58" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE58" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO58" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY58" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN58" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO58" s="53"/>
-    </row>
-    <row r="59" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="18" t="str">
-        <f>"Submit " &amp; B54</f>
-        <v>Submit Template</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="20" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="20" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="43">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19" t="e">
-        <f>IF(F59&lt;=$B$5,G59,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J59" s="13"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U59" s="48" t="e">
-        <f t="shared" si="34"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE59" s="48" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AL59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AN59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AO59" s="48" t="e">
-        <f t="shared" si="36"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AP59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AS59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AT59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AV59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AX59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY59" s="48" t="e">
-        <f t="shared" si="37"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BB59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BD59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BE59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BF59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BH59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BI59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BJ59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BL59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BM59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BN59" s="48" t="e">
-        <f t="shared" si="38"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BO59" s="53"/>
-    </row>
-    <row r="60" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="5"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="5"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="5"/>
-      <c r="AP60" s="5"/>
-      <c r="AQ60" s="5"/>
-      <c r="AR60" s="5"/>
-      <c r="AS60" s="5"/>
-      <c r="AT60" s="5"/>
-      <c r="AU60" s="5"/>
-      <c r="AV60" s="5"/>
-      <c r="AW60" s="5"/>
-      <c r="AX60" s="5"/>
-      <c r="AY60" s="5"/>
-      <c r="AZ60" s="5"/>
-      <c r="BA60" s="5"/>
-      <c r="BB60" s="5"/>
-      <c r="BC60" s="5"/>
-      <c r="BD60" s="5"/>
-      <c r="BE60" s="5"/>
-      <c r="BF60" s="5"/>
-      <c r="BG60" s="5"/>
-      <c r="BH60" s="5"/>
-      <c r="BI60" s="5"/>
-      <c r="BJ60" s="5"/>
-      <c r="BK60" s="5"/>
-      <c r="BL60" s="5"/>
-      <c r="BM60" s="5"/>
-      <c r="BN60" s="5"/>
-      <c r="BO60" s="53"/>
-    </row>
-    <row r="61" spans="1:67" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+    <row r="61" spans="2:68" x14ac:dyDescent="0.25">
       <c r="B61" s="53"/>
       <c r="C61" s="53"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="58"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="58"/>
-      <c r="G61" s="53"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
       <c r="J61" s="53"/>
@@ -14651,339 +14469,67 @@
       <c r="BM61" s="53"/>
       <c r="BN61" s="53"/>
       <c r="BO61" s="53"/>
-    </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="X62" s="53"/>
-      <c r="Y62" s="53"/>
-      <c r="Z62" s="53"/>
-      <c r="AA62" s="53"/>
-      <c r="AB62" s="53"/>
-      <c r="AC62" s="53"/>
-      <c r="AD62" s="53"/>
-      <c r="AE62" s="53"/>
-      <c r="AF62" s="53"/>
-      <c r="AG62" s="53"/>
-      <c r="AH62" s="53"/>
-      <c r="AI62" s="53"/>
-      <c r="AJ62" s="53"/>
-      <c r="AK62" s="53"/>
-      <c r="AL62" s="53"/>
-      <c r="AM62" s="53"/>
-      <c r="AN62" s="53"/>
-      <c r="AO62" s="53"/>
-      <c r="AP62" s="53"/>
-      <c r="AQ62" s="53"/>
-      <c r="AR62" s="53"/>
-      <c r="AS62" s="53"/>
-      <c r="AT62" s="53"/>
-      <c r="AU62" s="53"/>
-      <c r="AV62" s="53"/>
-      <c r="AW62" s="53"/>
-      <c r="AX62" s="53"/>
-      <c r="AY62" s="53"/>
-      <c r="AZ62" s="53"/>
-      <c r="BA62" s="53"/>
-      <c r="BB62" s="53"/>
-      <c r="BC62" s="53"/>
-      <c r="BD62" s="53"/>
-      <c r="BE62" s="53"/>
-      <c r="BF62" s="53"/>
-      <c r="BG62" s="53"/>
-      <c r="BH62" s="53"/>
-      <c r="BI62" s="53"/>
-      <c r="BJ62" s="53"/>
-      <c r="BK62" s="53"/>
-      <c r="BL62" s="53"/>
-      <c r="BM62" s="53"/>
-      <c r="BN62" s="53"/>
-      <c r="BO62" s="53"/>
-    </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="53"/>
-      <c r="AQ63" s="53"/>
-      <c r="AR63" s="53"/>
-      <c r="AS63" s="53"/>
-      <c r="AT63" s="53"/>
-      <c r="AU63" s="53"/>
-      <c r="AV63" s="53"/>
-      <c r="AW63" s="53"/>
-      <c r="AX63" s="53"/>
-      <c r="AY63" s="53"/>
-      <c r="AZ63" s="53"/>
-      <c r="BA63" s="53"/>
-      <c r="BB63" s="53"/>
-      <c r="BC63" s="53"/>
-      <c r="BD63" s="53"/>
-      <c r="BE63" s="53"/>
-      <c r="BF63" s="53"/>
-      <c r="BG63" s="53"/>
-      <c r="BH63" s="53"/>
-      <c r="BI63" s="53"/>
-      <c r="BJ63" s="53"/>
-      <c r="BK63" s="53"/>
-      <c r="BL63" s="53"/>
-      <c r="BM63" s="53"/>
-      <c r="BN63" s="53"/>
-      <c r="BO63" s="53"/>
-    </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="53"/>
-      <c r="Y64" s="53"/>
-      <c r="Z64" s="53"/>
-      <c r="AA64" s="53"/>
-      <c r="AB64" s="53"/>
-      <c r="AC64" s="53"/>
-      <c r="AD64" s="53"/>
-      <c r="AE64" s="53"/>
-      <c r="AF64" s="53"/>
-      <c r="AG64" s="53"/>
-      <c r="AH64" s="53"/>
-      <c r="AI64" s="53"/>
-      <c r="AJ64" s="53"/>
-      <c r="AK64" s="53"/>
-      <c r="AL64" s="53"/>
-      <c r="AM64" s="53"/>
-      <c r="AN64" s="53"/>
-      <c r="AO64" s="53"/>
-      <c r="AP64" s="53"/>
-      <c r="AQ64" s="53"/>
-      <c r="AR64" s="53"/>
-      <c r="AS64" s="53"/>
-      <c r="AT64" s="53"/>
-      <c r="AU64" s="53"/>
-      <c r="AV64" s="53"/>
-      <c r="AW64" s="53"/>
-      <c r="AX64" s="53"/>
-      <c r="AY64" s="53"/>
-      <c r="AZ64" s="53"/>
-      <c r="BA64" s="53"/>
-      <c r="BB64" s="53"/>
-      <c r="BC64" s="53"/>
-      <c r="BD64" s="53"/>
-      <c r="BE64" s="53"/>
-      <c r="BF64" s="53"/>
-      <c r="BG64" s="53"/>
-      <c r="BH64" s="53"/>
-      <c r="BI64" s="53"/>
-      <c r="BJ64" s="53"/>
-      <c r="BK64" s="53"/>
-      <c r="BL64" s="53"/>
-      <c r="BM64" s="53"/>
-      <c r="BN64" s="53"/>
-      <c r="BO64" s="53"/>
-    </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="53"/>
-      <c r="Y65" s="53"/>
-      <c r="Z65" s="53"/>
-      <c r="AA65" s="53"/>
-      <c r="AB65" s="53"/>
-      <c r="AC65" s="53"/>
-      <c r="AD65" s="53"/>
-      <c r="AE65" s="53"/>
-      <c r="AF65" s="53"/>
-      <c r="AG65" s="53"/>
-      <c r="AH65" s="53"/>
-      <c r="AI65" s="53"/>
-      <c r="AJ65" s="53"/>
-      <c r="AK65" s="53"/>
-      <c r="AL65" s="53"/>
-      <c r="AM65" s="53"/>
-      <c r="AN65" s="53"/>
-      <c r="AO65" s="53"/>
-      <c r="AP65" s="53"/>
-      <c r="AQ65" s="53"/>
-      <c r="AR65" s="53"/>
-      <c r="AS65" s="53"/>
-      <c r="AT65" s="53"/>
-      <c r="AU65" s="53"/>
-      <c r="AV65" s="53"/>
-      <c r="AW65" s="53"/>
-      <c r="AX65" s="53"/>
-      <c r="AY65" s="53"/>
-      <c r="AZ65" s="53"/>
-      <c r="BA65" s="53"/>
-      <c r="BB65" s="53"/>
-      <c r="BC65" s="53"/>
-      <c r="BD65" s="53"/>
-      <c r="BE65" s="53"/>
-      <c r="BF65" s="53"/>
-      <c r="BG65" s="53"/>
-      <c r="BH65" s="53"/>
-      <c r="BI65" s="53"/>
-      <c r="BJ65" s="53"/>
-      <c r="BK65" s="53"/>
-      <c r="BL65" s="53"/>
-      <c r="BM65" s="53"/>
-      <c r="BN65" s="53"/>
-      <c r="BO65" s="53"/>
+      <c r="BP61" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L1:AK1"/>
+    <mergeCell ref="M1:AL1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L9:BN39 L48:BN49">
+  <conditionalFormatting sqref="M9:BO39">
     <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:BN9">
+  <conditionalFormatting sqref="M9:BO9">
     <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:BN15">
+  <conditionalFormatting sqref="M15:BO15">
     <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:BN22">
+  <conditionalFormatting sqref="M22:BO22">
     <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:BN28">
+  <conditionalFormatting sqref="M28:BO28">
     <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:BN34">
+  <conditionalFormatting sqref="M34:BO34">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54:BN59">
+  <conditionalFormatting sqref="M50:BO55">
     <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54:BN54">
+  <conditionalFormatting sqref="M50:BO50">
     <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:BN45">
+  <conditionalFormatting sqref="M40:BO45">
     <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40:BN40">
+  <conditionalFormatting sqref="M40:BO40">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G15:G40" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15403,7 +14949,7 @@
       </c>
       <c r="B5" s="25">
         <f ca="1">TODAY()</f>
-        <v>44263</v>
+        <v>44264</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -17243,7 +16789,7 @@
       </c>
       <c r="I15" s="17">
         <f ca="1">SUM(I16:I21)/$G$9</f>
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J15" s="17">
         <v>0.2</v>
@@ -18474,9 +18020,9 @@
       <c r="G20" s="43">
         <v>1</v>
       </c>
-      <c r="I20" s="19" t="str">
+      <c r="I20" s="19">
         <f ca="1">IF(F20&lt;=$B$5,G20,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J20" s="13"/>
       <c r="L20" s="48">

--- a/Planning/DAT 205 Project Schedule.xlsx
+++ b/Planning/DAT 205 Project Schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CCDB3-8055-49E5-8D05-6A5584676E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9526450-44E4-4457-A5E8-7E554B5D0224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -304,11 +304,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -391,19 +392,19 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +438,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCDCD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +639,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -770,19 +789,10 @@
     <xf numFmtId="14" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,15 +804,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -810,9 +811,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,18 +825,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -849,12 +835,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -878,11 +858,56 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -890,7 +915,265 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF7D7D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF7D7D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF990000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -953,43 +1236,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1100,8 +1346,119 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCDCD"/>
+      <color rgb="FFFF7D7D"/>
+      <color rgb="FFFF1D1D"/>
+      <color rgb="FF990000"/>
+      <color rgb="FFDE0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2345,8 +2702,8 @@
   <dimension ref="A1:BR61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ3" sqref="AZ1:BB3"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
@@ -2359,11 +2716,11 @@
     <col min="6" max="6" width="11.7109375" style="11" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="7" max="7" width="11.7109375" style="11" customWidth="1" outlineLevel="1"/>
     <col min="8" max="9" width="11.7109375" style="11" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="10" max="10" width="8.7109375" style="10" customWidth="1" outlineLevel="2" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="10" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="14" style="10" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="12.7109375" style="10" customWidth="1" outlineLevel="2"/>
-    <col min="14" max="14" width="3.5703125" style="10" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="8.7109375" style="10" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="14" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="12.7109375" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="3.5703125" style="10" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="15" max="69" width="2.28515625" style="10" customWidth="1"/>
     <col min="70" max="16384" width="8.85546875" style="10"/>
   </cols>
@@ -2385,34 +2742,34 @@
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
       <c r="N1" s="53"/>
-      <c r="O1" s="95" t="s">
+      <c r="O1" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
       <c r="AO1" s="53"/>
       <c r="AP1" s="53"/>
       <c r="AQ1" s="53"/>
@@ -2518,13 +2875,13 @@
     </row>
     <row r="3" spans="1:70" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="57"/>
@@ -2596,10 +2953,10 @@
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="53"/>
@@ -2672,10 +3029,10 @@
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="96">
+      <c r="C5" s="82">
         <v>44270</v>
       </c>
       <c r="D5" s="53"/>
@@ -2820,259 +3177,259 @@
     </row>
     <row r="7" spans="1:70" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="84" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="53"/>
-      <c r="O7" s="78">
+      <c r="O7" s="97">
         <v>44252</v>
       </c>
-      <c r="P7" s="79">
+      <c r="P7" s="98">
         <f t="shared" ref="P7:BB7" si="0">O7+1</f>
         <v>44253</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="98">
         <f t="shared" si="0"/>
         <v>44254</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="98">
         <f t="shared" si="0"/>
         <v>44255</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="98">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="T7" s="79">
+      <c r="T7" s="98">
         <f t="shared" si="0"/>
         <v>44257</v>
       </c>
-      <c r="U7" s="79">
+      <c r="U7" s="98">
         <f t="shared" si="0"/>
         <v>44258</v>
       </c>
-      <c r="V7" s="78">
+      <c r="V7" s="97">
         <f t="shared" si="0"/>
         <v>44259</v>
       </c>
-      <c r="W7" s="79">
+      <c r="W7" s="98">
         <f t="shared" si="0"/>
         <v>44260</v>
       </c>
-      <c r="X7" s="79">
+      <c r="X7" s="98">
         <f t="shared" si="0"/>
         <v>44261</v>
       </c>
-      <c r="Y7" s="79">
+      <c r="Y7" s="98">
         <f t="shared" si="0"/>
         <v>44262</v>
       </c>
-      <c r="Z7" s="79">
+      <c r="Z7" s="98">
         <f t="shared" si="0"/>
         <v>44263</v>
       </c>
-      <c r="AA7" s="79">
+      <c r="AA7" s="98">
         <f t="shared" si="0"/>
         <v>44264</v>
       </c>
-      <c r="AB7" s="79">
+      <c r="AB7" s="98">
         <f t="shared" si="0"/>
         <v>44265</v>
       </c>
-      <c r="AC7" s="78">
+      <c r="AC7" s="97">
         <f t="shared" si="0"/>
         <v>44266</v>
       </c>
-      <c r="AD7" s="79">
+      <c r="AD7" s="98">
         <f t="shared" si="0"/>
         <v>44267</v>
       </c>
-      <c r="AE7" s="79">
+      <c r="AE7" s="98">
         <f t="shared" si="0"/>
         <v>44268</v>
       </c>
-      <c r="AF7" s="79">
+      <c r="AF7" s="98">
         <f t="shared" si="0"/>
         <v>44269</v>
       </c>
-      <c r="AG7" s="79">
+      <c r="AG7" s="98">
         <f t="shared" si="0"/>
         <v>44270</v>
       </c>
-      <c r="AH7" s="79">
+      <c r="AH7" s="98">
         <f t="shared" si="0"/>
         <v>44271</v>
       </c>
-      <c r="AI7" s="79">
+      <c r="AI7" s="98">
         <f t="shared" si="0"/>
         <v>44272</v>
       </c>
-      <c r="AJ7" s="78">
+      <c r="AJ7" s="97">
         <f t="shared" si="0"/>
         <v>44273</v>
       </c>
-      <c r="AK7" s="79">
+      <c r="AK7" s="98">
         <f t="shared" si="0"/>
         <v>44274</v>
       </c>
-      <c r="AL7" s="79">
+      <c r="AL7" s="98">
         <f t="shared" si="0"/>
         <v>44275</v>
       </c>
-      <c r="AM7" s="79">
+      <c r="AM7" s="98">
         <f t="shared" si="0"/>
         <v>44276</v>
       </c>
-      <c r="AN7" s="79">
+      <c r="AN7" s="98">
         <f t="shared" si="0"/>
         <v>44277</v>
       </c>
-      <c r="AO7" s="79">
+      <c r="AO7" s="98">
         <f t="shared" si="0"/>
         <v>44278</v>
       </c>
-      <c r="AP7" s="79">
+      <c r="AP7" s="98">
         <f t="shared" si="0"/>
         <v>44279</v>
       </c>
-      <c r="AQ7" s="78">
+      <c r="AQ7" s="97">
         <f t="shared" si="0"/>
         <v>44280</v>
       </c>
-      <c r="AR7" s="79">
+      <c r="AR7" s="98">
         <f t="shared" si="0"/>
         <v>44281</v>
       </c>
-      <c r="AS7" s="79">
+      <c r="AS7" s="98">
         <f t="shared" si="0"/>
         <v>44282</v>
       </c>
-      <c r="AT7" s="79">
+      <c r="AT7" s="98">
         <f t="shared" si="0"/>
         <v>44283</v>
       </c>
-      <c r="AU7" s="79">
+      <c r="AU7" s="98">
         <f t="shared" si="0"/>
         <v>44284</v>
       </c>
-      <c r="AV7" s="79">
+      <c r="AV7" s="98">
         <f t="shared" si="0"/>
         <v>44285</v>
       </c>
-      <c r="AW7" s="79">
+      <c r="AW7" s="98">
         <f t="shared" si="0"/>
         <v>44286</v>
       </c>
-      <c r="AX7" s="78">
+      <c r="AX7" s="97">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="AY7" s="79">
+      <c r="AY7" s="98">
         <f t="shared" si="0"/>
         <v>44288</v>
       </c>
-      <c r="AZ7" s="79">
+      <c r="AZ7" s="98">
         <f t="shared" si="0"/>
         <v>44289</v>
       </c>
-      <c r="BA7" s="79">
+      <c r="BA7" s="98">
         <f t="shared" si="0"/>
         <v>44290</v>
       </c>
-      <c r="BB7" s="79">
+      <c r="BB7" s="98">
         <f t="shared" si="0"/>
         <v>44291</v>
       </c>
-      <c r="BC7" s="79">
+      <c r="BC7" s="98">
         <f t="shared" ref="BC7:BQ7" si="1">BB7+1</f>
         <v>44292</v>
       </c>
-      <c r="BD7" s="79">
+      <c r="BD7" s="98">
         <f t="shared" si="1"/>
         <v>44293</v>
       </c>
-      <c r="BE7" s="78">
+      <c r="BE7" s="97">
         <f t="shared" si="1"/>
         <v>44294</v>
       </c>
-      <c r="BF7" s="79">
+      <c r="BF7" s="98">
         <f t="shared" si="1"/>
         <v>44295</v>
       </c>
-      <c r="BG7" s="79">
+      <c r="BG7" s="98">
         <f t="shared" si="1"/>
         <v>44296</v>
       </c>
-      <c r="BH7" s="79">
+      <c r="BH7" s="98">
         <f t="shared" si="1"/>
         <v>44297</v>
       </c>
-      <c r="BI7" s="79">
+      <c r="BI7" s="98">
         <f t="shared" si="1"/>
         <v>44298</v>
       </c>
-      <c r="BJ7" s="79">
+      <c r="BJ7" s="98">
         <f t="shared" si="1"/>
         <v>44299</v>
       </c>
-      <c r="BK7" s="79">
+      <c r="BK7" s="98">
         <f t="shared" si="1"/>
         <v>44300</v>
       </c>
-      <c r="BL7" s="78">
+      <c r="BL7" s="97">
         <f t="shared" si="1"/>
         <v>44301</v>
       </c>
-      <c r="BM7" s="79">
+      <c r="BM7" s="98">
         <f t="shared" si="1"/>
         <v>44302</v>
       </c>
-      <c r="BN7" s="79">
+      <c r="BN7" s="98">
         <f t="shared" si="1"/>
         <v>44303</v>
       </c>
-      <c r="BO7" s="79">
+      <c r="BO7" s="98">
         <f t="shared" si="1"/>
         <v>44304</v>
       </c>
-      <c r="BP7" s="79">
+      <c r="BP7" s="98">
         <f t="shared" si="1"/>
         <v>44305</v>
       </c>
-      <c r="BQ7" s="79">
+      <c r="BQ7" s="98">
         <f t="shared" si="1"/>
         <v>44306</v>
       </c>
@@ -3080,18 +3437,18 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="66"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="53"/>
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
@@ -3152,46 +3509,46 @@
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="92">
         <f>MAX(D10:D14)</f>
         <v>44259</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="80">
+      <c r="E9" s="93"/>
+      <c r="F9" s="92">
         <f>MIN(F10:F14)</f>
         <v>44252</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="92">
         <f>MAX(G10:G14)</f>
         <v>44259</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="92">
         <f>MIN(H10:H14)</f>
         <v>44252</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="92">
         <f>MAX(I10:I14)</f>
         <v>44259</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="91">
         <f>SUM(J10:J14)</f>
         <v>7</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="94">
         <f>SUM(K10:K14)/$J$9</f>
         <v>1</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="94">
         <f ca="1">SUM(L10:L14)/$J9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="94">
         <v>0.2</v>
       </c>
       <c r="N9" s="53"/>
@@ -3419,40 +3776,40 @@
     </row>
     <row r="10" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
-      <c r="B10" s="70" t="str">
+      <c r="B10" s="64" t="str">
         <f>B$9 &amp; "-" &amp; ROW() - ROW(B$9)</f>
         <v>S1-1</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="82">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="71">
         <v>44252</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="95">
         <f>F10+J10</f>
         <v>44255</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="71">
         <v>44252</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="73">
         <f>H10+K10</f>
         <v>44255</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="66">
         <v>3</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="59">
         <v>3</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="96">
         <f ca="1">IF(G10&lt;=TODAY(),K10,"")</f>
         <v>3</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="53"/>
       <c r="O10" s="48">
         <f t="shared" ref="O10:AD25" si="3">IF(AND($G10-O$7&gt;=0,O$7-$F10&gt;=0),1,0)</f>
@@ -3678,44 +4035,44 @@
     </row>
     <row r="11" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
-      <c r="B11" s="70" t="str">
+      <c r="B11" s="64" t="str">
         <f t="shared" ref="B11:B14" si="8">B$9 &amp; "-" &amp; ROW() - ROW(B$9)</f>
         <v>S1-2</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="71">
         <v>44256</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84">
+      <c r="E11" s="72"/>
+      <c r="F11" s="95">
         <f>G10</f>
         <v>44255</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="95">
         <f t="shared" ref="G11:G39" si="9">F11+J11</f>
         <v>44256</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="73">
         <f>I10</f>
         <v>44255</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="73">
         <f t="shared" ref="I11:I45" si="10">H11+K11</f>
         <v>44256</v>
       </c>
-      <c r="J11" s="72">
-        <v>1</v>
-      </c>
-      <c r="K11" s="60">
-        <v>1</v>
-      </c>
-      <c r="L11" s="73">
+      <c r="J11" s="66">
+        <v>1</v>
+      </c>
+      <c r="K11" s="59">
+        <v>1</v>
+      </c>
+      <c r="L11" s="96">
         <f t="shared" ref="L11:L14" ca="1" si="11">IF(G11&lt;=TODAY(),K11,"")</f>
         <v>1</v>
       </c>
-      <c r="M11" s="66"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="53"/>
       <c r="O11" s="48">
         <f t="shared" si="3"/>
@@ -3941,43 +4298,43 @@
     </row>
     <row r="12" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
-      <c r="B12" s="70" t="str">
+      <c r="B12" s="64" t="str">
         <f t="shared" si="8"/>
         <v>S1-3</v>
       </c>
-      <c r="C12" s="60" t="str">
+      <c r="C12" s="59" t="str">
         <f>"Develop " &amp; C9</f>
         <v>Develop Team Case Proposals</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84">
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="95">
         <f t="shared" ref="F12:F14" si="12">G11</f>
         <v>44256</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="95">
         <f t="shared" si="9"/>
         <v>44257</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="73">
         <f t="shared" ref="H12:H14" si="13">I11</f>
         <v>44256</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="73">
         <f t="shared" si="10"/>
         <v>44257</v>
       </c>
-      <c r="J12" s="72">
-        <v>1</v>
-      </c>
-      <c r="K12" s="60">
-        <v>1</v>
-      </c>
-      <c r="L12" s="73">
+      <c r="J12" s="66">
+        <v>1</v>
+      </c>
+      <c r="K12" s="59">
+        <v>1</v>
+      </c>
+      <c r="L12" s="96">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="M12" s="66"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="53"/>
       <c r="O12" s="48">
         <f t="shared" si="3"/>
@@ -4203,43 +4560,43 @@
     </row>
     <row r="13" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
-      <c r="B13" s="70" t="str">
+      <c r="B13" s="64" t="str">
         <f t="shared" si="8"/>
         <v>S1-4</v>
       </c>
-      <c r="C13" s="74" t="str">
+      <c r="C13" s="67" t="str">
         <f>"Finalized " &amp;C9</f>
         <v>Finalized Team Case Proposals</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84">
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="95">
         <f t="shared" si="12"/>
         <v>44257</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="95">
         <f t="shared" si="9"/>
         <v>44258</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="73">
         <f t="shared" si="13"/>
         <v>44257</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="73">
         <f t="shared" si="10"/>
         <v>44258</v>
       </c>
-      <c r="J13" s="72">
-        <v>1</v>
-      </c>
-      <c r="K13" s="60">
-        <v>1</v>
-      </c>
-      <c r="L13" s="73">
+      <c r="J13" s="66">
+        <v>1</v>
+      </c>
+      <c r="K13" s="59">
+        <v>1</v>
+      </c>
+      <c r="L13" s="96">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="M13" s="66"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="53"/>
       <c r="O13" s="48">
         <f t="shared" si="3"/>
@@ -4465,45 +4822,45 @@
     </row>
     <row r="14" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
-      <c r="B14" s="70" t="str">
+      <c r="B14" s="64" t="str">
         <f t="shared" si="8"/>
         <v>S1-5</v>
       </c>
-      <c r="C14" s="74" t="str">
+      <c r="C14" s="67" t="str">
         <f>"Submit " &amp; C9</f>
         <v>Submit Team Case Proposals</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="71">
         <v>44259</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84">
+      <c r="E14" s="72"/>
+      <c r="F14" s="95">
         <f t="shared" si="12"/>
         <v>44258</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="95">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="73">
         <f t="shared" si="13"/>
         <v>44258</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="73">
         <f t="shared" si="10"/>
         <v>44259</v>
       </c>
-      <c r="J14" s="72">
-        <v>1</v>
-      </c>
-      <c r="K14" s="60">
-        <v>1</v>
-      </c>
-      <c r="L14" s="73">
+      <c r="J14" s="66">
+        <v>1</v>
+      </c>
+      <c r="K14" s="59">
+        <v>1</v>
+      </c>
+      <c r="L14" s="96">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="53"/>
       <c r="O14" s="48">
         <f t="shared" si="3"/>
@@ -4729,46 +5086,46 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="92">
         <f>MAX(D16:D21)</f>
         <v>44273</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80">
+      <c r="E15" s="93"/>
+      <c r="F15" s="92">
         <f>MIN(F16:F21)</f>
         <v>44259</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="92">
         <f>MAX(G16:G21)</f>
         <v>44268</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="92">
         <f>MIN(H16:H21)</f>
         <v>44259</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="92">
         <f>MAX(I16:I21)</f>
         <v>44270</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="91">
         <f>SUM(J16:J21)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="94">
         <f>SUM(K16:K21)/$J$9</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="94">
         <f ca="1">SUM(L16:L21)/$J15</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="94">
         <v>0.2</v>
       </c>
       <c r="N15" s="53"/>
@@ -4996,46 +5353,46 @@
     </row>
     <row r="16" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
-      <c r="B16" s="70" t="str">
+      <c r="B16" s="64" t="str">
         <f>B$15 &amp; "-" &amp; ROW() - ROW(B$15)</f>
         <v>S2-1</v>
       </c>
-      <c r="C16" s="60" t="str">
+      <c r="C16" s="59" t="str">
         <f>"Review " &amp;C9</f>
         <v>Review Team Case Proposals</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83" t="str">
+      <c r="D16" s="71"/>
+      <c r="E16" s="72" t="str">
         <f>B14</f>
         <v>S1-5</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="95">
         <f>G14</f>
         <v>44259</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="95">
         <f t="shared" si="9"/>
         <v>44259</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="73">
         <f>I14</f>
         <v>44259</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="73">
         <f t="shared" si="10"/>
         <v>44266</v>
       </c>
-      <c r="J16" s="72">
-        <v>0</v>
-      </c>
-      <c r="K16" s="60">
+      <c r="J16" s="66">
+        <v>0</v>
+      </c>
+      <c r="K16" s="59">
         <v>7</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="96">
         <f ca="1">IF(G16&lt;=TODAY(),K16,"")</f>
         <v>7</v>
       </c>
-      <c r="M16" s="66"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="53"/>
       <c r="O16" s="48">
         <f t="shared" si="3"/>
@@ -5261,42 +5618,42 @@
     </row>
     <row r="17" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
-      <c r="B17" s="70" t="str">
+      <c r="B17" s="64" t="str">
         <f t="shared" ref="B17:B21" si="15">B$15 &amp; "-" &amp; ROW() - ROW(B$15)</f>
         <v>S2-2</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84">
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="95">
         <f>G16</f>
         <v>44259</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="95">
         <f t="shared" si="9"/>
         <v>44263</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="73">
         <f>I16</f>
         <v>44266</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="73">
         <f t="shared" si="10"/>
         <v>44268</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="66">
         <v>4</v>
       </c>
-      <c r="K17" s="60">
+      <c r="K17" s="59">
         <v>2</v>
       </c>
-      <c r="L17" s="73">
+      <c r="L17" s="96">
         <f t="shared" ref="L17:L21" ca="1" si="16">IF(G17&lt;=TODAY(),K17,"")</f>
         <v>2</v>
       </c>
-      <c r="M17" s="66"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="53"/>
       <c r="O17" s="48">
         <f t="shared" si="3"/>
@@ -5522,42 +5879,42 @@
     </row>
     <row r="18" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
-      <c r="B18" s="70" t="str">
+      <c r="B18" s="64" t="str">
         <f t="shared" si="15"/>
         <v>S2-3</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="95">
         <f t="shared" ref="F18:F19" si="17">G17</f>
         <v>44263</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="95">
         <f t="shared" si="9"/>
         <v>44264</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="73">
         <f t="shared" ref="H18:H21" si="18">I17</f>
         <v>44268</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="73">
         <f t="shared" si="10"/>
         <v>44268</v>
       </c>
-      <c r="J18" s="72">
-        <v>1</v>
-      </c>
-      <c r="K18" s="60">
-        <v>0</v>
-      </c>
-      <c r="L18" s="73">
+      <c r="J18" s="66">
+        <v>1</v>
+      </c>
+      <c r="K18" s="59">
+        <v>0</v>
+      </c>
+      <c r="L18" s="96">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="M18" s="66"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="53"/>
       <c r="O18" s="48">
         <f t="shared" si="3"/>
@@ -5783,43 +6140,43 @@
     </row>
     <row r="19" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="70" t="str">
+      <c r="B19" s="64" t="str">
         <f t="shared" si="15"/>
         <v>S2-4</v>
       </c>
-      <c r="C19" s="60" t="str">
+      <c r="C19" s="59" t="str">
         <f>"Develop " &amp; C15</f>
         <v xml:space="preserve">Develop Final Plan </v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84">
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="95">
         <f t="shared" si="17"/>
         <v>44264</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="95">
         <f t="shared" si="9"/>
         <v>44265</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="73">
         <f t="shared" si="18"/>
         <v>44268</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="73">
         <f t="shared" si="10"/>
         <v>44269</v>
       </c>
-      <c r="J19" s="72">
-        <v>1</v>
-      </c>
-      <c r="K19" s="60">
-        <v>1</v>
-      </c>
-      <c r="L19" s="73">
+      <c r="J19" s="66">
+        <v>1</v>
+      </c>
+      <c r="K19" s="59">
+        <v>1</v>
+      </c>
+      <c r="L19" s="96">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
-      <c r="M19" s="66"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="53"/>
       <c r="O19" s="48">
         <f t="shared" si="3"/>
@@ -6045,43 +6402,43 @@
     </row>
     <row r="20" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
-      <c r="B20" s="70" t="str">
+      <c r="B20" s="64" t="str">
         <f t="shared" si="15"/>
         <v>S2-5</v>
       </c>
-      <c r="C20" s="74" t="str">
+      <c r="C20" s="67" t="str">
         <f>"Finalized " &amp;C15</f>
         <v xml:space="preserve">Finalized Final Plan </v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84">
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="95">
         <f t="shared" ref="F20:F21" si="19">G19</f>
         <v>44265</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="95">
         <f t="shared" si="9"/>
         <v>44266</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="73">
         <f t="shared" si="18"/>
         <v>44269</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J20" s="72">
-        <v>1</v>
-      </c>
-      <c r="K20" s="60">
-        <v>1</v>
-      </c>
-      <c r="L20" s="73">
+      <c r="J20" s="66">
+        <v>1</v>
+      </c>
+      <c r="K20" s="59">
+        <v>1</v>
+      </c>
+      <c r="L20" s="96">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
-      <c r="M20" s="66"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="53"/>
       <c r="O20" s="48">
         <f t="shared" si="3"/>
@@ -6307,43 +6664,43 @@
     </row>
     <row r="21" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="70" t="str">
+      <c r="B21" s="64" t="str">
         <f t="shared" si="15"/>
         <v>S2-6</v>
       </c>
-      <c r="C21" s="74" t="str">
+      <c r="C21" s="67" t="str">
         <f>"Submit " &amp; C15</f>
         <v xml:space="preserve">Submit Final Plan </v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="71">
         <v>44273</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84">
+      <c r="E21" s="72"/>
+      <c r="F21" s="95">
         <f t="shared" si="19"/>
         <v>44266</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="95">
         <f t="shared" si="9"/>
         <v>44268</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="73">
         <f t="shared" si="18"/>
         <v>44270</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="66">
         <v>2</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="73">
+      <c r="K21" s="59"/>
+      <c r="L21" s="96">
         <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="53"/>
       <c r="O21" s="48">
         <f t="shared" si="3"/>
@@ -6569,46 +6926,46 @@
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="92">
         <f>MAX(D23:D27)</f>
         <v>44280</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="80">
+      <c r="E22" s="93"/>
+      <c r="F22" s="92">
         <f>MIN(F23:F27)</f>
         <v>44268</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="92">
         <f>MAX(G23:G27)</f>
         <v>44280</v>
       </c>
-      <c r="H22" s="80">
+      <c r="H22" s="92">
         <f>MIN(H23:H27)</f>
         <v>44270</v>
       </c>
-      <c r="I22" s="80">
+      <c r="I22" s="92">
         <f>MAX(I23:I27)</f>
         <v>44270</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="91">
         <f>SUM(J23:J27)</f>
         <v>12</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="94">
         <f>SUM(K23:K27)/$J$9</f>
         <v>0</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="94">
         <f ca="1">SUM(L23:L28)/$J22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="94">
         <v>0.2</v>
       </c>
       <c r="N22" s="53"/>
@@ -6836,43 +7193,43 @@
     </row>
     <row r="23" spans="1:70" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="70" t="str">
+      <c r="B23" s="64" t="str">
         <f>B$22 &amp; "-" &amp; ROW() - ROW(B$22)</f>
         <v>S3-1</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83" t="str">
+      <c r="D23" s="71"/>
+      <c r="E23" s="72" t="str">
         <f>B21</f>
         <v>S2-6</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="95">
         <f>G21</f>
         <v>44268</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="95">
         <f t="shared" si="9"/>
         <v>44269</v>
       </c>
-      <c r="H23" s="84">
+      <c r="H23" s="73">
         <f>I21</f>
         <v>44270</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J23" s="72">
-        <v>1</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="73">
+      <c r="J23" s="66">
+        <v>1</v>
+      </c>
+      <c r="K23" s="59"/>
+      <c r="L23" s="96">
         <f t="shared" ref="L23:L27" ca="1" si="21">IF(G23&lt;=TODAY(),K23,"")</f>
         <v>0</v>
       </c>
-      <c r="M23" s="66"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="53"/>
       <c r="O23" s="48">
         <f t="shared" si="3"/>
@@ -7098,40 +7455,40 @@
     </row>
     <row r="24" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="70" t="str">
+      <c r="B24" s="64" t="str">
         <f t="shared" ref="B24:B27" si="22">B$22 &amp; "-" &amp; ROW() - ROW(B$22)</f>
         <v>S3-2</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84">
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="95">
         <f>G23</f>
         <v>44269</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="95">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="73">
         <f>I23</f>
         <v>44270</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="66">
         <v>2</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="73" t="str">
+      <c r="K24" s="59"/>
+      <c r="L24" s="96">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="M24" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="63"/>
       <c r="N24" s="53"/>
       <c r="O24" s="48">
         <f t="shared" si="3"/>
@@ -7357,41 +7714,41 @@
     </row>
     <row r="25" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
-      <c r="B25" s="70" t="str">
+      <c r="B25" s="64" t="str">
         <f t="shared" si="22"/>
         <v>S3-3</v>
       </c>
-      <c r="C25" s="60" t="str">
+      <c r="C25" s="59" t="str">
         <f>"Develop " &amp; C22</f>
         <v>Develop Interim Presentation</v>
       </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84">
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="95">
         <f t="shared" ref="F25:F27" si="26">G24</f>
         <v>44271</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="95">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="73">
         <f t="shared" ref="H25:H27" si="27">I24</f>
         <v>44270</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="66">
         <v>3</v>
       </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="73" t="str">
+      <c r="K25" s="59"/>
+      <c r="L25" s="96">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="M25" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="63"/>
       <c r="N25" s="53"/>
       <c r="O25" s="48">
         <f t="shared" si="3"/>
@@ -7617,41 +7974,41 @@
     </row>
     <row r="26" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
-      <c r="B26" s="70" t="str">
+      <c r="B26" s="64" t="str">
         <f t="shared" si="22"/>
         <v>S3-4</v>
       </c>
-      <c r="C26" s="74" t="str">
+      <c r="C26" s="67" t="str">
         <f>"Finalized " &amp;C22</f>
         <v>Finalized Interim Presentation</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84">
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="95">
         <f t="shared" si="26"/>
         <v>44274</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="95">
         <f t="shared" si="9"/>
         <v>44279</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="73">
         <f t="shared" si="27"/>
         <v>44270</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="66">
         <v>5</v>
       </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="73" t="str">
+      <c r="K26" s="59"/>
+      <c r="L26" s="96">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="M26" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="63"/>
       <c r="N26" s="53"/>
       <c r="O26" s="48">
         <f t="shared" ref="O26:AD40" si="28">IF(AND($G26-O$7&gt;=0,O$7-$F26&gt;=0),1,0)</f>
@@ -7877,43 +8234,43 @@
     </row>
     <row r="27" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
-      <c r="B27" s="70" t="str">
+      <c r="B27" s="64" t="str">
         <f t="shared" si="22"/>
         <v>S3-5</v>
       </c>
-      <c r="C27" s="74" t="str">
+      <c r="C27" s="67" t="str">
         <f>"Submit " &amp; C22</f>
         <v>Submit Interim Presentation</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="71">
         <v>44280</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84">
+      <c r="E27" s="72"/>
+      <c r="F27" s="95">
         <f t="shared" si="26"/>
         <v>44279</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="95">
         <f t="shared" si="9"/>
         <v>44280</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="73">
         <f t="shared" si="27"/>
         <v>44270</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J27" s="72">
-        <v>1</v>
-      </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="73" t="str">
+      <c r="J27" s="66">
+        <v>1</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="96">
         <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="M27" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="63"/>
       <c r="N27" s="53"/>
       <c r="O27" s="48">
         <f t="shared" si="28"/>
@@ -8139,46 +8496,46 @@
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="92">
         <f>MAX(D29:D33)</f>
         <v>44294</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80">
+      <c r="E28" s="93"/>
+      <c r="F28" s="92">
         <f>MIN(F29:F33)</f>
         <v>44268</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="92">
         <f>MAX(G29:G33)</f>
         <v>44289</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="92">
         <f>MIN(H29:H33)</f>
         <v>44270</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="92">
         <f>MAX(I29:I33)</f>
         <v>44270</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="91">
         <f>SUM(J29:J33)</f>
         <v>21</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="94">
         <f>SUM(K29:K33)/$J$9</f>
         <v>0</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="94">
         <f ca="1">SUM(L29:L34)/$J28</f>
         <v>0</v>
       </c>
-      <c r="M28" s="69">
+      <c r="M28" s="94">
         <v>0.2</v>
       </c>
       <c r="N28" s="53"/>
@@ -8406,43 +8763,43 @@
     </row>
     <row r="29" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
-      <c r="B29" s="70" t="str">
+      <c r="B29" s="64" t="str">
         <f>B$28 &amp; "-" &amp; ROW() - ROW(B$28)</f>
         <v>S4-1</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83" t="str">
+      <c r="D29" s="71"/>
+      <c r="E29" s="72" t="str">
         <f>B21</f>
         <v>S2-6</v>
       </c>
-      <c r="F29" s="84">
+      <c r="F29" s="95">
         <f>G21</f>
         <v>44268</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="95">
         <f t="shared" si="9"/>
         <v>44271</v>
       </c>
-      <c r="H29" s="84">
+      <c r="H29" s="73">
         <f>I21</f>
         <v>44270</v>
       </c>
-      <c r="I29" s="84">
+      <c r="I29" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="66">
         <v>3</v>
       </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="73" t="str">
+      <c r="K29" s="59"/>
+      <c r="L29" s="96">
         <f t="shared" ref="L29:L33" ca="1" si="30">IF(G29&lt;=TODAY(),K29,"")</f>
-        <v/>
-      </c>
-      <c r="M29" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="63"/>
       <c r="N29" s="53"/>
       <c r="O29" s="48">
         <f t="shared" si="28"/>
@@ -8668,40 +9025,40 @@
     </row>
     <row r="30" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
-      <c r="B30" s="70" t="str">
+      <c r="B30" s="64" t="str">
         <f t="shared" ref="B30:B33" si="31">B$28 &amp; "-" &amp; ROW() - ROW(B$28)</f>
         <v>S4-2</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84">
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="95">
         <f>G29</f>
         <v>44271</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="95">
         <f t="shared" si="9"/>
         <v>44274</v>
       </c>
-      <c r="H30" s="84">
+      <c r="H30" s="73">
         <f>I29</f>
         <v>44270</v>
       </c>
-      <c r="I30" s="84">
+      <c r="I30" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="66">
         <v>3</v>
       </c>
-      <c r="K30" s="60"/>
-      <c r="L30" s="73" t="str">
+      <c r="K30" s="59"/>
+      <c r="L30" s="96">
         <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M30" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="63"/>
       <c r="N30" s="53"/>
       <c r="O30" s="48">
         <f t="shared" si="28"/>
@@ -8927,41 +9284,41 @@
     </row>
     <row r="31" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
-      <c r="B31" s="70" t="str">
+      <c r="B31" s="64" t="str">
         <f t="shared" si="31"/>
         <v>S4-3</v>
       </c>
-      <c r="C31" s="60" t="str">
+      <c r="C31" s="59" t="str">
         <f>"Develop " &amp; C28</f>
         <v xml:space="preserve">Develop Final Report </v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84">
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="95">
         <f t="shared" ref="F31:F33" si="32">G30</f>
         <v>44274</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="95">
         <f t="shared" si="9"/>
         <v>44282</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="73">
         <f t="shared" ref="H31:H33" si="33">I30</f>
         <v>44270</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="66">
         <v>8</v>
       </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="73" t="str">
+      <c r="K31" s="59"/>
+      <c r="L31" s="96">
         <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M31" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="63"/>
       <c r="N31" s="53"/>
       <c r="O31" s="48">
         <f t="shared" si="28"/>
@@ -9187,41 +9544,41 @@
     </row>
     <row r="32" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
-      <c r="B32" s="70" t="str">
+      <c r="B32" s="64" t="str">
         <f t="shared" si="31"/>
         <v>S4-4</v>
       </c>
-      <c r="C32" s="74" t="str">
+      <c r="C32" s="67" t="str">
         <f>"Finalized " &amp;C28</f>
         <v xml:space="preserve">Finalized Final Report </v>
       </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84">
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="95">
         <f t="shared" si="32"/>
         <v>44282</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="95">
         <f t="shared" si="9"/>
         <v>44287</v>
       </c>
-      <c r="H32" s="84">
+      <c r="H32" s="73">
         <f t="shared" si="33"/>
         <v>44270</v>
       </c>
-      <c r="I32" s="84">
+      <c r="I32" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="66">
         <v>5</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="73" t="str">
+      <c r="K32" s="59"/>
+      <c r="L32" s="96">
         <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M32" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="63"/>
       <c r="N32" s="53"/>
       <c r="O32" s="48">
         <f t="shared" si="28"/>
@@ -9447,43 +9804,43 @@
     </row>
     <row r="33" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
-      <c r="B33" s="70" t="str">
+      <c r="B33" s="64" t="str">
         <f t="shared" si="31"/>
         <v>S4-5</v>
       </c>
-      <c r="C33" s="74" t="str">
+      <c r="C33" s="67" t="str">
         <f>"Submit " &amp; C28</f>
         <v xml:space="preserve">Submit Final Report </v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="71">
         <v>44294</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84">
+      <c r="E33" s="72"/>
+      <c r="F33" s="95">
         <f t="shared" si="32"/>
         <v>44287</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="95">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="H33" s="84">
+      <c r="H33" s="73">
         <f t="shared" si="33"/>
         <v>44270</v>
       </c>
-      <c r="I33" s="84">
+      <c r="I33" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="66">
         <v>2</v>
       </c>
-      <c r="K33" s="60"/>
-      <c r="L33" s="73" t="str">
+      <c r="K33" s="59"/>
+      <c r="L33" s="96">
         <f t="shared" ca="1" si="30"/>
-        <v/>
-      </c>
-      <c r="M33" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="63"/>
       <c r="N33" s="53"/>
       <c r="O33" s="48">
         <f t="shared" si="28"/>
@@ -9709,46 +10066,46 @@
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="92">
         <f>MAX(D35:D39)</f>
         <v>44301</v>
       </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80">
+      <c r="E34" s="93"/>
+      <c r="F34" s="92">
         <f>MIN(F35:F39)</f>
         <v>44289</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="92">
         <f>MAX(G35:G39)</f>
         <v>44301</v>
       </c>
-      <c r="H34" s="80">
+      <c r="H34" s="92">
         <f>MIN(H35:H39)</f>
         <v>44270</v>
       </c>
-      <c r="I34" s="80">
+      <c r="I34" s="92">
         <f>MAX(I35:I39)</f>
         <v>44270</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="91">
         <f>SUM(J35:J39)</f>
         <v>12</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="94">
         <f>SUM(K35:K39)/$J$9</f>
         <v>0</v>
       </c>
-      <c r="L34" s="69">
+      <c r="L34" s="94">
         <f ca="1">SUM(L35:L40)/$J34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="69">
+      <c r="M34" s="94">
         <v>0.2</v>
       </c>
       <c r="N34" s="53"/>
@@ -9976,43 +10333,43 @@
     </row>
     <row r="35" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
-      <c r="B35" s="70" t="str">
+      <c r="B35" s="64" t="str">
         <f>B$34 &amp; "-" &amp; ROW() - ROW(B$34)</f>
         <v>S5-1</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83" t="str">
+      <c r="D35" s="71"/>
+      <c r="E35" s="72" t="str">
         <f>B32</f>
         <v>S4-4</v>
       </c>
-      <c r="F35" s="84">
+      <c r="F35" s="95">
         <f>G33</f>
         <v>44289</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="95">
         <f t="shared" si="9"/>
         <v>44289</v>
       </c>
-      <c r="H35" s="84">
+      <c r="H35" s="73">
         <f>I33</f>
         <v>44270</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J35" s="72">
-        <v>0</v>
-      </c>
-      <c r="K35" s="60"/>
-      <c r="L35" s="73" t="str">
+      <c r="J35" s="66">
+        <v>0</v>
+      </c>
+      <c r="K35" s="59"/>
+      <c r="L35" s="96">
         <f t="shared" ref="L35:L39" ca="1" si="35">IF(G35&lt;=TODAY(),K35,"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="63"/>
       <c r="N35" s="53"/>
       <c r="O35" s="48">
         <f t="shared" si="28"/>
@@ -10238,41 +10595,41 @@
     </row>
     <row r="36" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="70" t="str">
+      <c r="B36" s="64" t="str">
         <f t="shared" ref="B36:B39" si="36">B$34 &amp; "-" &amp; ROW() - ROW(B$34)</f>
         <v>S5-2</v>
       </c>
-      <c r="C36" s="60" t="str">
+      <c r="C36" s="59" t="str">
         <f>"Draft " &amp; C34</f>
         <v>Draft Final “Boardroom” Presentation</v>
       </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="84">
+      <c r="D36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="95">
         <f>G35</f>
         <v>44289</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="95">
         <f t="shared" si="9"/>
         <v>44292</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="73">
         <f>I35</f>
         <v>44270</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="66">
         <v>3</v>
       </c>
-      <c r="K36" s="60"/>
-      <c r="L36" s="73" t="str">
+      <c r="K36" s="59"/>
+      <c r="L36" s="96">
         <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="M36" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="63"/>
       <c r="N36" s="53"/>
       <c r="O36" s="48">
         <f t="shared" si="28"/>
@@ -10498,41 +10855,41 @@
     </row>
     <row r="37" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
-      <c r="B37" s="70" t="str">
+      <c r="B37" s="64" t="str">
         <f t="shared" si="36"/>
         <v>S5-3</v>
       </c>
-      <c r="C37" s="60" t="str">
+      <c r="C37" s="59" t="str">
         <f>"Develop " &amp; C34</f>
         <v>Develop Final “Boardroom” Presentation</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="84">
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="95">
         <f t="shared" ref="F37:F39" si="37">G36</f>
         <v>44292</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="95">
         <f t="shared" si="9"/>
         <v>44294</v>
       </c>
-      <c r="H37" s="84">
+      <c r="H37" s="73">
         <f t="shared" ref="H37:H39" si="38">I36</f>
         <v>44270</v>
       </c>
-      <c r="I37" s="84">
+      <c r="I37" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J37" s="72">
+      <c r="J37" s="66">
         <v>2</v>
       </c>
-      <c r="K37" s="60"/>
-      <c r="L37" s="73" t="str">
+      <c r="K37" s="59"/>
+      <c r="L37" s="96" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="M37" s="66"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="53"/>
       <c r="O37" s="48">
         <f t="shared" si="28"/>
@@ -10758,41 +11115,41 @@
     </row>
     <row r="38" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="70" t="str">
+      <c r="B38" s="64" t="str">
         <f t="shared" si="36"/>
         <v>S5-4</v>
       </c>
-      <c r="C38" s="74" t="str">
+      <c r="C38" s="67" t="str">
         <f>"Finalized " &amp;C34</f>
         <v>Finalized Final “Boardroom” Presentation</v>
       </c>
-      <c r="D38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="84">
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="95">
         <f t="shared" si="37"/>
         <v>44294</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="95">
         <f t="shared" si="9"/>
         <v>44299</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="73">
         <f t="shared" si="38"/>
         <v>44270</v>
       </c>
-      <c r="I38" s="84">
+      <c r="I38" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J38" s="72">
+      <c r="J38" s="66">
         <v>5</v>
       </c>
-      <c r="K38" s="60"/>
-      <c r="L38" s="73" t="str">
+      <c r="K38" s="59"/>
+      <c r="L38" s="96" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="M38" s="66"/>
+      <c r="M38" s="63"/>
       <c r="N38" s="53"/>
       <c r="O38" s="48">
         <f t="shared" si="28"/>
@@ -11018,43 +11375,43 @@
     </row>
     <row r="39" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
-      <c r="B39" s="70" t="str">
+      <c r="B39" s="64" t="str">
         <f t="shared" si="36"/>
         <v>S5-5</v>
       </c>
-      <c r="C39" s="74" t="str">
+      <c r="C39" s="67" t="str">
         <f>"Submit " &amp; C34</f>
         <v>Submit Final “Boardroom” Presentation</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="71">
         <v>44301</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="84">
+      <c r="E39" s="72"/>
+      <c r="F39" s="95">
         <f t="shared" si="37"/>
         <v>44299</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="95">
         <f t="shared" si="9"/>
         <v>44301</v>
       </c>
-      <c r="H39" s="84">
+      <c r="H39" s="73">
         <f t="shared" si="38"/>
         <v>44270</v>
       </c>
-      <c r="I39" s="84">
+      <c r="I39" s="73">
         <f t="shared" si="10"/>
         <v>44270</v>
       </c>
-      <c r="J39" s="72">
+      <c r="J39" s="66">
         <v>2</v>
       </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="73" t="str">
+      <c r="K39" s="59"/>
+      <c r="L39" s="96" t="str">
         <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
-      <c r="M39" s="66"/>
+      <c r="M39" s="63"/>
       <c r="N39" s="53"/>
       <c r="O39" s="48">
         <f t="shared" si="28"/>
@@ -11280,44 +11637,44 @@
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="80">
+      <c r="D40" s="92">
         <f>MAX(D41:D45)</f>
         <v>44301</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="80">
+      <c r="E40" s="93"/>
+      <c r="F40" s="92">
         <f>MIN(F41:F45)</f>
         <v>44256</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="92">
         <f>MAX(G41:G45)</f>
         <v>44298</v>
       </c>
-      <c r="H40" s="80">
+      <c r="H40" s="92">
         <f>MIN(H41:H45)</f>
         <v>44256</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I40" s="92">
         <f>MAX(I41:I45)</f>
         <v>44256</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="91">
         <f>SUM(J41:J45)</f>
         <v>42</v>
       </c>
-      <c r="K40" s="69">
+      <c r="K40" s="94">
         <f>SUM(K41:K45)/$J$9</f>
         <v>0</v>
       </c>
-      <c r="L40" s="69">
+      <c r="L40" s="94">
         <f ca="1">SUM(L41:L46)/$J40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="69">
+      <c r="M40" s="94">
         <v>0.2</v>
       </c>
       <c r="N40" s="53"/>
@@ -11545,40 +11902,40 @@
     </row>
     <row r="41" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="61"/>
+      <c r="C41" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="82"/>
-      <c r="E41" s="85" t="str">
+      <c r="D41" s="71"/>
+      <c r="E41" s="74" t="str">
         <f>B17</f>
         <v>S2-2</v>
       </c>
-      <c r="F41" s="82">
+      <c r="F41" s="71">
         <f>G11</f>
         <v>44256</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="95">
         <f t="shared" ref="G41:G45" si="40">F41+J41</f>
         <v>44256</v>
       </c>
-      <c r="H41" s="82">
+      <c r="H41" s="71">
         <f>I11</f>
         <v>44256</v>
       </c>
-      <c r="I41" s="84">
+      <c r="I41" s="73">
         <f t="shared" si="10"/>
         <v>44256</v>
       </c>
-      <c r="J41" s="72">
-        <v>0</v>
-      </c>
-      <c r="K41" s="60"/>
-      <c r="L41" s="73">
+      <c r="J41" s="66">
+        <v>0</v>
+      </c>
+      <c r="K41" s="59"/>
+      <c r="L41" s="96">
         <f t="shared" ref="L41:L45" ca="1" si="41">IF(G41&lt;=TODAY(),K41,"")</f>
         <v>0</v>
       </c>
-      <c r="M41" s="66"/>
+      <c r="M41" s="63"/>
       <c r="N41" s="53"/>
       <c r="O41" s="48">
         <f t="shared" ref="O41:AD45" si="42">IF(AND($G41-O$7&gt;=0,O$7-$F41&gt;=0),1,0)</f>
@@ -11804,40 +12161,40 @@
     </row>
     <row r="42" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="75" t="s">
+      <c r="B42" s="61"/>
+      <c r="C42" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="82"/>
-      <c r="E42" s="83" t="str">
+      <c r="D42" s="71"/>
+      <c r="E42" s="72" t="str">
         <f>B20</f>
         <v>S2-5</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="95">
         <f>G41</f>
         <v>44256</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="95">
         <f t="shared" si="40"/>
         <v>44263</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="73">
         <f>I41</f>
         <v>44256</v>
       </c>
-      <c r="I42" s="84">
+      <c r="I42" s="73">
         <f t="shared" si="10"/>
         <v>44256</v>
       </c>
-      <c r="J42" s="72">
+      <c r="J42" s="66">
         <v>7</v>
       </c>
-      <c r="K42" s="60"/>
-      <c r="L42" s="73">
+      <c r="K42" s="59"/>
+      <c r="L42" s="96">
         <f t="shared" ca="1" si="41"/>
         <v>0</v>
       </c>
-      <c r="M42" s="66"/>
+      <c r="M42" s="63"/>
       <c r="N42" s="53"/>
       <c r="O42" s="48">
         <f t="shared" si="42"/>
@@ -12063,37 +12420,37 @@
     </row>
     <row r="43" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="71" t="s">
+      <c r="B43" s="61"/>
+      <c r="C43" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84">
+      <c r="D43" s="71"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="95">
         <f t="shared" ref="F43:F45" si="43">G42</f>
         <v>44263</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="95">
         <f t="shared" si="40"/>
         <v>44277</v>
       </c>
-      <c r="H43" s="84">
+      <c r="H43" s="73">
         <f t="shared" ref="H43:H45" si="44">I42</f>
         <v>44256</v>
       </c>
-      <c r="I43" s="84">
+      <c r="I43" s="73">
         <f t="shared" si="10"/>
         <v>44256</v>
       </c>
-      <c r="J43" s="72">
+      <c r="J43" s="66">
         <v>14</v>
       </c>
-      <c r="K43" s="60"/>
-      <c r="L43" s="73" t="str">
+      <c r="K43" s="59"/>
+      <c r="L43" s="96">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M43" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="63"/>
       <c r="N43" s="53"/>
       <c r="O43" s="48">
         <f t="shared" si="42"/>
@@ -12319,37 +12676,37 @@
     </row>
     <row r="44" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="71" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84">
+      <c r="D44" s="71"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="95">
         <f t="shared" si="43"/>
         <v>44277</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="95">
         <f t="shared" si="40"/>
         <v>44291</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="73">
         <f t="shared" si="44"/>
         <v>44256</v>
       </c>
-      <c r="I44" s="84">
+      <c r="I44" s="73">
         <f t="shared" si="10"/>
         <v>44256</v>
       </c>
-      <c r="J44" s="72">
+      <c r="J44" s="66">
         <v>14</v>
       </c>
-      <c r="K44" s="60"/>
-      <c r="L44" s="73" t="str">
+      <c r="K44" s="59"/>
+      <c r="L44" s="96">
         <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="M44" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="63"/>
       <c r="N44" s="53"/>
       <c r="O44" s="48">
         <f t="shared" si="42"/>
@@ -12575,39 +12932,39 @@
     </row>
     <row r="45" spans="1:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="71" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="82">
+      <c r="D45" s="71">
         <v>44301</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="84">
+      <c r="E45" s="72"/>
+      <c r="F45" s="95">
         <f t="shared" si="43"/>
         <v>44291</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="95">
         <f t="shared" si="40"/>
         <v>44298</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="73">
         <f t="shared" si="44"/>
         <v>44256</v>
       </c>
-      <c r="I45" s="84">
+      <c r="I45" s="73">
         <f t="shared" si="10"/>
         <v>44256</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="66">
         <v>7</v>
       </c>
-      <c r="K45" s="60"/>
-      <c r="L45" s="73" t="str">
+      <c r="K45" s="59"/>
+      <c r="L45" s="96" t="str">
         <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
-      <c r="M45" s="66"/>
+      <c r="M45" s="63"/>
       <c r="N45" s="53"/>
       <c r="O45" s="48">
         <f t="shared" si="42"/>
@@ -12833,120 +13190,120 @@
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="5"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="5"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="5"/>
-      <c r="AZ46" s="5"/>
-      <c r="BA46" s="5"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="5"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="5"/>
-      <c r="BF46" s="5"/>
-      <c r="BG46" s="5"/>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="5"/>
-      <c r="BJ46" s="5"/>
-      <c r="BK46" s="5"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="5"/>
-      <c r="BN46" s="5"/>
-      <c r="BO46" s="5"/>
-      <c r="BP46" s="5"/>
-      <c r="BQ46" s="5"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="89"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="89"/>
+      <c r="S46" s="89"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="89"/>
+      <c r="V46" s="89"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="89"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="89"/>
+      <c r="AB46" s="89"/>
+      <c r="AC46" s="89"/>
+      <c r="AD46" s="89"/>
+      <c r="AE46" s="89"/>
+      <c r="AF46" s="89"/>
+      <c r="AG46" s="89"/>
+      <c r="AH46" s="89"/>
+      <c r="AI46" s="89"/>
+      <c r="AJ46" s="89"/>
+      <c r="AK46" s="89"/>
+      <c r="AL46" s="89"/>
+      <c r="AM46" s="89"/>
+      <c r="AN46" s="89"/>
+      <c r="AO46" s="89"/>
+      <c r="AP46" s="89"/>
+      <c r="AQ46" s="89"/>
+      <c r="AR46" s="89"/>
+      <c r="AS46" s="89"/>
+      <c r="AT46" s="89"/>
+      <c r="AU46" s="89"/>
+      <c r="AV46" s="89"/>
+      <c r="AW46" s="89"/>
+      <c r="AX46" s="89"/>
+      <c r="AY46" s="89"/>
+      <c r="AZ46" s="89"/>
+      <c r="BA46" s="89"/>
+      <c r="BB46" s="89"/>
+      <c r="BC46" s="89"/>
+      <c r="BD46" s="89"/>
+      <c r="BE46" s="89"/>
+      <c r="BF46" s="89"/>
+      <c r="BG46" s="89"/>
+      <c r="BH46" s="89"/>
+      <c r="BI46" s="89"/>
+      <c r="BJ46" s="89"/>
+      <c r="BK46" s="89"/>
+      <c r="BL46" s="89"/>
+      <c r="BM46" s="89"/>
+      <c r="BN46" s="89"/>
+      <c r="BO46" s="89"/>
+      <c r="BP46" s="89"/>
+      <c r="BQ46" s="89"/>
       <c r="BR46" s="53"/>
     </row>
     <row r="47" spans="1:70" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="88"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="1:70" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="88"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
     </row>
     <row r="49" spans="2:70" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="88"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
     </row>
     <row r="50" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
       <c r="C50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="77">
         <f>MAX(D51:D55)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="91"/>
-      <c r="F50" s="90" t="e">
+      <c r="E50" s="78"/>
+      <c r="F50" s="77" t="e">
         <f>MIN(F51:F55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G50" s="90" t="e">
+      <c r="G50" s="77" t="e">
         <f>MAX(G51:G55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="15">
         <f>SUM(J51:J55)</f>
         <v>0</v>
@@ -13188,17 +13545,17 @@
     <row r="51" spans="2:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="92" t="s">
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="94" t="e">
+      <c r="G51" s="81" t="e">
         <f t="shared" ref="G51:G55" si="50">F51+J51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="43">
         <v>0</v>
       </c>
@@ -13433,18 +13790,18 @@
     <row r="52" spans="2:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94" t="e">
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="81" t="e">
         <f>G51</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="94" t="e">
+      <c r="G52" s="81" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="43">
         <v>0</v>
       </c>
@@ -13679,18 +14036,18 @@
     <row r="53" spans="2:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="94" t="e">
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="81" t="e">
         <f t="shared" ref="F53:F55" si="51">G52</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="94" t="e">
+      <c r="G53" s="81" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
       <c r="J53" s="43">
         <v>0</v>
       </c>
@@ -13925,18 +14282,18 @@
     <row r="54" spans="2:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="94" t="e">
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="81" t="e">
         <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="94" t="e">
+      <c r="G54" s="81" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
       <c r="J54" s="43">
         <v>0</v>
       </c>
@@ -14174,20 +14531,20 @@
         <f>"Submit " &amp; C50</f>
         <v>Submit Template</v>
       </c>
-      <c r="D55" s="92" t="s">
+      <c r="D55" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="93"/>
-      <c r="F55" s="94" t="e">
+      <c r="E55" s="80"/>
+      <c r="F55" s="81" t="e">
         <f t="shared" si="51"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G55" s="94" t="e">
+      <c r="G55" s="81" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
       <c r="J55" s="43">
         <v>0</v>
       </c>
@@ -14422,12 +14779,12 @@
     <row r="56" spans="2:70" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="17"/>
@@ -14850,59 +15207,59 @@
     <mergeCell ref="O1:AN1"/>
   </mergeCells>
   <conditionalFormatting sqref="O9:BQ39">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:BQ9">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:BQ15">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:BQ22">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:BQ28">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:BQ34">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BQ55">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:BQ50">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:BQ45">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:BQ40">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G15:G40" formula="1"/>
+    <ignoredError sqref="G15:G40 G11:G14 G41:G45" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15000,13 +15357,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E20">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"3-Med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"2-High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"1-Critical"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15323,7 +15680,7 @@
       </c>
       <c r="B5" s="25">
         <f ca="1">TODAY()</f>
-        <v>44270</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -18900,7 +19257,7 @@
       </c>
       <c r="I22" s="17">
         <f ca="1">SUM(I23:I27)/$G$9</f>
-        <v>0.42857142857142855</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="J22" s="17">
         <v>0.2</v>
@@ -19640,9 +19997,9 @@
       <c r="G25" s="43">
         <v>3</v>
       </c>
-      <c r="I25" s="19" t="str">
+      <c r="I25" s="19">
         <f ca="1">IF(F25&lt;=$B$5,G25,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J25" s="13"/>
       <c r="L25" s="48">
@@ -19886,9 +20243,9 @@
       <c r="G26" s="43">
         <v>6</v>
       </c>
-      <c r="I26" s="19" t="str">
+      <c r="I26" s="19">
         <f ca="1">IF(F26&lt;=$B$5,G26,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J26" s="13"/>
       <c r="L26" s="48">
@@ -20136,9 +20493,9 @@
       <c r="G27" s="43">
         <v>1</v>
       </c>
-      <c r="I27" s="19" t="str">
+      <c r="I27" s="19">
         <f ca="1">IF(F27&lt;=$B$5,G27,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J27" s="13"/>
       <c r="L27" s="48">
@@ -20392,7 +20749,7 @@
       </c>
       <c r="I28" s="17">
         <f ca="1">SUM(I29:I33)/$G$9</f>
-        <v>0.42857142857142855</v>
+        <v>3</v>
       </c>
       <c r="J28" s="17">
         <v>0.2</v>
@@ -20886,9 +21243,9 @@
       <c r="G30" s="43">
         <v>3</v>
       </c>
-      <c r="I30" s="19" t="str">
+      <c r="I30" s="19">
         <f ca="1">IF(F30&lt;=$B$5,G30,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J30" s="13"/>
       <c r="L30" s="48">
@@ -21132,9 +21489,9 @@
       <c r="G31" s="43">
         <v>8</v>
       </c>
-      <c r="I31" s="19" t="str">
+      <c r="I31" s="19">
         <f ca="1">IF(F31&lt;=$B$5,G31,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="J31" s="13"/>
       <c r="L31" s="48">
@@ -21378,9 +21735,9 @@
       <c r="G32" s="43">
         <v>5</v>
       </c>
-      <c r="I32" s="19" t="str">
+      <c r="I32" s="19">
         <f ca="1">IF(F32&lt;=$B$5,G32,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J32" s="13"/>
       <c r="L32" s="48">
@@ -21628,9 +21985,9 @@
       <c r="G33" s="43">
         <v>2</v>
       </c>
-      <c r="I33" s="19" t="str">
+      <c r="I33" s="19">
         <f ca="1">IF(F33&lt;=$B$5,G33,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J33" s="13"/>
       <c r="L33" s="48">
@@ -21884,7 +22241,7 @@
       </c>
       <c r="I34" s="17">
         <f ca="1">SUM(I35:I39)/$G$9</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J34" s="17">
         <v>0.2</v>
@@ -22133,9 +22490,9 @@
       <c r="G35" s="43">
         <v>0</v>
       </c>
-      <c r="I35" s="19" t="str">
+      <c r="I35" s="19">
         <f ca="1">IF(F35&lt;=$B$5,G35,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J35" s="13"/>
       <c r="L35" s="48">
@@ -22379,9 +22736,9 @@
       <c r="G36" s="43">
         <v>3</v>
       </c>
-      <c r="I36" s="19" t="str">
+      <c r="I36" s="19">
         <f ca="1">IF(F36&lt;=$B$5,G36,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J36" s="13"/>
       <c r="L36" s="48">
@@ -22625,9 +22982,9 @@
       <c r="G37" s="43">
         <v>2</v>
       </c>
-      <c r="I37" s="19" t="str">
+      <c r="I37" s="19">
         <f ca="1">IF(F37&lt;=$B$5,G37,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="J37" s="13"/>
       <c r="L37" s="48">
@@ -23806,32 +24163,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L9:BN40">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:BN9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:BN15">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:BN22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:BN28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BN34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
